--- a/data/requests for data/data requests.xlsx
+++ b/data/requests for data/data requests.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ian/Desktop/IRAP data sharing project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ian/git/repository-of-published-irap-data/data/requests for data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E224B1F-E575-AF49-BA56-4C905EDC4607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AB9671-2C65-EE49-8A9A-6A451BE25F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5720" yWindow="1220" windowWidth="20020" windowHeight="18060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6760" yWindow="1720" windowWidth="31640" windowHeight="18980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publications since 2018" sheetId="1" r:id="rId1"/>
     <sheet name="contacted" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="300">
   <si>
     <t>Key</t>
   </si>
@@ -800,9 +801,6 @@
     <t>reply_received_binary</t>
   </si>
   <si>
-    <t>reported_willing_to_share</t>
-  </si>
-  <si>
     <t>does not have access to data; he contacted another author asking if they can share it</t>
   </si>
   <si>
@@ -839,9 +837,6 @@
     <t>choice of contact</t>
   </si>
   <si>
-    <t>corrisponding author</t>
-  </si>
-  <si>
     <t>a senior author who I personally know</t>
   </si>
   <si>
@@ -849,13 +844,103 @@
   </si>
   <si>
     <t>sent_any_data</t>
+  </si>
+  <si>
+    <t>"I did have the data for these studies until very recently but I mistakenly wiped them from the old laptop where they were stored, along with quite a bit of other stuff from the Maynooth era."</t>
+  </si>
+  <si>
+    <t>info@perspectivesireland.ie</t>
+  </si>
+  <si>
+    <t>ciara.mcenteggart@ugent.be</t>
+  </si>
+  <si>
+    <t>Martin.Finn@UGent.be</t>
+  </si>
+  <si>
+    <t>colin.n.harte@gmail.com</t>
+  </si>
+  <si>
+    <t>j.egger@donders.ru.nl</t>
+  </si>
+  <si>
+    <t>annemieke.hendriks@gmail.com</t>
+  </si>
+  <si>
+    <t>geraldine.scanlon@dcu.ie</t>
+  </si>
+  <si>
+    <t>reported_able_and_willing_to_share</t>
+  </si>
+  <si>
+    <t>reported_able_and_willing_to_share_explanation</t>
+  </si>
+  <si>
+    <t>carol.a.murphy@nuim.ie</t>
+  </si>
+  <si>
+    <t>deirdre kavanagh ?</t>
+  </si>
+  <si>
+    <t>aleech@carlowcollege.ie</t>
+  </si>
+  <si>
+    <t>[journal does not issue DOIs]</t>
+  </si>
+  <si>
+    <t>Corrisponding author</t>
+  </si>
+  <si>
+    <t>finn</t>
+  </si>
+  <si>
+    <t>scanlon</t>
+  </si>
+  <si>
+    <t>leech</t>
+  </si>
+  <si>
+    <t>hendriks</t>
+  </si>
+  <si>
+    <t>perez</t>
+  </si>
+  <si>
+    <t>both corrisponding and senior</t>
+  </si>
+  <si>
+    <t>van der Kaap-Deeder, Vansteenkiste</t>
+  </si>
+  <si>
+    <t>corresponding author</t>
+  </si>
+  <si>
+    <t>both corresponding and senior authors</t>
+  </si>
+  <si>
+    <t>corresponding author and senior authors</t>
+  </si>
+  <si>
+    <t>multiple senior authors who I personally know</t>
+  </si>
+  <si>
+    <t>"I've not been working in research for almost 5 years now, and have no access anymore to the data you requested." - I informed her that Radboud's RDM policy was data retention for 10 years</t>
+  </si>
+  <si>
+    <t>out of office reply for maternity leave</t>
+  </si>
+  <si>
+    <t>ethical restrictions at one of the authors' institutions</t>
+  </si>
+  <si>
+    <t>unclear</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -997,8 +1082,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1178,6 +1269,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1339,10 +1436,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2822,26 +2922,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647F9036-BD7F-8941-AAC0-FD3B8EC13872}">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:U58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="D24" zoomScale="119" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="39.83203125" customWidth="1"/>
+    <col min="2" max="2" width="39.1640625" customWidth="1"/>
     <col min="3" max="3" width="5.83203125" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="6" max="6" width="23.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" customWidth="1"/>
+    <col min="8" max="8" width="34.83203125" customWidth="1"/>
     <col min="9" max="9" width="17.6640625" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="23.1640625" customWidth="1"/>
-    <col min="13" max="13" width="14.83203125" customWidth="1"/>
+    <col min="12" max="12" width="31.6640625" customWidth="1"/>
+    <col min="13" max="13" width="42.6640625" customWidth="1"/>
+    <col min="14" max="14" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>237</v>
       </c>
@@ -2864,7 +2965,7 @@
         <v>236</v>
       </c>
       <c r="H1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I1" t="s">
         <v>240</v>
@@ -2876,19 +2977,43 @@
         <v>254</v>
       </c>
       <c r="L1" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="M1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+      <c r="N1" t="s">
+        <v>269</v>
+      </c>
+      <c r="O1" t="s">
+        <v>266</v>
+      </c>
+      <c r="P1" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>241</v>
+      </c>
+      <c r="R1" t="s">
+        <v>254</v>
+      </c>
+      <c r="S1" t="s">
+        <v>278</v>
+      </c>
+      <c r="T1" t="s">
+        <v>279</v>
+      </c>
+      <c r="U1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B9" si="0">D2&amp;" ("&amp;C2&amp;") "&amp;E2</f>
-        <v>Murphy, Carol; Maloney, Emma; Kelly, Michelle (2022) The role of relational contextual cues versus relational coherence indicators as response options on the Implicit Relational Assessment Procedure</v>
+        <f t="shared" ref="B2:B58" si="0">D2&amp;" ("&amp;C2&amp;") "&amp;E2&amp;". "&amp;F2&amp;". "&amp;G2</f>
+        <v>Murphy, Carol; Maloney, Emma; Kelly, Michelle (2022) The role of relational contextual cues versus relational coherence indicators as response options on the Implicit Relational Assessment Procedure. The Psychological Record. 10.1007/s40732-022-00512-2</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -2906,319 +3031,400 @@
         <v>68</v>
       </c>
       <c r="H2" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="I2" t="s">
         <v>242</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>44995</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" t="str">
-        <f t="shared" si="0"/>
-        <v>Nolan, Conor; Murphy, Carol; Kelly, Michelle (2022) Using the IRAP to investigate gender biases towards ADHD and anxiety</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Nolan, Conor; Murphy, Carol; Kelly, Michelle (2022) Using the IRAP to investigate gender biases towards ADHD and anxiety. The Psychological Record. 10.1007/s40732-021-00474-x</v>
+      </c>
+      <c r="C3" s="3">
         <v>2022</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="4">
         <v>44995</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>Murphy, Rachel; Murphy, Carol; Kelly, Michelle; Roche, Bryan (2021) Using the Implicit Relational Assessment Procedure (IRAP) to examine implicit beauty bias in the context of employability</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Murphy, Rachel; Murphy, Carol; Kelly, Michelle; Roche, Bryan (2021) Using the Implicit Relational Assessment Procedure (IRAP) to examine implicit beauty bias in the context of employability. The Psychological Record. 10.1007/s40732-020-00427-w</v>
+      </c>
+      <c r="C4" s="3">
         <v>2021</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H4" t="s">
-        <v>269</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="H4" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="4">
         <v>44995</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>Curtis, Aisling; Foody, Mairéad; Kelly, Michelle; Murphy, Carol (2020) Using the Implicit Relational Assessment Procedure to explore students’ implicit age discrimination of toxic versus innocuous phrases</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Curtis, Aisling; Foody, Mairéad; Kelly, Michelle; Murphy, Carol (2020) Using the Implicit Relational Assessment Procedure to explore students’ implicit age discrimination of toxic versus innocuous phrases. International Journal of Psychology &amp; Psychological Therapy. NA</v>
+      </c>
+      <c r="C5" s="3">
         <v>2020</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="H5" t="s">
-        <v>269</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="H5" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="4">
         <v>44995</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>Kane, Alan; Murphy, Carol; Kelly, Michelle (2020) Assessing implicit and explicit dementia stigma in young adults and care-workers</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Kane, Alan; Murphy, Carol; Kelly, Michelle (2020) Assessing implicit and explicit dementia stigma in young adults and care-workers. Dementia: The International Journal of Social Research and Practice. 10.1177/1471301218804727</v>
+      </c>
+      <c r="C6" s="3">
         <v>2020</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H6" t="s">
-        <v>269</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="H6" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="4">
         <v>44995</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>Rice, Hannah; Murphy, Carol; Nolan, Conor; Kelly, Michelle (2020) Measuring implicit attractiveness bias in the context of innocence and guilt evaluations</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Rice, Hannah; Murphy, Carol; Nolan, Conor; Kelly, Michelle (2020) Measuring implicit attractiveness bias in the context of innocence and guilt evaluations. International Journal of Psychology &amp; Psychological Therapy. NA</v>
+      </c>
+      <c r="C7" s="3">
         <v>2020</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="H7" t="s">
-        <v>269</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="H7" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="4">
         <v>44995</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>Maloney, Emma; Foody, Mairéad; Murphy, Carol (2020) Do response options in the Implicit Relational Assessment Procedure (IRAP) matter? A comparison of contextual relations versus relational coherent indicators</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Maloney, Emma; Foody, Mairéad; Murphy, Carol (2020) Do response options in the Implicit Relational Assessment Procedure (IRAP) matter? A comparison of contextual relations versus relational coherent indicators. The Psychological Record. 10.1007/s40732-019-00360-7</v>
+      </c>
+      <c r="C8" s="3">
         <v>2020</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="H8" t="s">
-        <v>269</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="H8" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="4">
         <v>44995</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>Was, Margaret; Foody, Mairéad; Murphy, Carol (2019) Using the Implicit Relational Assessment Procedure (IRAP) to investigate attractiveness bias in the domain of employability</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Was, Margaret; Foody, Mairéad; Murphy, Carol (2019) Using the Implicit Relational Assessment Procedure (IRAP) to investigate attractiveness bias in the domain of employability. International Journal of Psychology &amp; Psychological Therapy. NA</v>
+      </c>
+      <c r="C9" s="3">
         <v>2019</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="H9" t="s">
-        <v>269</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="H9" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="4">
         <v>44995</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B10" t="str">
-        <f>D10&amp;" ("&amp;C10&amp;") "&amp;E10</f>
-        <v>Pennie, Brian; Kelly, Michelle E. (2018) An examination of generalised implicit biases towards ‘wanting more’ as a proxy measure of materialistic behaviour: A Relational Frame Theory (RFT) perspective</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Pennie, Brian; Kelly, Michelle E. (2018) An examination of generalised implicit biases towards ‘wanting more’ as a proxy measure of materialistic behaviour: A Relational Frame Theory (RFT) perspective. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2018.02.004</v>
+      </c>
+      <c r="C10" s="5">
         <v>2018</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H10" t="s">
-        <v>269</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="H10" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="4">
         <v>44995</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B11" t="str">
-        <f>D11&amp;" ("&amp;C11&amp;") "&amp;E11</f>
-        <v>Fleming, Katie; Foody, Mairead; Murphy, Carol (2020) Using the Implicit Relational Assessment Procedure (IRAP) to examine implicit gender stereotypes in science, technology, engineering and maths (STEM)</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Fleming, Katie; Foody, Mairead; Murphy, Carol (2020) Using the Implicit Relational Assessment Procedure (IRAP) to examine implicit gender stereotypes in science, technology, engineering and maths (STEM). The Psychological Record. 10.1007/s40732-020-00401-6</v>
+      </c>
+      <c r="C11" s="3">
         <v>2020</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H11" t="s">
-        <v>269</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="H11" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="4">
         <v>44995</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>133</v>
       </c>
       <c r="B12" t="str">
-        <f>D12&amp;" ("&amp;C12&amp;") "&amp;E12</f>
-        <v>Bast, Diana Ferroni; Lyons, Christina; Stewart, Ian; Connor, Thomas; Kelly, Michelle; Goyos, Celso (2020) The effect of educational messages on implicit and explicit attitudes towards individuals on the autism spectrum versus normally developing individuals</v>
+        <f t="shared" si="0"/>
+        <v>Bast, Diana Ferroni; Lyons, Christina; Stewart, Ian; Connor, Thomas; Kelly, Michelle; Goyos, Celso (2020) The effect of educational messages on implicit and explicit attitudes towards individuals on the autism spectrum versus normally developing individuals. The Psychological Record. 10.1007/s40732-019-00363-4</v>
       </c>
       <c r="C12">
         <v>2020</v>
@@ -3236,22 +3442,22 @@
         <v>136</v>
       </c>
       <c r="H12" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="I12" t="s">
         <v>246</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <v>44995</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>107</v>
       </c>
       <c r="B13" t="str">
-        <f>D13&amp;" ("&amp;C13&amp;") "&amp;E13</f>
-        <v>Ferroni-Bast, Diana; Fitzpatrick, Jane; Stewart, Ian; Goyos, Celso (2019) Using the Implicit Relational Assessment Procedure (IRAP) as a measure of reaction to perceived failure and the effects of a defusion intervention in this context</v>
+        <f t="shared" si="0"/>
+        <v>Ferroni-Bast, Diana; Fitzpatrick, Jane; Stewart, Ian; Goyos, Celso (2019) Using the Implicit Relational Assessment Procedure (IRAP) as a measure of reaction to perceived failure and the effects of a defusion intervention in this context. The Psychological Record. 10.1007/s40732-019-00349-2</v>
       </c>
       <c r="C13">
         <v>2019</v>
@@ -3269,349 +3475,463 @@
         <v>110</v>
       </c>
       <c r="H13" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="I13" t="s">
         <v>246</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>44995</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B14" t="str">
-        <f>D14&amp;" ("&amp;C14&amp;") "&amp;E14</f>
-        <v>Rezende, Mauro Carvalho; Bast, Diana Ferroni; Huziwara, Edson Massayuki; Bortoloti, Renato (2021) The Implicit Relational Assessment Procedure as a measure of hopelessness in the elderly: An exploratory study</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Rezende, Mauro Carvalho; Bast, Diana Ferroni; Huziwara, Edson Massayuki; Bortoloti, Renato (2021) The Implicit Relational Assessment Procedure as a measure of hopelessness in the elderly: An exploratory study. The Psychological Record. 10.1007/s40732-020-00406-1</v>
+      </c>
+      <c r="C14" s="3">
         <v>2021</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H14" t="s">
-        <v>269</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="H14" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="4">
         <v>44995</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B15" t="str">
-        <f>D15&amp;" ("&amp;C15&amp;") "&amp;E15</f>
-        <v>Alasiri, Eman; Bast, Diana; Kolts, Russell L. (2019) Using the Implicit Relational Assessment Procedure (IRAP) to explore common humanity as a dimension of self-compassion</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Alasiri, Eman; Bast, Diana; Kolts, Russell L. (2019) Using the Implicit Relational Assessment Procedure (IRAP) to explore common humanity as a dimension of self-compassion. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2019.09.004</v>
+      </c>
+      <c r="C15" s="3">
         <v>2019</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H15" t="s">
-        <v>269</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="H15" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="4">
         <v>44995</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>221</v>
+        <v>165</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" ref="B16:B30" si="1">D16&amp;" ("&amp;C16&amp;") "&amp;E16</f>
-        <v>Leech, Aileen; Barnes-Holmes, Dermot (2022) Fear and avoidance: A three-day investigation on the impact of a fear-related verbal-rehearsal task on a behavior-behavior relation</v>
+        <f t="shared" si="0"/>
+        <v>Dunne, Ciara; McEnteggart, Ciara; Harte, Colin; Barnes-Holmes, Dermot; Barnes-Holmes, Yvonne (2018) Faking a race IRAP effect in the context of single versus multiple label stimuli. International Journal of Psychology &amp; Psychological Therapy. [journal does not issue DOIs]</v>
       </c>
       <c r="C16">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="E16" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>223</v>
+        <v>283</v>
       </c>
       <c r="H16" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I16" t="s">
         <v>247</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="1">
         <v>44995</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="1"/>
-        <v>Kavanagh, Deirdre; Barnes-Holmes, Yvonne; Barnes-Holmes, Dermot (2022) Attempting to analyze perspective-taking with a false belief vignette using the Implicit Relational Assessment Procedure</v>
+        <f t="shared" si="0"/>
+        <v>Finn, Martin; Barnes-Holmes, Dermot; McEnteggart, Ciara (2018) Exploring the single-trial-type-dominance-effect in the IRAP: Developing a differential arbitrarily applicable relational responding effects (DAARRE) model. The Psychological Record. 10.1007/s40732-017-0262-z</v>
       </c>
       <c r="C17">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F17" t="s">
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="H17" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="I17" t="s">
         <v>247</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <v>44995</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>299</v>
+      </c>
+      <c r="O17" t="s">
+        <v>284</v>
+      </c>
+      <c r="P17" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>44999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="1"/>
-        <v>Pidgeon, Audrey; McEnteggart, Ciara; Harte, Colin; Barnes-Holmes, Dermot; Barnes-Holmes, Yvonne (2021) Four self-related IRAPs: Analyzing and interpreting effects in light of the DAARRE model</v>
+        <f t="shared" si="0"/>
+        <v>Finn, Martin; Barnes-Holmes, Dermot; McEnteggart, Ciara; Kavanagh, Deirdre (2019) Predicting and influencing the single-trial-type-dominance-effect: The first study. The Psychological Record. 10.1007/s40732-019-00347-4</v>
       </c>
       <c r="C18">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D18" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="H18" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="I18" t="s">
         <v>247</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="1">
         <v>44995</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>299</v>
+      </c>
+      <c r="O18" t="s">
+        <v>284</v>
+      </c>
+      <c r="P18" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>44999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>213</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="1"/>
-        <v>Leech, Aileen; Barnes-Holmes, Dermot (2020) Training and testing for a transformation of fear and avoidance functions via combinatorial entailment using the Implicit Relational Assessment Procedure (IRAP): Further exploratory analyses</v>
+        <f t="shared" si="0"/>
+        <v>Gomes, Cainã T.; Perez, William F.; de Almeida, João Henrique; Ribeiro, Arthur; de Rose, Julio C.; Barnes-Holmes, Dermot (2019) Assessing a derived transformation of functions using the Implicit Relational Assessment Procedure under three motivative conditions. The Psychological Record. 10.1007/s40732-019-00353-6</v>
       </c>
       <c r="C19">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>214</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>215</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>86</v>
+        <v>216</v>
       </c>
       <c r="H19" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="I19" t="s">
         <v>247</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="1">
         <v>44995</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>299</v>
+      </c>
+      <c r="O19" t="s">
+        <v>284</v>
+      </c>
+      <c r="P19" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>44999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="1"/>
-        <v>Hendriks, Annemieke L.; McEnteggart, Ciara; Barnes-Holmes, Yvonne; Veltmaat, Anouk; De Mey, Hubert R. A.; Witteman, Cilia L. M.; Janssen, Gwenny T. L.; Egger, Jos I. M. (2020) Assessing deictic relational responding in social anxiety using the Implicit Relational Assessment Procedure</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Hendriks, Annemieke L.; McEnteggart, Ciara; Barnes-Holmes, Yvonne; De Mey, Hubert R. A.; Witteman, Cilia L. M.; Janssen, Gwenny T. L.; Egger, Jos I. M. (2020) Assessing deictic relational responding in psychosis using the Implicit Relational Assessment Procedure. International Journal of Psychology &amp; Psychological Therapy. </v>
       </c>
       <c r="C20">
         <v>2020</v>
       </c>
       <c r="D20" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E20" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F20" t="s">
         <v>32</v>
       </c>
-      <c r="G20" t="s">
-        <v>243</v>
-      </c>
       <c r="H20" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="I20" t="s">
         <v>247</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="1">
         <v>44995</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>299</v>
+      </c>
+      <c r="O20" t="s">
+        <v>284</v>
+      </c>
+      <c r="P20" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>44999</v>
+      </c>
+      <c r="R20" t="b">
+        <v>1</v>
+      </c>
+      <c r="S20" t="b">
+        <v>0</v>
+      </c>
+      <c r="T20" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="1"/>
-        <v>Hendriks, Annemieke L.; McEnteggart, Ciara; Barnes-Holmes, Yvonne; De Mey, Hubert R. A.; Witteman, Cilia L. M.; Janssen, Gwenny T. L.; Egger, Jos I. M. (2020) Assessing deictic relational responding in psychosis using the Implicit Relational Assessment Procedure</v>
+        <f t="shared" si="0"/>
+        <v>Hendriks, Annemieke L.; McEnteggart, Ciara; Barnes-Holmes, Yvonne; Veltmaat, Anouk; De Mey, Hubert R. A.; Witteman, Cilia L. M.; Janssen, Gwenny T. L.; Egger, Jos I. M. (2020) Assessing deictic relational responding in social anxiety using the Implicit Relational Assessment Procedure. International Journal of Psychology &amp; Psychological Therapy. [journal does not issue DOIs]</v>
       </c>
       <c r="C21">
         <v>2020</v>
       </c>
       <c r="D21" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E21" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F21" t="s">
         <v>32</v>
       </c>
+      <c r="G21" t="s">
+        <v>283</v>
+      </c>
       <c r="H21" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="I21" t="s">
         <v>247</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="1">
         <v>44995</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>299</v>
+      </c>
+      <c r="O21" t="s">
+        <v>284</v>
+      </c>
+      <c r="P21" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>44999</v>
+      </c>
+      <c r="R21" t="b">
+        <v>1</v>
+      </c>
+      <c r="S21" t="b">
+        <v>0</v>
+      </c>
+      <c r="T21" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="1"/>
-        <v>Kavanagh, Deirdre; Roelandt, Adeline; Raemdonck, Lisa; Barnes-Holmes, Yvonne; Barnes-Holmes, Dermot; McEnteggart, Ciara (2019) The on-going search for perspective-taking IRAPs: Exploring the potential of the natural language-IRAP</v>
+        <f t="shared" si="0"/>
+        <v>Kavanagh, Deirdre; Barnes-Holmes, Yvonne; Barnes-Holmes, Dermot (2022) Attempting to analyze perspective-taking with a false belief vignette using the Implicit Relational Assessment Procedure. The Psychological Record. 10.1007/s40732-021-00500-y</v>
       </c>
       <c r="C22">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="F22" t="s">
         <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="H22" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I22" t="s">
         <v>247</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="1">
         <v>44995</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="1"/>
-        <v>Finn, Martin; Barnes-Holmes, Dermot; McEnteggart, Ciara; Kavanagh, Deirdre (2019) Predicting and influencing the single-trial-type-dominance-effect: The first study</v>
+        <f t="shared" si="0"/>
+        <v>Kavanagh, Deirdre; Barnes-Holmes, Yvonne; Barnes-Holmes, Dermot; McEnteggart, Ciara; Finn, Martin (2018) Exploring differential trial-type effects and the impact of a read-aloud procedure on deictic relational responding on the IRAP. The Psychological Record. 10.1007/s40732-018-0276-1</v>
       </c>
       <c r="C23">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="F23" t="s">
         <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="H23" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I23" t="s">
         <v>247</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="1">
         <v>44995</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>171</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="1"/>
-        <v>Kavanagh, Deirdre; Matthyssen, Nele; Barnes-Holmes, Yvonne; Barnes-Holmes, Dermot; McEnteggart, Ciara; Vastano, Roberta (2019) Exploring the use of pictures of self and other in the IRAP: Reflecting upon the emergence of differential trial type effects</v>
+        <f t="shared" si="0"/>
+        <v>Kavanagh, Deirdre; Matthyssen, Nele; Barnes-Holmes, Yvonne; Barnes-Holmes, Dermot; McEnteggart, Ciara; Vastano, Roberta (2019) Exploring the use of pictures of self and other in the IRAP: Reflecting upon the emergence of differential trial type effects. International Journal of Psychology &amp; Psychological Therapy. [journal does not issue DOIs]</v>
       </c>
       <c r="C24">
         <v>2019</v>
@@ -3626,223 +3946,331 @@
         <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="H24" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I24" t="s">
         <v>247</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="1">
         <v>44995</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>213</v>
+        <v>87</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="1"/>
-        <v>Gomes, Cainã T.; Perez, William F.; de Almeida, João Henrique; Ribeiro, Arthur; de Rose, Julio C.; Barnes-Holmes, Dermot (2019) Assessing a derived transformation of functions using the Implicit Relational Assessment Procedure under three motivative conditions</v>
+        <f t="shared" si="0"/>
+        <v>Kavanagh, Deirdre; Roelandt, Adeline; Raemdonck, Lisa; Barnes-Holmes, Yvonne; Barnes-Holmes, Dermot; McEnteggart, Ciara (2019) The on-going search for perspective-taking IRAPs: Exploring the potential of the natural language-IRAP. The Psychological Record. 10.1007/s40732-019-00333-w</v>
       </c>
       <c r="C25">
         <v>2019</v>
       </c>
       <c r="D25" t="s">
-        <v>214</v>
+        <v>88</v>
       </c>
       <c r="E25" t="s">
-        <v>215</v>
+        <v>89</v>
       </c>
       <c r="F25" t="s">
         <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>216</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I25" t="s">
         <v>247</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="1">
         <v>44995</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="1"/>
-        <v>Scanlon, Geraldine; McEnteggart, Ciara; Barnes-Holmes, Yvonne (2020) Attitudes to pupils with EBD: An implicit approach</v>
+        <f t="shared" si="0"/>
+        <v>Leech, Aileen; Barnes-Holmes, Dermot (2022) Fear and avoidance: A three-day investigation on the impact of a fear-related verbal-rehearsal task on a behavior-behavior relation. The Psychological Record. 10.1007/s40732-021-00470-1</v>
       </c>
       <c r="C26">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D26" t="s">
-        <v>200</v>
+        <v>84</v>
       </c>
       <c r="E26" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="G26" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="H26" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="I26" t="s">
         <v>247</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="1">
         <v>44995</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>299</v>
+      </c>
+      <c r="O26" t="s">
+        <v>284</v>
+      </c>
+      <c r="P26" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>44999</v>
+      </c>
+      <c r="R26" t="b">
+        <v>1</v>
+      </c>
+      <c r="S26" t="b">
+        <v>0</v>
+      </c>
+      <c r="T26" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="1"/>
-        <v>Kavanagh, Deirdre; Barnes-Holmes, Yvonne; Barnes-Holmes, Dermot; McEnteggart, Ciara; Finn, Martin (2018) Exploring differential trial-type effects and the impact of a read-aloud procedure on deictic relational responding on the IRAP</v>
+        <f t="shared" si="0"/>
+        <v>Leech, Aileen; Barnes-Holmes, Dermot (2020) Training and testing for a transformation of fear and avoidance functions via combinatorial entailment using the Implicit Relational Assessment Procedure (IRAP): Further exploratory analyses. Behavioural Processes. 10.1016/j.beproc.2019.104027</v>
       </c>
       <c r="C27">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="G27" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="I27" t="s">
         <v>247</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="1">
         <v>44995</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>299</v>
+      </c>
+      <c r="O27" t="s">
+        <v>284</v>
+      </c>
+      <c r="P27" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>44999</v>
+      </c>
+      <c r="R27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S27" t="b">
+        <v>0</v>
+      </c>
+      <c r="T27" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="1"/>
-        <v>Finn, Martin; Barnes-Holmes, Dermot; McEnteggart, Ciara (2018) Exploring the single-trial-type-dominance-effect in the IRAP: Developing a differential arbitrarily applicable relational responding effects (DAARRE) model</v>
+        <f t="shared" si="0"/>
+        <v>Leech, Aileen; Bouyrden, Jaber; Bruijsten, Nathalie; Barnes-Holmes, Dermot; McEnteggart, Ciara (2018) Training and testing for a transformation of fear and avoidance functions using the Implicit Relational Assessment Procedure: The first study. Behavioural Processes. 10.1016/j.beproc.2018.08.012</v>
       </c>
       <c r="C28">
         <v>2018</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="G28" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="I28" t="s">
         <v>247</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="1">
         <v>44995</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>299</v>
+      </c>
+      <c r="O28" t="s">
+        <v>284</v>
+      </c>
+      <c r="P28" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>44999</v>
+      </c>
+      <c r="R28" t="b">
+        <v>1</v>
+      </c>
+      <c r="S28" t="b">
+        <v>0</v>
+      </c>
+      <c r="T28" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="1"/>
-        <v>Dunne, Ciara; McEnteggart, Ciara; Harte, Colin; Barnes-Holmes, Dermot; Barnes-Holmes, Yvonne (2018) Faking a race IRAP effect in the context of single versus multiple label stimuli</v>
+        <f t="shared" si="0"/>
+        <v>Pidgeon, Audrey; McEnteggart, Ciara; Harte, Colin; Barnes-Holmes, Dermot; Barnes-Holmes, Yvonne (2021) Four self-related IRAPs: Analyzing and interpreting effects in light of the DAARRE model. The Psychological Record. 10.1007/s40732-020-00428-9</v>
       </c>
       <c r="C29">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D29" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E29" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>243</v>
+        <v>164</v>
       </c>
       <c r="H29" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I29" t="s">
         <v>247</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="1">
         <v>44995</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="1"/>
-        <v>Leech, Aileen; Bouyrden, Jaber; Bruijsten, Nathalie; Barnes-Holmes, Dermot; McEnteggart, Ciara (2018) Training and testing for a transformation of fear and avoidance functions using the Implicit Relational Assessment Procedure: The first study</v>
+        <f t="shared" si="0"/>
+        <v>Scanlon, Geraldine; McEnteggart, Ciara; Barnes-Holmes, Yvonne (2020) Attitudes to pupils with EBD: An implicit approach. Emotional &amp; Behavioural Difficulties. 10.1080/13632752.2020.1729609</v>
       </c>
       <c r="C30">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s">
-        <v>49</v>
+        <v>202</v>
       </c>
       <c r="H30" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="I30" t="s">
         <v>247</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="1">
         <v>44995</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" t="s">
+        <v>299</v>
+      </c>
+      <c r="O30" t="s">
+        <v>284</v>
+      </c>
+      <c r="P30" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>44999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>60</v>
       </c>
       <c r="B31" t="str">
-        <f>D31&amp;" ("&amp;C31&amp;") "&amp;E31</f>
-        <v>Hernández-López, Monica; Quinones-Jimenez, Lourdes; Blanco-Romero, Alberto L.; Rodriguez-Valverde, Miguel (2021) Testing the discrepancy between actual and ideal body image with the Implicit Relational Assessment Procedure (IRAP)</v>
+        <f t="shared" si="0"/>
+        <v>Hernández-López, Monica; Quinones-Jimenez, Lourdes; Blanco-Romero, Alberto L.; Rodriguez-Valverde, Miguel (2021) Testing the discrepancy between actual and ideal body image with the Implicit Relational Assessment Procedure (IRAP). Journal of Eating Disorders. 10.1186/s40337-021-00434-4</v>
       </c>
       <c r="C31">
         <v>2021</v>
@@ -3860,22 +4288,28 @@
         <v>64</v>
       </c>
       <c r="H31" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="I31" t="s">
         <v>248</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="1">
         <v>44995</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>153</v>
       </c>
       <c r="B32" t="str">
-        <f>D32&amp;" ("&amp;C32&amp;") "&amp;E32</f>
-        <v>Hernández-López, Mónica; Antequera-Rubio, Alba; Rodríguez-Valverde, Miguel (2019) Implicit attitudes to female body shape in Spanish women with high and low body dissatisfaction</v>
+        <f t="shared" si="0"/>
+        <v>Hernández-López, Mónica; Antequera-Rubio, Alba; Rodríguez-Valverde, Miguel (2019) Implicit attitudes to female body shape in Spanish women with high and low body dissatisfaction. Frontiers in Psychology. 10.3389/fpsyg.2019.02102</v>
       </c>
       <c r="C32">
         <v>2019</v>
@@ -3893,253 +4327,259 @@
         <v>156</v>
       </c>
       <c r="H32" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="I32" t="s">
         <v>248</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="1">
         <v>44995</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B33" t="str">
-        <f t="shared" ref="B33:B39" si="2">D33&amp;" ("&amp;C33&amp;") "&amp;E33</f>
-        <v>Schmidt, Margarete; de Rose, Julio C.; Bortoloti, Renato (2021) Relating, orienting and evoking functions in an IRAP study involving emotional pictographs (emojis) used in electronic messages</v>
-      </c>
-      <c r="C33">
+      <c r="B33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Schmidt, Margarete; de Rose, Julio C.; Bortoloti, Renato (2021) Relating, orienting and evoking functions in an IRAP study involving emotional pictographs (emojis) used in electronic messages. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2021.06.005</v>
+      </c>
+      <c r="C33" s="3">
         <v>2021</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H33" t="s">
-        <v>269</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="H33" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="I33" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="4">
         <v>44995</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B34" t="str">
-        <f t="shared" si="2"/>
-        <v>Pinto, Joana Andrade Ramalho; de Almeida, Rodrigo Vianna; Bortoloti, Renato (2020) The stimulus’ orienting function may play an important role in IRAP performance: Supportive evidence from an eye-tracking study of brands</v>
-      </c>
-      <c r="C34">
+      <c r="B34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Pinto, Joana Andrade Ramalho; de Almeida, Rodrigo Vianna; Bortoloti, Renato (2020) The stimulus’ orienting function may play an important role in IRAP performance: Supportive evidence from an eye-tracking study of brands. The Psychological Record. 10.1007/s40732-020-00378-2</v>
+      </c>
+      <c r="C34" s="3">
         <v>2020</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H34" t="s">
-        <v>269</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="H34" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="I34" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="4">
         <v>44995</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B35" t="str">
-        <f t="shared" si="2"/>
-        <v>Gomes, Cainã T.; Perez, William F.; de Almeida, João Henrique; Ribeiro, Arthur; de Rose, Julio C.; Barnes-Holmes, Dermot (2019) Assessing a derived transformation of functions using the Implicit Relational Assessment Procedure under three motivative conditions</v>
-      </c>
-      <c r="C35">
+      <c r="B35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Gomes, Cainã T.; Perez, William F.; de Almeida, João Henrique; Ribeiro, Arthur; de Rose, Julio C.; Barnes-Holmes, Dermot (2019) Assessing a derived transformation of functions using the Implicit Relational Assessment Procedure under three motivative conditions. The Psychological Record. 10.1007/s40732-019-00353-6</v>
+      </c>
+      <c r="C35" s="3">
         <v>2019</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="H35" t="s">
-        <v>269</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="H35" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="I35" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="4">
         <v>44995</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B36" t="str">
-        <f t="shared" si="2"/>
-        <v>Moreira, Murilo; de Almeida, João H.; de Rose, Júlio C. (2021) The impact of career choice on the implicit gender–career bias among undergraduate Brazilian students</v>
-      </c>
-      <c r="C36">
+      <c r="B36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Moreira, Murilo; de Almeida, João H.; de Rose, Júlio C. (2021) The impact of career choice on the implicit gender–career bias among undergraduate Brazilian students. Behavior and Social Issues. 10.1007/s42822-021-00075-x</v>
+      </c>
+      <c r="C36" s="3">
         <v>2021</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="H36" t="s">
-        <v>269</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="H36" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="I36" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="4">
         <v>44995</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B37" t="str">
-        <f t="shared" si="2"/>
-        <v>Rezende, Mauro Carvalho; Bast, Diana Ferroni; Huziwara, Edson Massayuki; Bortoloti, Renato (2021) The Implicit Relational Assessment Procedure as a measure of hopelessness in the elderly: An exploratory study</v>
-      </c>
-      <c r="C37">
+      <c r="B37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Rezende, Mauro Carvalho; Bast, Diana Ferroni; Huziwara, Edson Massayuki; Bortoloti, Renato (2021) The Implicit Relational Assessment Procedure as a measure of hopelessness in the elderly: An exploratory study. The Psychological Record. 10.1007/s40732-020-00406-1</v>
+      </c>
+      <c r="C37" s="3">
         <v>2021</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H37" t="s">
-        <v>269</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="H37" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="4">
         <v>44995</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B38" t="str">
-        <f t="shared" si="2"/>
-        <v>Perez, William F.; de Almeida, João Henrique; de Rose, Julio C.; Dorigon, Andrea H.; de Vasconcellos, Eduardo L.; da Silva, Marco A.; Lima, Najra D. P.; de Almeida, Roberta B. M.; Montan, Rodrigo N. M.; Barnes-Holmes, Dermot (2019) Implicit and explicit measures of transformation of function from facial expressions of fear and of happiness via equivalence relations</v>
-      </c>
-      <c r="C38">
+      <c r="B38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Perez, William F.; de Almeida, João Henrique; de Rose, Julio C.; Dorigon, Andrea H.; de Vasconcellos, Eduardo L.; da Silva, Marco A.; Lima, Najra D. P.; de Almeida, Roberta B. M.; Montan, Rodrigo N. M.; Barnes-Holmes, Dermot (2019) Implicit and explicit measures of transformation of function from facial expressions of fear and of happiness via equivalence relations. The Psychological Record. 10.1007/s40732-018-0304-1</v>
+      </c>
+      <c r="C38" s="3">
         <v>2019</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="H38" t="s">
-        <v>269</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="H38" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="4">
         <v>44995</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B39" t="str">
-        <f t="shared" si="2"/>
-        <v>Bortoloti, Renato; de Almeida, Rodrigo Vianna; de Almeida, João Henrique; de Rose, Julio C. (2019) Emotional faces in symbolic relations: A happiness superiority effect involving the equivalence paradigm</v>
-      </c>
-      <c r="C39">
+      <c r="B39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Bortoloti, Renato; de Almeida, Rodrigo Vianna; de Almeida, João Henrique; de Rose, Julio C. (2019) Emotional faces in symbolic relations: A happiness superiority effect involving the equivalence paradigm. Frontiers in Psychology. 10.3389/fpsyg.2019.00954</v>
+      </c>
+      <c r="C39" s="3">
         <v>2019</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="H39" t="s">
-        <v>269</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="H39" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="I39" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="4">
         <v>44995</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>190</v>
       </c>
       <c r="B40" t="str">
-        <f>D40&amp;" ("&amp;C40&amp;") "&amp;E40</f>
-        <v>Farrell, Lynn; Nearchou, Finiki; McHugh, Louise (2020) Examining the effectiveness of brief interventions to strengthen a positive implicit relation between women and STEM across two timepoints</v>
+        <f t="shared" si="0"/>
+        <v>Farrell, Lynn; Nearchou, Finiki; McHugh, Louise (2020) Examining the effectiveness of brief interventions to strengthen a positive implicit relation between women and STEM across two timepoints. Social Psychology of Education: An International Journal. 10.1007/s11218-020-09576-w</v>
       </c>
       <c r="C40">
         <v>2020</v>
@@ -4157,22 +4597,28 @@
         <v>194</v>
       </c>
       <c r="H40" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="I40" t="s">
         <v>250</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40" s="1">
         <v>44995</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>16</v>
       </c>
       <c r="B41" t="str">
-        <f>D41&amp;" ("&amp;C41&amp;") "&amp;E41</f>
-        <v>Munnelly, Anita; Farrell, Lynn; O'Connor, Martin; McHugh, Louise (2018) Adolescents’ implicit and explicit attitudes toward cyberbullying: An exploratory study using the Implicit Relational Assessment Procedure (IRAP) and self-report measures</v>
+        <f t="shared" si="0"/>
+        <v>Munnelly, Anita; Farrell, Lynn; O'Connor, Martin; McHugh, Louise (2018) Adolescents’ implicit and explicit attitudes toward cyberbullying: An exploratory study using the Implicit Relational Assessment Procedure (IRAP) and self-report measures. The Psychological Record. 10.1007/s40732-017-0261-0</v>
       </c>
       <c r="C41">
         <v>2018</v>
@@ -4190,22 +4636,28 @@
         <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="I41" t="s">
         <v>250</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="1">
         <v>44995</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>168</v>
       </c>
       <c r="B42" t="str">
-        <f>D42&amp;" ("&amp;C42&amp;") "&amp;E42</f>
-        <v>Farrell, Lynn; McHugh, Louise (2020) Exploring the relationship between implicit and explicit gender-STEM bias and behavior among STEM students using the Implicit Relational Assessment Procedure</v>
+        <f t="shared" si="0"/>
+        <v>Farrell, Lynn; McHugh, Louise (2020) Exploring the relationship between implicit and explicit gender-STEM bias and behavior among STEM students using the Implicit Relational Assessment Procedure. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2019.12.008</v>
       </c>
       <c r="C42">
         <v>2020</v>
@@ -4223,22 +4675,28 @@
         <v>170</v>
       </c>
       <c r="H42" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="I42" t="s">
         <v>250</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="1">
         <v>44995</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>50</v>
       </c>
       <c r="B43" t="str">
-        <f>D43&amp;" ("&amp;C43&amp;") "&amp;E43</f>
-        <v>van der Kaap-Deeder, Jolene; De Houwer, Jan; Hughes, Sean; Spruyt, Adriaan; Vansteenkiste, Maarten (2018) The development and validation of an implicit measure of competence need satisfaction</v>
+        <f t="shared" si="0"/>
+        <v>van der Kaap-Deeder, Jolene; De Houwer, Jan; Hughes, Sean; Spruyt, Adriaan; Vansteenkiste, Maarten (2018) The development and validation of an implicit measure of competence need satisfaction. Motivation and Emotion. 10.1007/s11031-018-9685-3</v>
       </c>
       <c r="C43">
         <v>2018</v>
@@ -4256,22 +4714,43 @@
         <v>54</v>
       </c>
       <c r="H43" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="I43" t="s">
         <v>251</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43" s="1">
         <v>44995</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K43" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="O43" t="s">
+        <v>290</v>
+      </c>
+      <c r="P43" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>44999</v>
+      </c>
+      <c r="R43" t="b">
+        <v>1</v>
+      </c>
+      <c r="S43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>203</v>
       </c>
       <c r="B44" t="str">
-        <f>D44&amp;" ("&amp;C44&amp;") "&amp;E44</f>
-        <v>Rafacz, Sharlet D.; Houmanfar, Ramona A.; Smith, Gregory S.; Levin, Michael E. (2019) Assessing the effects of motivative augmentals, pay-for-performance, and implicit verbal responding on cooperation</v>
+        <f t="shared" si="0"/>
+        <v>Rafacz, Sharlet D.; Houmanfar, Ramona A.; Smith, Gregory S.; Levin, Michael E. (2019) Assessing the effects of motivative augmentals, pay-for-performance, and implicit verbal responding on cooperation. The Psychological Record. 10.1007/s40732-018-0324-x</v>
       </c>
       <c r="C44">
         <v>2019</v>
@@ -4289,28 +4768,31 @@
         <v>206</v>
       </c>
       <c r="H44" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I44" t="s">
         <v>252</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44" s="1">
         <v>44995</v>
       </c>
       <c r="K44" t="b">
         <v>1</v>
       </c>
-      <c r="L44" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>8</v>
       </c>
       <c r="B45" t="str">
-        <f>D45&amp;" ("&amp;C45&amp;") "&amp;E45</f>
-        <v>Drake, Chad E.; Primeaux, Sunni; Thomas, Jorden (2018) Comparing implicit gender stereotypes between women and men with the Implicit Relational Assessment Procedure</v>
+        <f t="shared" si="0"/>
+        <v>Drake, Chad E.; Primeaux, Sunni; Thomas, Jorden (2018) Comparing implicit gender stereotypes between women and men with the Implicit Relational Assessment Procedure. Gender Issues. 10.1007/s12147-017-9189-6</v>
       </c>
       <c r="C45">
         <v>2018</v>
@@ -4337,13 +4819,13 @@
         <v>243</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>39</v>
       </c>
       <c r="B46" t="str">
-        <f>D46&amp;" ("&amp;C46&amp;") "&amp;E46</f>
-        <v>Drake, Chad E.; Codd, R. Trent III; Terry, Christeine (2018) Assessing the validity of implicit and explicit measures of stigma toward clients with substance use disorders among mental health practitioners</v>
+        <f t="shared" si="0"/>
+        <v>Drake, Chad E.; Codd, R. Trent III; Terry, Christeine (2018) Assessing the validity of implicit and explicit measures of stigma toward clients with substance use disorders among mental health practitioners. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2018.03.005</v>
       </c>
       <c r="C46">
         <v>2018</v>
@@ -4370,13 +4852,13 @@
         <v>243</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>28</v>
       </c>
       <c r="B47" t="str">
-        <f>D47&amp;" ("&amp;C47&amp;") "&amp;E47</f>
-        <v>De Schryver, Maarten; Hussey, Ian; De Neve, Jan; Cartwright, Aoife; Barnes-Holmes, Dermot (2018) The PIIRAP: An alternative scoring algorithm for the IRAP using a probabilistic semiparametric effect size measure</v>
+        <f t="shared" si="0"/>
+        <v>De Schryver, Maarten; Hussey, Ian; De Neve, Jan; Cartwright, Aoife; Barnes-Holmes, Dermot (2018) The PIIRAP: An alternative scoring algorithm for the IRAP using a probabilistic semiparametric effect size measure. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2018.01.001</v>
       </c>
       <c r="C47">
         <v>2018</v>
@@ -4403,13 +4885,13 @@
         <v>243</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>217</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" ref="B48:B58" si="3">D48&amp;" ("&amp;C48&amp;") "&amp;E48</f>
-        <v>Michnevich, Twyla; Schmidt, Alexander F.; Scheunemann, Jakob; Moritz, Steffen; Miegel, Franziska; Jelinek, Lena (2021) Aggressiveness in patients with obsessive-compulsive disorder as assessed by the Implicit Relational Assessment Procedure</v>
+        <f t="shared" si="0"/>
+        <v>Michnevich, Twyla; Schmidt, Alexander F.; Scheunemann, Jakob; Moritz, Steffen; Miegel, Franziska; Jelinek, Lena (2021) Aggressiveness in patients with obsessive-compulsive disorder as assessed by the Implicit Relational Assessment Procedure. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2021.06.008</v>
       </c>
       <c r="C48">
         <v>2021</v>
@@ -4427,12 +4909,12 @@
         <v>220</v>
       </c>
       <c r="H48" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="I48" t="s">
-        <v>266</v>
-      </c>
-      <c r="J48" s="2">
+        <v>265</v>
+      </c>
+      <c r="J48" s="1">
         <v>44995</v>
       </c>
     </row>
@@ -4441,8 +4923,8 @@
         <v>115</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="3"/>
-        <v>Inoue, Kazuya; Shima, Taiki; Takahashi, Madoka; Lee, Steve K.; Ohtsuki, Tomu; Kumano, Hiroaki (2020) Reliability and validity of the Implicit Relational Assessment Procedure (IRAP) as a measure of Change Agenda</v>
+        <f t="shared" si="0"/>
+        <v>Inoue, Kazuya; Shima, Taiki; Takahashi, Madoka; Lee, Steve K.; Ohtsuki, Tomu; Kumano, Hiroaki (2020) Reliability and validity of the Implicit Relational Assessment Procedure (IRAP) as a measure of Change Agenda. The Psychological Record. 10.1007/s40732-020-00416-z</v>
       </c>
       <c r="C49">
         <v>2020</v>
@@ -4460,12 +4942,12 @@
         <v>118</v>
       </c>
       <c r="H49" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="I49" t="s">
         <v>253</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J49" s="1">
         <v>44995</v>
       </c>
       <c r="K49" t="b">
@@ -4480,8 +4962,8 @@
         <v>137</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="3"/>
-        <v>Nasso, Selene; Vanderhasselt, Marie-Anne; De Raedt, Rudi (2020) Testing the neurocognitive framework for regulation expectation: The relationship between actual/ideal self-esteem and proactive/reactive autonomic stress regulation</v>
+        <f t="shared" si="0"/>
+        <v>Nasso, Selene; Vanderhasselt, Marie-Anne; De Raedt, Rudi (2020) Testing the neurocognitive framework for regulation expectation: The relationship between actual/ideal self-esteem and proactive/reactive autonomic stress regulation. Journal of Behavior Therapy and Experimental Psychiatry. 10.1016/j.jbtep.2020.101598</v>
       </c>
       <c r="C50">
         <v>2020</v>
@@ -4499,12 +4981,12 @@
         <v>140</v>
       </c>
       <c r="H50" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="I50" t="s">
-        <v>262</v>
-      </c>
-      <c r="J50" s="2">
+        <v>261</v>
+      </c>
+      <c r="J50" s="1">
         <v>44995</v>
       </c>
     </row>
@@ -4513,8 +4995,8 @@
         <v>123</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="3"/>
-        <v>Delgado, Eduardo M. Blasco; Cascalló, Aurembiaix Llobera; Sánchez, L. Jorge Ruiz; Carrasco, Jorge Villarroel (2019) Measuring the attitudes from Spanish and Catalan people toward Spanish and Catalan identity with the Implicit Relational Assessment Procedure</v>
+        <f t="shared" si="0"/>
+        <v>Delgado, Eduardo M. Blasco; Cascalló, Aurembiaix Llobera; Sánchez, L. Jorge Ruiz; Carrasco, Jorge Villarroel (2019) Measuring the attitudes from Spanish and Catalan people toward Spanish and Catalan identity with the Implicit Relational Assessment Procedure. International Journal of Psychology &amp; Psychological Therapy. NA</v>
       </c>
       <c r="C51">
         <v>2019</v>
@@ -4532,12 +5014,12 @@
         <v>243</v>
       </c>
       <c r="H51" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="I51" t="s">
-        <v>263</v>
-      </c>
-      <c r="J51" s="2">
+        <v>262</v>
+      </c>
+      <c r="J51" s="1">
         <v>44995</v>
       </c>
     </row>
@@ -4546,8 +5028,8 @@
         <v>141</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="3"/>
-        <v>Errasti, José; Martinez, Hugo; Rodriguez, Carmen; Marquez, Jennifer; Maldonado, Alejandro; Menendez, Alvaro (2019) Social context in a collective IRAP application about gender stereotypes: Mixed versus single gender groups</v>
+        <f t="shared" si="0"/>
+        <v>Errasti, José; Martinez, Hugo; Rodriguez, Carmen; Marquez, Jennifer; Maldonado, Alejandro; Menendez, Alvaro (2019) Social context in a collective IRAP application about gender stereotypes: Mixed versus single gender groups. The Psychological Record. 10.1007/s40732-018-0320-1</v>
       </c>
       <c r="C52">
         <v>2019</v>
@@ -4565,12 +5047,12 @@
         <v>144</v>
       </c>
       <c r="H52" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="I52" t="s">
-        <v>264</v>
-      </c>
-      <c r="J52" s="2">
+        <v>263</v>
+      </c>
+      <c r="J52" s="1">
         <v>44995</v>
       </c>
     </row>
@@ -4579,8 +5061,8 @@
         <v>149</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="3"/>
-        <v>Hong, Bao; Zhang, Lu; Sun, Hongri (2019) Measurement of the vertical spatial metaphor of power concepts using the Implicit Relational Assessment Procedure</v>
+        <f t="shared" si="0"/>
+        <v>Hong, Bao; Zhang, Lu; Sun, Hongri (2019) Measurement of the vertical spatial metaphor of power concepts using the Implicit Relational Assessment Procedure. Frontiers in Psychology. 10.3389/fpsyg.2019.01422</v>
       </c>
       <c r="C53">
         <v>2019</v>
@@ -4598,12 +5080,12 @@
         <v>152</v>
       </c>
       <c r="H53" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="I53" t="s">
-        <v>265</v>
-      </c>
-      <c r="J53" s="2">
+        <v>264</v>
+      </c>
+      <c r="J53" s="1">
         <v>44995</v>
       </c>
     </row>
@@ -4612,8 +5094,8 @@
         <v>174</v>
       </c>
       <c r="B54" t="str">
-        <f t="shared" si="3"/>
-        <v>Henklain, Marcelo H. O.; Haydu, Verônica Bender; Carmo, João S.; Muniz, Monalisa; Perez, William F. (2019) Expanding the evidence of content validity for the Teacher Behavior Checklist using the IRAP: TBC’s content validity using the IRAP</v>
+        <f t="shared" si="0"/>
+        <v>Henklain, Marcelo H. O.; Haydu, Verônica Bender; Carmo, João S.; Muniz, Monalisa; Perez, William F. (2019) Expanding the evidence of content validity for the Teacher Behavior Checklist using the IRAP: TBC’s content validity using the IRAP. The Psychological Record. 10.1007/s40732-019-00334-9</v>
       </c>
       <c r="C54">
         <v>2019</v>
@@ -4631,12 +5113,12 @@
         <v>177</v>
       </c>
       <c r="H54" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="I54" t="s">
-        <v>261</v>
-      </c>
-      <c r="J54" s="2">
+        <v>260</v>
+      </c>
+      <c r="J54" s="1">
         <v>44995</v>
       </c>
     </row>
@@ -4645,8 +5127,8 @@
         <v>224</v>
       </c>
       <c r="B55" t="str">
-        <f t="shared" si="3"/>
-        <v>Glock, Sabine; Shevchuk, Anna; Kleen, Hannah (2022) Why Is Murat's achievement so low? Causal attributions and implicit attitudes toward ethnic minority students predict preservice teachers' judgments about achievement</v>
+        <f t="shared" si="0"/>
+        <v>Glock, Sabine; Shevchuk, Anna; Kleen, Hannah (2022) Why Is Murat's achievement so low? Causal attributions and implicit attitudes toward ethnic minority students predict preservice teachers' judgments about achievement. Frontiers in Psychology. 10.3389/fpsyg.2022.819793</v>
       </c>
       <c r="C55">
         <v>2022</v>
@@ -4664,12 +5146,12 @@
         <v>227</v>
       </c>
       <c r="H55" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="I55" t="s">
-        <v>260</v>
-      </c>
-      <c r="J55" s="2">
+        <v>259</v>
+      </c>
+      <c r="J55" s="1">
         <v>44995</v>
       </c>
     </row>
@@ -4678,8 +5160,8 @@
         <v>228</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" si="3"/>
-        <v>Simione, Luca; Vagni, Monia; Maiorano, Tiziana; Giostra, Valeria; Pajardi, Daniela (2022) How implicit attitudes toward vaccination affect vaccine hesitancy and behaviour: Developing and validating the V-IRAP</v>
+        <f t="shared" si="0"/>
+        <v>Simione, Luca; Vagni, Monia; Maiorano, Tiziana; Giostra, Valeria; Pajardi, Daniela (2022) How implicit attitudes toward vaccination affect vaccine hesitancy and behaviour: Developing and validating the V-IRAP. International Journal of Environmental Research and Public Health. 10.3390/ijerph19074205</v>
       </c>
       <c r="C56">
         <v>2022</v>
@@ -4697,13 +5179,19 @@
         <v>232</v>
       </c>
       <c r="H56" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="I56" t="s">
-        <v>259</v>
-      </c>
-      <c r="J56" s="2">
+        <v>258</v>
+      </c>
+      <c r="J56" s="1">
         <v>44995</v>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -4711,8 +5199,8 @@
         <v>178</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="3"/>
-        <v>Paliliunas, Dana; Frizell, Chynna B. (2021) Evaluation of college students’ implicit biases toward believability of claims of sexual harassment using the Implicit Relational Assessment Procedure (IRAP)</v>
+        <f t="shared" si="0"/>
+        <v>Paliliunas, Dana; Frizell, Chynna B. (2021) Evaluation of college students’ implicit biases toward believability of claims of sexual harassment using the Implicit Relational Assessment Procedure (IRAP). Behavior and Social Issues. 10.1007/s42822-021-00061-3</v>
       </c>
       <c r="C57">
         <v>2021</v>
@@ -4730,12 +5218,12 @@
         <v>181</v>
       </c>
       <c r="H57" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="I57" t="s">
-        <v>258</v>
-      </c>
-      <c r="J57" s="2">
+        <v>257</v>
+      </c>
+      <c r="J57" s="1">
         <v>44995</v>
       </c>
     </row>
@@ -4744,8 +5232,8 @@
         <v>195</v>
       </c>
       <c r="B58" t="str">
-        <f t="shared" si="3"/>
-        <v>Cabrera, Isabel; Márquez-González, María; Kishita, Naoko; Vara-García, Carlos; Losada, Andrés (2021) Development and validation of an Implicit Relational Assessment Procedure (IRAP) to measure implicit dysfunctional beliefs about caregiving in dementia family caregivers</v>
+        <f t="shared" si="0"/>
+        <v>Cabrera, Isabel; Márquez-González, María; Kishita, Naoko; Vara-García, Carlos; Losada, Andrés (2021) Development and validation of an Implicit Relational Assessment Procedure (IRAP) to measure implicit dysfunctional beliefs about caregiving in dementia family caregivers. The Psychological Record. 10.1007/s40732-020-00445-8</v>
       </c>
       <c r="C58">
         <v>2021</v>
@@ -4763,16 +5251,87 @@
         <v>198</v>
       </c>
       <c r="H58" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="I58" t="s">
-        <v>257</v>
-      </c>
-      <c r="J58" s="2">
+        <v>256</v>
+      </c>
+      <c r="J58" s="1">
         <v>44995</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:L30">
+    <sortCondition ref="D16:D30"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3DD7E0-3AC8-9E4B-9C74-0A5953720795}">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="39.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/requests for data/data requests.xlsx
+++ b/data/requests for data/data requests.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ian/git/repository-of-published-irap-data/data/requests for data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AB9671-2C65-EE49-8A9A-6A451BE25F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3C25BE-4203-C345-9A98-32F5F399DC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6760" yWindow="1720" windowWidth="31640" windowHeight="18980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publications since 2018" sheetId="1" r:id="rId1"/>
     <sheet name="contacted" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="310">
   <si>
     <t>Key</t>
   </si>
@@ -768,9 +767,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>kelly</t>
-  </si>
-  <si>
     <t>murphy</t>
   </si>
   <si>
@@ -789,21 +785,12 @@
     <t>mchugh; farrell</t>
   </si>
   <si>
-    <t>spruyt; de houwer</t>
-  </si>
-  <si>
-    <t>levin</t>
-  </si>
-  <si>
     <t>kazuya inoue</t>
   </si>
   <si>
     <t>reply_received_binary</t>
   </si>
   <si>
-    <t>does not have access to data; he contacted another author asking if they can share it</t>
-  </si>
-  <si>
     <t>cabrera</t>
   </si>
   <si>
@@ -816,12 +803,6 @@
     <t>Glock</t>
   </si>
   <si>
-    <t>Henklain</t>
-  </si>
-  <si>
-    <t>Vanderhasselt</t>
-  </si>
-  <si>
     <t>Blasco Delgado</t>
   </si>
   <si>
@@ -840,78 +821,18 @@
     <t>a senior author who I personally know</t>
   </si>
   <si>
-    <t>a senior author</t>
-  </si>
-  <si>
-    <t>sent_any_data</t>
-  </si>
-  <si>
     <t>"I did have the data for these studies until very recently but I mistakenly wiped them from the old laptop where they were stored, along with quite a bit of other stuff from the Maynooth era."</t>
   </si>
   <si>
-    <t>info@perspectivesireland.ie</t>
-  </si>
-  <si>
-    <t>ciara.mcenteggart@ugent.be</t>
-  </si>
-  <si>
-    <t>Martin.Finn@UGent.be</t>
-  </si>
-  <si>
-    <t>colin.n.harte@gmail.com</t>
-  </si>
-  <si>
-    <t>j.egger@donders.ru.nl</t>
-  </si>
-  <si>
-    <t>annemieke.hendriks@gmail.com</t>
-  </si>
-  <si>
-    <t>geraldine.scanlon@dcu.ie</t>
-  </si>
-  <si>
     <t>reported_able_and_willing_to_share</t>
   </si>
   <si>
     <t>reported_able_and_willing_to_share_explanation</t>
   </si>
   <si>
-    <t>carol.a.murphy@nuim.ie</t>
-  </si>
-  <si>
-    <t>deirdre kavanagh ?</t>
-  </si>
-  <si>
-    <t>aleech@carlowcollege.ie</t>
-  </si>
-  <si>
     <t>[journal does not issue DOIs]</t>
   </si>
   <si>
-    <t>Corrisponding author</t>
-  </si>
-  <si>
-    <t>finn</t>
-  </si>
-  <si>
-    <t>scanlon</t>
-  </si>
-  <si>
-    <t>leech</t>
-  </si>
-  <si>
-    <t>hendriks</t>
-  </si>
-  <si>
-    <t>perez</t>
-  </si>
-  <si>
-    <t>both corrisponding and senior</t>
-  </si>
-  <si>
-    <t>van der Kaap-Deeder, Vansteenkiste</t>
-  </si>
-  <si>
     <t>corresponding author</t>
   </si>
   <si>
@@ -924,16 +845,158 @@
     <t>multiple senior authors who I personally know</t>
   </si>
   <si>
-    <t>"I've not been working in research for almost 5 years now, and have no access anymore to the data you requested." - I informed her that Radboud's RDM policy was data retention for 10 years</t>
-  </si>
-  <si>
-    <t>out of office reply for maternity leave</t>
-  </si>
-  <si>
-    <t>ethical restrictions at one of the authors' institutions</t>
-  </si>
-  <si>
     <t>unclear</t>
+  </si>
+  <si>
+    <t>barnes-holmes, d; barnes-holmes, y, perez, bortoloti, de rose</t>
+  </si>
+  <si>
+    <t>bast, de rose, bortoloti</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>finn, barnes-holmes, d; barnes-holmes, y</t>
+  </si>
+  <si>
+    <t>hendricks, egger, barnes-holmes, d; barnes-holmes, y</t>
+  </si>
+  <si>
+    <t>finn and ybh didn't reply, dbh said he doesn't have the data</t>
+  </si>
+  <si>
+    <t>only dermot replied, said hes doesn’t have the data</t>
+  </si>
+  <si>
+    <t>all but yvh replied, hendricks and dbh said they don’t have data, egger will look into obtaining the data</t>
+  </si>
+  <si>
+    <t>murphy reports having no data from any studies</t>
+  </si>
+  <si>
+    <t>ethical restrictions at kelly's institutions, murphy reports having no data from any studies</t>
+  </si>
+  <si>
+    <t>mchugh; farrell, munally</t>
+  </si>
+  <si>
+    <t>corresponding author and senior author</t>
+  </si>
+  <si>
+    <t>Henklain, perez</t>
+  </si>
+  <si>
+    <t>spruyt; de houwer, van der Kaap-Deeder, Vansteenkiste</t>
+  </si>
+  <si>
+    <t>de rose; bortoloti, Andrade Pinto and Prof Rodrigo de Almeida</t>
+  </si>
+  <si>
+    <t>de rose; bortoloti, perez</t>
+  </si>
+  <si>
+    <t>de rose; bortoloti,  Andrade Pinto and Prof Rodrigo de Almeida</t>
+  </si>
+  <si>
+    <t>levin, Rafacz, smith</t>
+  </si>
+  <si>
+    <t>barnes-holmes, d; barnes-holmes, y, leech</t>
+  </si>
+  <si>
+    <t>leech out of office reply for maternity leave, dbh said he doesnthave the data, ybh no response</t>
+  </si>
+  <si>
+    <t>dbh said he doesn’t have the data, ybh no response, scanlon no response</t>
+  </si>
+  <si>
+    <t>"Let me prepare some data to share." on 15-03-2023</t>
+  </si>
+  <si>
+    <t>shared_data</t>
+  </si>
+  <si>
+    <t>repored they will share but it could take time</t>
+  </si>
+  <si>
+    <t>proportion replying (at least one coauthor per article)</t>
+  </si>
+  <si>
+    <t>proportion reporting an ability or willingness to share</t>
+  </si>
+  <si>
+    <t>proportion who shared data</t>
+  </si>
+  <si>
+    <t>bast, Alasiri, Kolts</t>
+  </si>
+  <si>
+    <t>note: no email for corrisponding author (kavanagh) could be obtained. Dbh couldn't supply one.</t>
+  </si>
+  <si>
+    <t>murphy; kelly; foody, maloney</t>
+  </si>
+  <si>
+    <t>will reply after april 8th</t>
+  </si>
+  <si>
+    <t>already have data, am coauthor or chad is</t>
+  </si>
+  <si>
+    <t>Vanderhasselt, De Raedt</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>"Anonymised data files are available from the first author upon request."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ethical restrictions at kelly's institutions, murphy reports having no data from any studies.</t>
+    </r>
+  </si>
+  <si>
+    <t>murphy; kelly; foody, Murphy</t>
+  </si>
+  <si>
+    <t>kelly, pennie</t>
+  </si>
+  <si>
+    <t>murphy; kelly; nolan</t>
+  </si>
+  <si>
+    <t>data obtained from OSF via a senior authors profile</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>SHARED DATA BUT CANNOT BE MADE PUBLICA PER THE AUTHORS' ETHICAL REQUIREMENTS.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ethical restrictions at kelly's institutions, murphy reports having no data from any studies</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1084,12 +1147,11 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1275,6 +1337,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1436,13 +1504,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="16" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2922,1895 +2993,2132 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647F9036-BD7F-8941-AAC0-FD3B8EC13872}">
-  <dimension ref="A1:U58"/>
+  <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D24" zoomScale="119" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="G33" zoomScale="119" workbookViewId="0">
+      <selection activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="39.1640625" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" customWidth="1"/>
-    <col min="8" max="8" width="34.83203125" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="31.6640625" customWidth="1"/>
-    <col min="13" max="13" width="42.6640625" customWidth="1"/>
-    <col min="14" max="14" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="39.1640625" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="9" max="9" width="34.83203125" customWidth="1"/>
+    <col min="10" max="10" width="25.1640625" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
+    <col min="13" max="13" width="31.6640625" customWidth="1"/>
+    <col min="14" max="14" width="19.1640625" customWidth="1"/>
+    <col min="15" max="15" width="42.6640625" customWidth="1"/>
+    <col min="16" max="16" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" t="s">
         <v>237</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>238</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>233</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>239</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>234</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>235</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>236</v>
       </c>
-      <c r="H1" t="s">
-        <v>266</v>
-      </c>
       <c r="I1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J1" t="s">
         <v>240</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>241</v>
       </c>
-      <c r="K1" t="s">
-        <v>254</v>
-      </c>
       <c r="L1" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="M1" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="N1" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="O1" t="s">
-        <v>266</v>
-      </c>
-      <c r="P1" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>241</v>
-      </c>
-      <c r="R1" t="s">
-        <v>254</v>
-      </c>
-      <c r="S1" t="s">
-        <v>278</v>
-      </c>
-      <c r="T1" t="s">
-        <v>279</v>
-      </c>
-      <c r="U1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" t="str">
-        <f t="shared" ref="B2:B58" si="0">D2&amp;" ("&amp;C2&amp;") "&amp;E2&amp;". "&amp;F2&amp;". "&amp;G2</f>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C33" si="0">E2&amp;" ("&amp;D2&amp;") "&amp;F2&amp;". "&amp;G2&amp;". "&amp;H2</f>
         <v>Murphy, Carol; Maloney, Emma; Kelly, Michelle (2022) The role of relational contextual cues versus relational coherence indicators as response options on the Implicit Relational Assessment Procedure. The Psychological Record. 10.1007/s40732-022-00512-2</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2022</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>66</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>67</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>68</v>
       </c>
-      <c r="H2" t="s">
-        <v>294</v>
-      </c>
       <c r="I2" t="s">
-        <v>242</v>
-      </c>
-      <c r="J2" s="1">
+        <v>268</v>
+      </c>
+      <c r="J2" t="s">
+        <v>300</v>
+      </c>
+      <c r="K2" s="1">
         <v>44995</v>
       </c>
-      <c r="K2" t="b">
+      <c r="L2" t="b">
         <v>1</v>
       </c>
-      <c r="L2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="C3" t="str">
         <f t="shared" si="0"/>
         <v>Nolan, Conor; Murphy, Carol; Kelly, Michelle (2022) Using the IRAP to investigate gender biases towards ADHD and anxiety. The Psychological Record. 10.1007/s40732-021-00474-x</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3">
         <v>2022</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="J3" s="4">
-        <v>44995</v>
-      </c>
-      <c r="K3" t="b">
+      <c r="I3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J3" t="s">
+        <v>307</v>
+      </c>
+      <c r="K3" s="1">
+        <v>45008</v>
+      </c>
+      <c r="L3" t="b">
         <v>1</v>
       </c>
-      <c r="L3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="C4" t="str">
         <f t="shared" si="0"/>
         <v>Murphy, Rachel; Murphy, Carol; Kelly, Michelle; Roche, Bryan (2021) Using the Implicit Relational Assessment Procedure (IRAP) to examine implicit beauty bias in the context of employability. The Psychological Record. 10.1007/s40732-020-00427-w</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4">
         <v>2021</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="J4" s="4">
-        <v>44995</v>
-      </c>
-      <c r="K4" t="b">
+      <c r="I4" t="s">
+        <v>282</v>
+      </c>
+      <c r="J4" t="s">
+        <v>305</v>
+      </c>
+      <c r="K4" s="1">
+        <v>45008</v>
+      </c>
+      <c r="L4" t="b">
         <v>1</v>
       </c>
-      <c r="L4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="3" t="str">
+      <c r="C5" t="str">
         <f t="shared" si="0"/>
         <v>Curtis, Aisling; Foody, Mairéad; Kelly, Michelle; Murphy, Carol (2020) Using the Implicit Relational Assessment Procedure to explore students’ implicit age discrimination of toxic versus innocuous phrases. International Journal of Psychology &amp; Psychological Therapy. NA</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5">
         <v>2020</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" t="s">
         <v>243</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" t="s">
+        <v>268</v>
+      </c>
+      <c r="J5" t="s">
         <v>242</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="1">
         <v>44995</v>
       </c>
-      <c r="K5" t="b">
+      <c r="L5" t="b">
         <v>1</v>
       </c>
-      <c r="L5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="3" t="str">
+      <c r="C6" t="str">
         <f t="shared" si="0"/>
         <v>Kane, Alan; Murphy, Carol; Kelly, Michelle (2020) Assessing implicit and explicit dementia stigma in young adults and care-workers. Dementia: The International Journal of Social Research and Practice. 10.1177/1471301218804727</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6">
         <v>2020</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" t="s">
+        <v>268</v>
+      </c>
+      <c r="J6" t="s">
         <v>242</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="1">
         <v>44995</v>
       </c>
-      <c r="K6" t="b">
+      <c r="L6" t="b">
         <v>1</v>
       </c>
-      <c r="L6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="3" t="str">
+      <c r="C7" t="str">
         <f t="shared" si="0"/>
         <v>Rice, Hannah; Murphy, Carol; Nolan, Conor; Kelly, Michelle (2020) Measuring implicit attractiveness bias in the context of innocence and guilt evaluations. International Journal of Psychology &amp; Psychological Therapy. NA</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7">
         <v>2020</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" t="s">
         <v>127</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" t="s">
         <v>128</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" t="s">
         <v>243</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" t="s">
+        <v>268</v>
+      </c>
+      <c r="J7" t="s">
         <v>242</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="1">
         <v>44995</v>
       </c>
-      <c r="K7" t="b">
+      <c r="L7" t="b">
         <v>1</v>
       </c>
-      <c r="L7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>186</v>
       </c>
-      <c r="B8" s="3" t="str">
+      <c r="C8" t="str">
         <f t="shared" si="0"/>
         <v>Maloney, Emma; Foody, Mairéad; Murphy, Carol (2020) Do response options in the Implicit Relational Assessment Procedure (IRAP) matter? A comparison of contextual relations versus relational coherent indicators. The Psychological Record. 10.1007/s40732-019-00360-7</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8">
         <v>2020</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" t="s">
         <v>187</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" t="s">
         <v>188</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" t="s">
         <v>189</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="J8" s="4">
+      <c r="I8" t="s">
+        <v>267</v>
+      </c>
+      <c r="J8" t="s">
+        <v>300</v>
+      </c>
+      <c r="K8" s="1">
         <v>44995</v>
       </c>
-      <c r="K8" t="b">
+      <c r="L8" t="b">
         <v>1</v>
       </c>
-      <c r="L8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="3" t="str">
+      <c r="C9" t="str">
         <f t="shared" si="0"/>
         <v>Was, Margaret; Foody, Mairéad; Murphy, Carol (2019) Using the Implicit Relational Assessment Procedure (IRAP) to investigate attractiveness bias in the domain of employability. International Journal of Psychology &amp; Psychological Therapy. NA</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9">
         <v>2019</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" t="s">
         <v>243</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" t="s">
+        <v>268</v>
+      </c>
+      <c r="J9" t="s">
         <v>242</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="1">
         <v>44995</v>
       </c>
-      <c r="K9" t="b">
+      <c r="L9" t="b">
         <v>1</v>
       </c>
-      <c r="L9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="3" t="str">
+      <c r="C10" t="str">
         <f t="shared" si="0"/>
         <v>Pennie, Brian; Kelly, Michelle E. (2018) An examination of generalised implicit biases towards ‘wanting more’ as a proxy measure of materialistic behaviour: A Relational Frame Theory (RFT) perspective. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2018.02.004</v>
       </c>
-      <c r="C10" s="5">
+      <c r="D10" s="3">
         <v>2018</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="J10" s="4">
-        <v>44995</v>
-      </c>
-      <c r="K10" t="b">
+      <c r="I10" t="s">
+        <v>267</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="K10" s="1">
+        <v>45008</v>
+      </c>
+      <c r="L10" t="b">
         <v>1</v>
       </c>
-      <c r="L10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="3" t="str">
+      <c r="C11" t="str">
         <f t="shared" si="0"/>
         <v>Fleming, Katie; Foody, Mairead; Murphy, Carol (2020) Using the Implicit Relational Assessment Procedure (IRAP) to examine implicit gender stereotypes in science, technology, engineering and maths (STEM). The Psychological Record. 10.1007/s40732-020-00401-6</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D11">
         <v>2020</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" t="s">
         <v>102</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="J11" s="4">
+      <c r="I11" t="s">
+        <v>268</v>
+      </c>
+      <c r="J11" t="s">
+        <v>244</v>
+      </c>
+      <c r="K11" s="1">
         <v>44995</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>133</v>
       </c>
-      <c r="B12" t="str">
+      <c r="C12" t="str">
         <f t="shared" si="0"/>
         <v>Bast, Diana Ferroni; Lyons, Christina; Stewart, Ian; Connor, Thomas; Kelly, Michelle; Goyos, Celso (2020) The effect of educational messages on implicit and explicit attitudes towards individuals on the autism spectrum versus normally developing individuals. The Psychological Record. 10.1007/s40732-019-00363-4</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>2020</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>134</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>135</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>15</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>136</v>
       </c>
-      <c r="H12" t="s">
-        <v>292</v>
-      </c>
       <c r="I12" t="s">
-        <v>246</v>
-      </c>
-      <c r="J12" s="1">
+        <v>266</v>
+      </c>
+      <c r="J12" t="s">
+        <v>245</v>
+      </c>
+      <c r="K12" s="1">
         <v>44995</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>107</v>
       </c>
-      <c r="B13" t="str">
+      <c r="C13" t="str">
         <f t="shared" si="0"/>
         <v>Ferroni-Bast, Diana; Fitzpatrick, Jane; Stewart, Ian; Goyos, Celso (2019) Using the Implicit Relational Assessment Procedure (IRAP) as a measure of reaction to perceived failure and the effects of a defusion intervention in this context. The Psychological Record. 10.1007/s40732-019-00349-2</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>2019</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>108</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>109</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>15</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>110</v>
       </c>
-      <c r="H13" t="s">
-        <v>292</v>
-      </c>
       <c r="I13" t="s">
-        <v>246</v>
-      </c>
-      <c r="J13" s="1">
+        <v>266</v>
+      </c>
+      <c r="J13" t="s">
+        <v>245</v>
+      </c>
+      <c r="K13" s="1">
         <v>44995</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="3" t="str">
+      <c r="C14" t="str">
         <f t="shared" si="0"/>
         <v>Rezende, Mauro Carvalho; Bast, Diana Ferroni; Huziwara, Edson Massayuki; Bortoloti, Renato (2021) The Implicit Relational Assessment Procedure as a measure of hopelessness in the elderly: An exploratory study. The Psychological Record. 10.1007/s40732-020-00406-1</v>
       </c>
-      <c r="C14" s="3">
+      <c r="D14">
         <v>2021</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" t="s">
         <v>94</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="J14" s="4">
+      <c r="I14" t="s">
+        <v>267</v>
+      </c>
+      <c r="J14" t="s">
+        <v>272</v>
+      </c>
+      <c r="K14" s="1">
         <v>44995</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" t="b">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="3" t="str">
+      <c r="C15" t="str">
         <f t="shared" si="0"/>
         <v>Alasiri, Eman; Bast, Diana; Kolts, Russell L. (2019) Using the Implicit Relational Assessment Procedure (IRAP) to explore common humanity as a dimension of self-compassion. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2019.09.004</v>
       </c>
-      <c r="C15" s="3">
+      <c r="D15">
         <v>2019</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="J15" s="4">
-        <v>44995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="I15" t="s">
+        <v>267</v>
+      </c>
+      <c r="J15" t="s">
+        <v>298</v>
+      </c>
+      <c r="K15" s="1">
+        <v>45006</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>165</v>
       </c>
-      <c r="B16" t="str">
+      <c r="C16" t="str">
         <f t="shared" si="0"/>
         <v>Dunne, Ciara; McEnteggart, Ciara; Harte, Colin; Barnes-Holmes, Dermot; Barnes-Holmes, Yvonne (2018) Faking a race IRAP effect in the context of single versus multiple label stimuli. International Journal of Psychology &amp; Psychological Therapy. [journal does not issue DOIs]</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>2018</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>166</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>167</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>32</v>
       </c>
-      <c r="G16" t="s">
-        <v>283</v>
-      </c>
       <c r="H16" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I16" t="s">
-        <v>247</v>
-      </c>
-      <c r="J16" s="1">
+        <v>269</v>
+      </c>
+      <c r="J16" t="s">
+        <v>246</v>
+      </c>
+      <c r="K16" s="1">
         <v>44995</v>
       </c>
-      <c r="K16" t="b">
+      <c r="L16" t="b">
         <v>1</v>
       </c>
-      <c r="L16" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>24</v>
       </c>
-      <c r="B17" t="str">
+      <c r="C17" t="str">
         <f t="shared" si="0"/>
         <v>Finn, Martin; Barnes-Holmes, Dermot; McEnteggart, Ciara (2018) Exploring the single-trial-type-dominance-effect in the IRAP: Developing a differential arbitrarily applicable relational responding effects (DAARRE) model. The Psychological Record. 10.1007/s40732-017-0262-z</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>2018</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>25</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>26</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>15</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>27</v>
       </c>
-      <c r="H17" t="s">
-        <v>293</v>
-      </c>
       <c r="I17" t="s">
-        <v>247</v>
-      </c>
-      <c r="J17" s="1">
+        <v>267</v>
+      </c>
+      <c r="J17" t="s">
+        <v>274</v>
+      </c>
+      <c r="K17" s="1">
         <v>44995</v>
       </c>
-      <c r="K17" t="b">
+      <c r="L17" t="b">
         <v>1</v>
       </c>
-      <c r="L17" t="s">
-        <v>299</v>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" t="b">
+        <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>284</v>
-      </c>
-      <c r="P17" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>44999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+        <v>276</v>
+      </c>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>119</v>
       </c>
-      <c r="B18" t="str">
+      <c r="C18" t="str">
         <f t="shared" si="0"/>
         <v>Finn, Martin; Barnes-Holmes, Dermot; McEnteggart, Ciara; Kavanagh, Deirdre (2019) Predicting and influencing the single-trial-type-dominance-effect: The first study. The Psychological Record. 10.1007/s40732-019-00347-4</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>2019</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>120</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>121</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>15</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>122</v>
       </c>
-      <c r="H18" t="s">
-        <v>293</v>
-      </c>
       <c r="I18" t="s">
-        <v>247</v>
-      </c>
-      <c r="J18" s="1">
+        <v>267</v>
+      </c>
+      <c r="J18" t="s">
+        <v>274</v>
+      </c>
+      <c r="K18" s="1">
         <v>44995</v>
       </c>
-      <c r="K18" t="b">
+      <c r="L18" t="b">
         <v>1</v>
       </c>
-      <c r="L18" t="s">
-        <v>299</v>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" t="b">
+        <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>284</v>
-      </c>
-      <c r="P18" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>44999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+        <v>276</v>
+      </c>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>213</v>
       </c>
-      <c r="B19" t="str">
+      <c r="C19" t="str">
         <f t="shared" si="0"/>
         <v>Gomes, Cainã T.; Perez, William F.; de Almeida, João Henrique; Ribeiro, Arthur; de Rose, Julio C.; Barnes-Holmes, Dermot (2019) Assessing a derived transformation of functions using the Implicit Relational Assessment Procedure under three motivative conditions. The Psychological Record. 10.1007/s40732-019-00353-6</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>2019</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>214</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>215</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>15</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>216</v>
       </c>
-      <c r="H19" t="s">
-        <v>293</v>
-      </c>
       <c r="I19" t="s">
-        <v>247</v>
-      </c>
-      <c r="J19" s="1">
+        <v>267</v>
+      </c>
+      <c r="J19" t="s">
+        <v>271</v>
+      </c>
+      <c r="K19" s="1">
         <v>44995</v>
       </c>
-      <c r="K19" t="b">
+      <c r="L19" t="b">
         <v>1</v>
       </c>
-      <c r="L19" t="s">
-        <v>299</v>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" t="b">
+        <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>284</v>
-      </c>
-      <c r="P19" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>44999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+        <v>277</v>
+      </c>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>210</v>
       </c>
-      <c r="B20" t="str">
+      <c r="C20" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Hendriks, Annemieke L.; McEnteggart, Ciara; Barnes-Holmes, Yvonne; De Mey, Hubert R. A.; Witteman, Cilia L. M.; Janssen, Gwenny T. L.; Egger, Jos I. M. (2020) Assessing deictic relational responding in psychosis using the Implicit Relational Assessment Procedure. International Journal of Psychology &amp; Psychological Therapy. </v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>2020</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>211</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>212</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>32</v>
       </c>
-      <c r="H20" t="s">
-        <v>293</v>
-      </c>
       <c r="I20" t="s">
-        <v>247</v>
-      </c>
-      <c r="J20" s="1">
-        <v>44995</v>
-      </c>
-      <c r="K20" t="b">
+        <v>267</v>
+      </c>
+      <c r="J20" t="s">
+        <v>275</v>
+      </c>
+      <c r="K20" s="1">
+        <v>45005</v>
+      </c>
+      <c r="L20" t="b">
         <v>1</v>
       </c>
-      <c r="L20" t="s">
-        <v>299</v>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" t="b">
+        <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>284</v>
-      </c>
-      <c r="P20" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>44999</v>
-      </c>
-      <c r="R20" t="b">
-        <v>1</v>
-      </c>
-      <c r="S20" t="b">
-        <v>0</v>
-      </c>
-      <c r="T20" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+        <v>278</v>
+      </c>
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>207</v>
       </c>
-      <c r="B21" t="str">
+      <c r="C21" t="str">
         <f t="shared" si="0"/>
         <v>Hendriks, Annemieke L.; McEnteggart, Ciara; Barnes-Holmes, Yvonne; Veltmaat, Anouk; De Mey, Hubert R. A.; Witteman, Cilia L. M.; Janssen, Gwenny T. L.; Egger, Jos I. M. (2020) Assessing deictic relational responding in social anxiety using the Implicit Relational Assessment Procedure. International Journal of Psychology &amp; Psychological Therapy. [journal does not issue DOIs]</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>2020</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>208</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>209</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>32</v>
       </c>
-      <c r="G21" t="s">
-        <v>283</v>
-      </c>
       <c r="H21" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="I21" t="s">
-        <v>247</v>
-      </c>
-      <c r="J21" s="1">
-        <v>44995</v>
-      </c>
-      <c r="K21" t="b">
+        <v>267</v>
+      </c>
+      <c r="J21" t="s">
+        <v>275</v>
+      </c>
+      <c r="K21" s="1">
+        <v>45005</v>
+      </c>
+      <c r="L21" t="b">
         <v>1</v>
       </c>
-      <c r="L21" t="s">
-        <v>299</v>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" t="b">
+        <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>284</v>
-      </c>
-      <c r="P21" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>44999</v>
-      </c>
-      <c r="R21" t="b">
-        <v>1</v>
-      </c>
-      <c r="S21" t="b">
-        <v>0</v>
-      </c>
-      <c r="T21" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+        <v>278</v>
+      </c>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>69</v>
       </c>
-      <c r="B22" t="str">
+      <c r="C22" t="str">
         <f t="shared" si="0"/>
         <v>Kavanagh, Deirdre; Barnes-Holmes, Yvonne; Barnes-Holmes, Dermot (2022) Attempting to analyze perspective-taking with a false belief vignette using the Implicit Relational Assessment Procedure. The Psychological Record. 10.1007/s40732-021-00500-y</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>2022</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>70</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>71</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>15</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>72</v>
       </c>
-      <c r="H22" t="s">
-        <v>267</v>
-      </c>
       <c r="I22" t="s">
-        <v>247</v>
-      </c>
-      <c r="J22" s="1">
+        <v>261</v>
+      </c>
+      <c r="J22" t="s">
+        <v>246</v>
+      </c>
+      <c r="K22" s="1">
         <v>44995</v>
       </c>
-      <c r="K22" t="b">
+      <c r="L22" t="b">
         <v>1</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" t="b">
+        <v>0</v>
+      </c>
+      <c r="O22" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" t="str">
+      <c r="C23" t="str">
         <f t="shared" si="0"/>
         <v>Kavanagh, Deirdre; Barnes-Holmes, Yvonne; Barnes-Holmes, Dermot; McEnteggart, Ciara; Finn, Martin (2018) Exploring differential trial-type effects and the impact of a read-aloud procedure on deictic relational responding on the IRAP. The Psychological Record. 10.1007/s40732-018-0276-1</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>2018</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>21</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>22</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>15</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>23</v>
       </c>
-      <c r="H23" t="s">
-        <v>267</v>
-      </c>
       <c r="I23" t="s">
-        <v>247</v>
-      </c>
-      <c r="J23" s="1">
+        <v>261</v>
+      </c>
+      <c r="J23" t="s">
+        <v>246</v>
+      </c>
+      <c r="K23" s="1">
         <v>44995</v>
       </c>
-      <c r="K23" t="b">
+      <c r="L23" t="b">
         <v>1</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>171</v>
       </c>
-      <c r="B24" t="str">
+      <c r="C24" t="str">
         <f t="shared" si="0"/>
         <v>Kavanagh, Deirdre; Matthyssen, Nele; Barnes-Holmes, Yvonne; Barnes-Holmes, Dermot; McEnteggart, Ciara; Vastano, Roberta (2019) Exploring the use of pictures of self and other in the IRAP: Reflecting upon the emergence of differential trial type effects. International Journal of Psychology &amp; Psychological Therapy. [journal does not issue DOIs]</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>2019</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>172</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>173</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>32</v>
       </c>
-      <c r="G24" t="s">
-        <v>283</v>
-      </c>
       <c r="H24" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I24" t="s">
-        <v>247</v>
-      </c>
-      <c r="J24" s="1">
+        <v>261</v>
+      </c>
+      <c r="J24" t="s">
+        <v>246</v>
+      </c>
+      <c r="K24" s="1">
         <v>44995</v>
       </c>
-      <c r="K24" t="b">
+      <c r="L24" t="b">
         <v>1</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" t="b">
+        <v>0</v>
+      </c>
+      <c r="O24" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>87</v>
       </c>
-      <c r="B25" t="str">
+      <c r="C25" t="str">
         <f t="shared" si="0"/>
         <v>Kavanagh, Deirdre; Roelandt, Adeline; Raemdonck, Lisa; Barnes-Holmes, Yvonne; Barnes-Holmes, Dermot; McEnteggart, Ciara (2019) The on-going search for perspective-taking IRAPs: Exploring the potential of the natural language-IRAP. The Psychological Record. 10.1007/s40732-019-00333-w</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>2019</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>88</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>89</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>15</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>90</v>
       </c>
-      <c r="H25" t="s">
-        <v>267</v>
-      </c>
       <c r="I25" t="s">
-        <v>247</v>
-      </c>
-      <c r="J25" s="1">
+        <v>261</v>
+      </c>
+      <c r="J25" t="s">
+        <v>246</v>
+      </c>
+      <c r="K25" s="1">
         <v>44995</v>
       </c>
-      <c r="K25" t="b">
+      <c r="L25" t="b">
         <v>1</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" t="b">
+        <v>0</v>
+      </c>
+      <c r="O25" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>221</v>
       </c>
-      <c r="B26" t="str">
+      <c r="C26" t="str">
         <f t="shared" si="0"/>
         <v>Leech, Aileen; Barnes-Holmes, Dermot (2022) Fear and avoidance: A three-day investigation on the impact of a fear-related verbal-rehearsal task on a behavior-behavior relation. The Psychological Record. 10.1007/s40732-021-00470-1</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>2022</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>84</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>222</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>15</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>223</v>
       </c>
-      <c r="H26" t="s">
-        <v>293</v>
-      </c>
       <c r="I26" t="s">
-        <v>247</v>
-      </c>
-      <c r="J26" s="1">
-        <v>44995</v>
-      </c>
-      <c r="K26" t="b">
+        <v>267</v>
+      </c>
+      <c r="J26" t="s">
+        <v>289</v>
+      </c>
+      <c r="K26" s="1">
+        <v>44999</v>
+      </c>
+      <c r="L26" t="b">
         <v>1</v>
       </c>
-      <c r="L26" t="s">
-        <v>299</v>
+      <c r="M26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" t="b">
+        <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>284</v>
-      </c>
-      <c r="P26" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>44999</v>
-      </c>
-      <c r="R26" t="b">
-        <v>1</v>
-      </c>
-      <c r="S26" t="b">
-        <v>0</v>
-      </c>
-      <c r="T26" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>83</v>
       </c>
-      <c r="B27" t="str">
+      <c r="C27" t="str">
         <f t="shared" si="0"/>
         <v>Leech, Aileen; Barnes-Holmes, Dermot (2020) Training and testing for a transformation of fear and avoidance functions via combinatorial entailment using the Implicit Relational Assessment Procedure (IRAP): Further exploratory analyses. Behavioural Processes. 10.1016/j.beproc.2019.104027</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>2020</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>84</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>85</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>48</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>86</v>
       </c>
-      <c r="H27" t="s">
-        <v>293</v>
-      </c>
       <c r="I27" t="s">
-        <v>247</v>
-      </c>
-      <c r="J27" s="1">
-        <v>44995</v>
-      </c>
-      <c r="K27" t="b">
+        <v>267</v>
+      </c>
+      <c r="J27" t="s">
+        <v>289</v>
+      </c>
+      <c r="K27" s="1">
+        <v>44999</v>
+      </c>
+      <c r="L27" t="b">
         <v>1</v>
       </c>
-      <c r="L27" t="s">
-        <v>299</v>
+      <c r="M27" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" t="b">
+        <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>284</v>
-      </c>
-      <c r="P27" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>44999</v>
-      </c>
-      <c r="R27" t="b">
-        <v>1</v>
-      </c>
-      <c r="S27" t="b">
-        <v>0</v>
-      </c>
-      <c r="T27" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
         <v>45</v>
       </c>
-      <c r="B28" t="str">
+      <c r="C28" t="str">
         <f t="shared" si="0"/>
         <v>Leech, Aileen; Bouyrden, Jaber; Bruijsten, Nathalie; Barnes-Holmes, Dermot; McEnteggart, Ciara (2018) Training and testing for a transformation of fear and avoidance functions using the Implicit Relational Assessment Procedure: The first study. Behavioural Processes. 10.1016/j.beproc.2018.08.012</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>2018</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>46</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>47</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>48</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>49</v>
       </c>
-      <c r="H28" t="s">
-        <v>293</v>
-      </c>
       <c r="I28" t="s">
-        <v>247</v>
-      </c>
-      <c r="J28" s="1">
-        <v>44995</v>
-      </c>
-      <c r="K28" t="b">
+        <v>267</v>
+      </c>
+      <c r="J28" t="s">
+        <v>289</v>
+      </c>
+      <c r="K28" s="1">
+        <v>44999</v>
+      </c>
+      <c r="L28" t="b">
         <v>1</v>
       </c>
-      <c r="L28" t="s">
-        <v>299</v>
+      <c r="M28" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" t="b">
+        <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>284</v>
-      </c>
-      <c r="P28" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>44999</v>
-      </c>
-      <c r="R28" t="b">
-        <v>1</v>
-      </c>
-      <c r="S28" t="b">
-        <v>0</v>
-      </c>
-      <c r="T28" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
         <v>161</v>
       </c>
-      <c r="B29" t="str">
+      <c r="C29" t="str">
         <f t="shared" si="0"/>
         <v>Pidgeon, Audrey; McEnteggart, Ciara; Harte, Colin; Barnes-Holmes, Dermot; Barnes-Holmes, Yvonne (2021) Four self-related IRAPs: Analyzing and interpreting effects in light of the DAARRE model. The Psychological Record. 10.1007/s40732-020-00428-9</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>2021</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>162</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>163</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>15</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>164</v>
       </c>
-      <c r="H29" t="s">
-        <v>267</v>
-      </c>
       <c r="I29" t="s">
-        <v>247</v>
-      </c>
-      <c r="J29" s="1">
+        <v>261</v>
+      </c>
+      <c r="J29" t="s">
+        <v>246</v>
+      </c>
+      <c r="K29" s="1">
         <v>44995</v>
       </c>
-      <c r="K29" t="b">
+      <c r="L29" t="b">
         <v>1</v>
       </c>
-      <c r="L29" t="b">
-        <v>0</v>
-      </c>
-      <c r="M29" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="M29" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29" t="b">
+        <v>0</v>
+      </c>
+      <c r="O29" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
         <v>199</v>
       </c>
-      <c r="B30" t="str">
+      <c r="C30" t="str">
         <f t="shared" si="0"/>
         <v>Scanlon, Geraldine; McEnteggart, Ciara; Barnes-Holmes, Yvonne (2020) Attitudes to pupils with EBD: An implicit approach. Emotional &amp; Behavioural Difficulties. 10.1080/13632752.2020.1729609</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>2020</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>200</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>201</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>44</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>202</v>
       </c>
-      <c r="H30" t="s">
-        <v>293</v>
-      </c>
       <c r="I30" t="s">
-        <v>247</v>
-      </c>
-      <c r="J30" s="1">
-        <v>44995</v>
-      </c>
-      <c r="K30" t="b">
+        <v>267</v>
+      </c>
+      <c r="J30" t="s">
+        <v>246</v>
+      </c>
+      <c r="K30" s="1">
+        <v>44999</v>
+      </c>
+      <c r="L30" t="b">
         <v>1</v>
       </c>
-      <c r="L30" t="s">
-        <v>299</v>
+      <c r="M30" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" t="b">
+        <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>284</v>
-      </c>
-      <c r="P30" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>44999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
         <v>60</v>
       </c>
-      <c r="B31" t="str">
+      <c r="C31" t="str">
         <f t="shared" si="0"/>
         <v>Hernández-López, Monica; Quinones-Jimenez, Lourdes; Blanco-Romero, Alberto L.; Rodriguez-Valverde, Miguel (2021) Testing the discrepancy between actual and ideal body image with the Implicit Relational Assessment Procedure (IRAP). Journal of Eating Disorders. 10.1186/s40337-021-00434-4</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>2021</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>61</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>62</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>63</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>64</v>
       </c>
-      <c r="H31" t="s">
-        <v>292</v>
-      </c>
       <c r="I31" t="s">
-        <v>248</v>
-      </c>
-      <c r="J31" s="1">
+        <v>266</v>
+      </c>
+      <c r="J31" t="s">
+        <v>247</v>
+      </c>
+      <c r="K31" s="1">
         <v>44995</v>
-      </c>
-      <c r="K31" t="b">
-        <v>1</v>
       </c>
       <c r="L31" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="M31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N31" t="b">
+        <v>0</v>
+      </c>
+      <c r="O31" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
         <v>153</v>
       </c>
-      <c r="B32" t="str">
+      <c r="C32" t="str">
         <f t="shared" si="0"/>
         <v>Hernández-López, Mónica; Antequera-Rubio, Alba; Rodríguez-Valverde, Miguel (2019) Implicit attitudes to female body shape in Spanish women with high and low body dissatisfaction. Frontiers in Psychology. 10.3389/fpsyg.2019.02102</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>2019</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>154</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>155</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>37</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>156</v>
       </c>
-      <c r="H32" t="s">
-        <v>292</v>
-      </c>
       <c r="I32" t="s">
-        <v>248</v>
-      </c>
-      <c r="J32" s="1">
+        <v>266</v>
+      </c>
+      <c r="J32" t="s">
+        <v>247</v>
+      </c>
+      <c r="K32" s="1">
         <v>44995</v>
-      </c>
-      <c r="K32" t="b">
-        <v>1</v>
       </c>
       <c r="L32" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+      <c r="M32" t="b">
+        <v>1</v>
+      </c>
+      <c r="N32" t="b">
+        <v>0</v>
+      </c>
+      <c r="O32" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
         <v>145</v>
       </c>
-      <c r="B33" s="3" t="str">
+      <c r="C33" t="str">
         <f t="shared" si="0"/>
         <v>Schmidt, Margarete; de Rose, Julio C.; Bortoloti, Renato (2021) Relating, orienting and evoking functions in an IRAP study involving emotional pictographs (emojis) used in electronic messages. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2021.06.005</v>
       </c>
-      <c r="C33" s="3">
+      <c r="D33">
         <v>2021</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" t="s">
         <v>146</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" t="s">
         <v>147</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="G33" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="H33" t="s">
         <v>148</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="I33" t="s">
         <v>267</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="J33" t="s">
+        <v>248</v>
+      </c>
+      <c r="K33" s="1">
+        <v>44995</v>
+      </c>
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="b">
+        <v>0</v>
+      </c>
+      <c r="N33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" ref="C34:C65" si="1">E34&amp;" ("&amp;D34&amp;") "&amp;F34&amp;". "&amp;G34&amp;". "&amp;H34</f>
+        <v>Pinto, Joana Andrade Ramalho; de Almeida, Rodrigo Vianna; Bortoloti, Renato (2020) The stimulus’ orienting function may play an important role in IRAP performance: Supportive evidence from an eye-tracking study of brands. The Psychological Record. 10.1007/s40732-020-00378-2</v>
+      </c>
+      <c r="D34">
+        <v>2020</v>
+      </c>
+      <c r="E34" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" t="s">
+        <v>113</v>
+      </c>
+      <c r="G34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" t="s">
+        <v>114</v>
+      </c>
+      <c r="I34" t="s">
+        <v>267</v>
+      </c>
+      <c r="J34" t="s">
+        <v>285</v>
+      </c>
+      <c r="K34" s="1">
+        <v>45006</v>
+      </c>
+      <c r="L34" t="b">
+        <v>1</v>
+      </c>
+      <c r="M34" t="b">
+        <v>1</v>
+      </c>
+      <c r="N34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="1"/>
+        <v>Moreira, Murilo; de Almeida, João H.; de Rose, Júlio C. (2021) The impact of career choice on the implicit gender–career bias among undergraduate Brazilian students. Behavior and Social Issues. 10.1007/s42822-021-00075-x</v>
+      </c>
+      <c r="D35">
+        <v>2021</v>
+      </c>
+      <c r="E35" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" t="s">
+        <v>131</v>
+      </c>
+      <c r="G35" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" t="s">
+        <v>132</v>
+      </c>
+      <c r="I35" t="s">
+        <v>267</v>
+      </c>
+      <c r="J35" t="s">
+        <v>248</v>
+      </c>
+      <c r="K35" s="1">
+        <v>44995</v>
+      </c>
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="b">
+        <v>0</v>
+      </c>
+      <c r="N35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="1"/>
+        <v>Perez, William F.; de Almeida, João Henrique; de Rose, Julio C.; Dorigon, Andrea H.; de Vasconcellos, Eduardo L.; da Silva, Marco A.; Lima, Najra D. P.; de Almeida, Roberta B. M.; Montan, Rodrigo N. M.; Barnes-Holmes, Dermot (2019) Implicit and explicit measures of transformation of function from facial expressions of fear and of happiness via equivalence relations. The Psychological Record. 10.1007/s40732-018-0304-1</v>
+      </c>
+      <c r="D36">
+        <v>2019</v>
+      </c>
+      <c r="E36" t="s">
+        <v>158</v>
+      </c>
+      <c r="F36" t="s">
+        <v>159</v>
+      </c>
+      <c r="G36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" t="s">
+        <v>160</v>
+      </c>
+      <c r="I36" t="s">
+        <v>267</v>
+      </c>
+      <c r="J36" t="s">
+        <v>286</v>
+      </c>
+      <c r="K36" s="1">
+        <v>45006</v>
+      </c>
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="1"/>
+        <v>Bortoloti, Renato; de Almeida, Rodrigo Vianna; de Almeida, João Henrique; de Rose, Julio C. (2019) Emotional faces in symbolic relations: A happiness superiority effect involving the equivalence paradigm. Frontiers in Psychology. 10.3389/fpsyg.2019.00954</v>
+      </c>
+      <c r="D37">
+        <v>2019</v>
+      </c>
+      <c r="E37" t="s">
+        <v>183</v>
+      </c>
+      <c r="F37" t="s">
+        <v>184</v>
+      </c>
+      <c r="G37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" t="s">
+        <v>185</v>
+      </c>
+      <c r="I37" t="s">
+        <v>267</v>
+      </c>
+      <c r="J37" t="s">
+        <v>287</v>
+      </c>
+      <c r="K37" s="1">
+        <v>45006</v>
+      </c>
+      <c r="L37" t="b">
+        <v>1</v>
+      </c>
+      <c r="M37" t="b">
+        <v>1</v>
+      </c>
+      <c r="N37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="1"/>
+        <v>Farrell, Lynn; Nearchou, Finiki; McHugh, Louise (2020) Examining the effectiveness of brief interventions to strengthen a positive implicit relation between women and STEM across two timepoints. Social Psychology of Education: An International Journal. 10.1007/s11218-020-09576-w</v>
+      </c>
+      <c r="D38">
+        <v>2020</v>
+      </c>
+      <c r="E38" t="s">
+        <v>191</v>
+      </c>
+      <c r="F38" t="s">
+        <v>192</v>
+      </c>
+      <c r="G38" t="s">
+        <v>193</v>
+      </c>
+      <c r="H38" t="s">
+        <v>194</v>
+      </c>
+      <c r="I38" t="s">
+        <v>267</v>
+      </c>
+      <c r="J38" t="s">
         <v>249</v>
       </c>
-      <c r="J33" s="4">
+      <c r="K38" s="1">
         <v>44995</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Pinto, Joana Andrade Ramalho; de Almeida, Rodrigo Vianna; Bortoloti, Renato (2020) The stimulus’ orienting function may play an important role in IRAP performance: Supportive evidence from an eye-tracking study of brands. The Psychological Record. 10.1007/s40732-020-00378-2</v>
-      </c>
-      <c r="C34" s="3">
+      <c r="L38" t="b">
+        <v>1</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N38" t="b">
+        <v>0</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="1"/>
+        <v>Munnelly, Anita; Farrell, Lynn; O'Connor, Martin; McHugh, Louise (2018) Adolescents’ implicit and explicit attitudes toward cyberbullying: An exploratory study using the Implicit Relational Assessment Procedure (IRAP) and self-report measures. The Psychological Record. 10.1007/s40732-017-0261-0</v>
+      </c>
+      <c r="D39">
+        <v>2018</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" t="s">
+        <v>267</v>
+      </c>
+      <c r="J39" t="s">
+        <v>281</v>
+      </c>
+      <c r="K39" s="1">
+        <v>44995</v>
+      </c>
+      <c r="L39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M39" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="1"/>
+        <v>Farrell, Lynn; McHugh, Louise (2020) Exploring the relationship between implicit and explicit gender-STEM bias and behavior among STEM students using the Implicit Relational Assessment Procedure. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2019.12.008</v>
+      </c>
+      <c r="D40">
         <v>2020</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F34" s="3" t="s">
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
+        <v>169</v>
+      </c>
+      <c r="G40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s">
+        <v>170</v>
+      </c>
+      <c r="I40" t="s">
+        <v>267</v>
+      </c>
+      <c r="J40" t="s">
+        <v>249</v>
+      </c>
+      <c r="K40" s="1">
+        <v>44995</v>
+      </c>
+      <c r="L40" t="b">
+        <v>1</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N40" t="b">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="1"/>
+        <v>van der Kaap-Deeder, Jolene; De Houwer, Jan; Hughes, Sean; Spruyt, Adriaan; Vansteenkiste, Maarten (2018) The development and validation of an implicit measure of competence need satisfaction. Motivation and Emotion. 10.1007/s11031-018-9685-3</v>
+      </c>
+      <c r="D41">
+        <v>2018</v>
+      </c>
+      <c r="E41" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" t="s">
+        <v>53</v>
+      </c>
+      <c r="H41" t="s">
+        <v>54</v>
+      </c>
+      <c r="I41" t="s">
+        <v>267</v>
+      </c>
+      <c r="J41" t="s">
+        <v>284</v>
+      </c>
+      <c r="K41" s="1">
+        <v>44999</v>
+      </c>
+      <c r="L41" t="b">
+        <v>1</v>
+      </c>
+      <c r="M41" t="b">
+        <v>1</v>
+      </c>
+      <c r="N41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>203</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="1"/>
+        <v>Rafacz, Sharlet D.; Houmanfar, Ramona A.; Smith, Gregory S.; Levin, Michael E. (2019) Assessing the effects of motivative augmentals, pay-for-performance, and implicit verbal responding on cooperation. The Psychological Record. 10.1007/s40732-018-0324-x</v>
+      </c>
+      <c r="D42">
+        <v>2019</v>
+      </c>
+      <c r="E42" t="s">
+        <v>204</v>
+      </c>
+      <c r="F42" t="s">
+        <v>205</v>
+      </c>
+      <c r="G42" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H34" s="3" t="s">
+      <c r="H42" t="s">
+        <v>206</v>
+      </c>
+      <c r="I42" t="s">
         <v>267</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="J34" s="4">
-        <v>44995</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B35" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Gomes, Cainã T.; Perez, William F.; de Almeida, João Henrique; Ribeiro, Arthur; de Rose, Julio C.; Barnes-Holmes, Dermot (2019) Assessing a derived transformation of functions using the Implicit Relational Assessment Procedure under three motivative conditions. The Psychological Record. 10.1007/s40732-019-00353-6</v>
-      </c>
-      <c r="C35" s="3">
-        <v>2019</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="J35" s="4">
-        <v>44995</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B36" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Moreira, Murilo; de Almeida, João H.; de Rose, Júlio C. (2021) The impact of career choice on the implicit gender–career bias among undergraduate Brazilian students. Behavior and Social Issues. 10.1007/s42822-021-00075-x</v>
-      </c>
-      <c r="C36" s="3">
-        <v>2021</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F36" s="3" t="s">
+      <c r="J42" t="s">
+        <v>288</v>
+      </c>
+      <c r="K42" s="1">
+        <v>45005</v>
+      </c>
+      <c r="L42" t="b">
+        <v>1</v>
+      </c>
+      <c r="M42" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="1"/>
+        <v>Drake, Chad E.; Primeaux, Sunni; Thomas, Jorden (2018) Comparing implicit gender stereotypes between women and men with the Implicit Relational Assessment Procedure. Gender Issues. 10.1007/s12147-017-9189-6</v>
+      </c>
+      <c r="D43">
+        <v>2018</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" t="s">
+        <v>243</v>
+      </c>
+      <c r="J43" t="s">
+        <v>243</v>
+      </c>
+      <c r="K43" t="s">
+        <v>243</v>
+      </c>
+      <c r="L43" t="s">
+        <v>243</v>
+      </c>
+      <c r="M43" t="s">
+        <v>243</v>
+      </c>
+      <c r="N43" t="s">
+        <v>243</v>
+      </c>
+      <c r="O43" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="J36" s="4">
-        <v>44995</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B37" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Rezende, Mauro Carvalho; Bast, Diana Ferroni; Huziwara, Edson Massayuki; Bortoloti, Renato (2021) The Implicit Relational Assessment Procedure as a measure of hopelessness in the elderly: An exploratory study. The Psychological Record. 10.1007/s40732-020-00406-1</v>
-      </c>
-      <c r="C37" s="3">
-        <v>2021</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="J37" s="4">
-        <v>44995</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B38" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Perez, William F.; de Almeida, João Henrique; de Rose, Julio C.; Dorigon, Andrea H.; de Vasconcellos, Eduardo L.; da Silva, Marco A.; Lima, Najra D. P.; de Almeida, Roberta B. M.; Montan, Rodrigo N. M.; Barnes-Holmes, Dermot (2019) Implicit and explicit measures of transformation of function from facial expressions of fear and of happiness via equivalence relations. The Psychological Record. 10.1007/s40732-018-0304-1</v>
-      </c>
-      <c r="C38" s="3">
-        <v>2019</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="J38" s="4">
-        <v>44995</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B39" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Bortoloti, Renato; de Almeida, Rodrigo Vianna; de Almeida, João Henrique; de Rose, Julio C. (2019) Emotional faces in symbolic relations: A happiness superiority effect involving the equivalence paradigm. Frontiers in Psychology. 10.3389/fpsyg.2019.00954</v>
-      </c>
-      <c r="C39" s="3">
-        <v>2019</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="J39" s="4">
-        <v>44995</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>190</v>
-      </c>
-      <c r="B40" t="str">
-        <f t="shared" si="0"/>
-        <v>Farrell, Lynn; Nearchou, Finiki; McHugh, Louise (2020) Examining the effectiveness of brief interventions to strengthen a positive implicit relation between women and STEM across two timepoints. Social Psychology of Education: An International Journal. 10.1007/s11218-020-09576-w</v>
-      </c>
-      <c r="C40">
-        <v>2020</v>
-      </c>
-      <c r="D40" t="s">
-        <v>191</v>
-      </c>
-      <c r="E40" t="s">
-        <v>192</v>
-      </c>
-      <c r="F40" t="s">
-        <v>193</v>
-      </c>
-      <c r="G40" t="s">
-        <v>194</v>
-      </c>
-      <c r="H40" t="s">
-        <v>293</v>
-      </c>
-      <c r="I40" t="s">
-        <v>250</v>
-      </c>
-      <c r="J40" s="1">
-        <v>44995</v>
-      </c>
-      <c r="K40" t="b">
-        <v>1</v>
-      </c>
-      <c r="L40" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" t="str">
-        <f t="shared" si="0"/>
-        <v>Munnelly, Anita; Farrell, Lynn; O'Connor, Martin; McHugh, Louise (2018) Adolescents’ implicit and explicit attitudes toward cyberbullying: An exploratory study using the Implicit Relational Assessment Procedure (IRAP) and self-report measures. The Psychological Record. 10.1007/s40732-017-0261-0</v>
-      </c>
-      <c r="C41">
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="1"/>
+        <v>Drake, Chad E.; Codd, R. Trent III; Terry, Christeine (2018) Assessing the validity of implicit and explicit measures of stigma toward clients with substance use disorders among mental health practitioners. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2018.03.005</v>
+      </c>
+      <c r="D44">
         <v>2018</v>
       </c>
-      <c r="D41" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" t="s">
-        <v>293</v>
-      </c>
-      <c r="I41" t="s">
-        <v>250</v>
-      </c>
-      <c r="J41" s="1">
-        <v>44995</v>
-      </c>
-      <c r="K41" t="b">
-        <v>1</v>
-      </c>
-      <c r="L41" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>168</v>
-      </c>
-      <c r="B42" t="str">
-        <f t="shared" si="0"/>
-        <v>Farrell, Lynn; McHugh, Louise (2020) Exploring the relationship between implicit and explicit gender-STEM bias and behavior among STEM students using the Implicit Relational Assessment Procedure. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2019.12.008</v>
-      </c>
-      <c r="C42">
-        <v>2020</v>
-      </c>
-      <c r="D42" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" t="s">
-        <v>169</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="E44" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44" t="s">
         <v>14</v>
       </c>
-      <c r="G42" t="s">
-        <v>170</v>
-      </c>
-      <c r="H42" t="s">
-        <v>293</v>
-      </c>
-      <c r="I42" t="s">
-        <v>250</v>
-      </c>
-      <c r="J42" s="1">
-        <v>44995</v>
-      </c>
-      <c r="K42" t="b">
-        <v>1</v>
-      </c>
-      <c r="L42" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" t="str">
-        <f t="shared" si="0"/>
-        <v>van der Kaap-Deeder, Jolene; De Houwer, Jan; Hughes, Sean; Spruyt, Adriaan; Vansteenkiste, Maarten (2018) The development and validation of an implicit measure of competence need satisfaction. Motivation and Emotion. 10.1007/s11031-018-9685-3</v>
-      </c>
-      <c r="C43">
+      <c r="H44" t="s">
+        <v>42</v>
+      </c>
+      <c r="I44" t="s">
+        <v>243</v>
+      </c>
+      <c r="J44" t="s">
+        <v>243</v>
+      </c>
+      <c r="K44" t="s">
+        <v>243</v>
+      </c>
+      <c r="L44" t="s">
+        <v>243</v>
+      </c>
+      <c r="M44" t="s">
+        <v>243</v>
+      </c>
+      <c r="N44" t="s">
+        <v>243</v>
+      </c>
+      <c r="O44" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="1"/>
+        <v>De Schryver, Maarten; Hussey, Ian; De Neve, Jan; Cartwright, Aoife; Barnes-Holmes, Dermot (2018) The PIIRAP: An alternative scoring algorithm for the IRAP using a probabilistic semiparametric effect size measure. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2018.01.001</v>
+      </c>
+      <c r="D45">
         <v>2018</v>
       </c>
-      <c r="D43" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" t="s">
-        <v>53</v>
-      </c>
-      <c r="G43" t="s">
-        <v>54</v>
-      </c>
-      <c r="H43" t="s">
-        <v>293</v>
-      </c>
-      <c r="I43" t="s">
-        <v>251</v>
-      </c>
-      <c r="J43" s="1">
-        <v>44995</v>
-      </c>
-      <c r="K43" t="b">
-        <v>0</v>
-      </c>
-      <c r="L43" t="b">
-        <v>0</v>
-      </c>
-      <c r="O43" t="s">
-        <v>290</v>
-      </c>
-      <c r="P43" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q43" s="1">
-        <v>44999</v>
-      </c>
-      <c r="R43" t="b">
-        <v>1</v>
-      </c>
-      <c r="S43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>203</v>
-      </c>
-      <c r="B44" t="str">
-        <f t="shared" si="0"/>
-        <v>Rafacz, Sharlet D.; Houmanfar, Ramona A.; Smith, Gregory S.; Levin, Michael E. (2019) Assessing the effects of motivative augmentals, pay-for-performance, and implicit verbal responding on cooperation. The Psychological Record. 10.1007/s40732-018-0324-x</v>
-      </c>
-      <c r="C44">
-        <v>2019</v>
-      </c>
-      <c r="D44" t="s">
-        <v>204</v>
-      </c>
-      <c r="E44" t="s">
-        <v>205</v>
-      </c>
-      <c r="F44" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" t="s">
-        <v>206</v>
-      </c>
-      <c r="H44" t="s">
-        <v>268</v>
-      </c>
-      <c r="I44" t="s">
-        <v>252</v>
-      </c>
-      <c r="J44" s="1">
-        <v>44995</v>
-      </c>
-      <c r="K44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" t="b">
-        <v>0</v>
-      </c>
-      <c r="M44" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" t="str">
-        <f t="shared" si="0"/>
-        <v>Drake, Chad E.; Primeaux, Sunni; Thomas, Jorden (2018) Comparing implicit gender stereotypes between women and men with the Implicit Relational Assessment Procedure. Gender Issues. 10.1007/s12147-017-9189-6</v>
-      </c>
-      <c r="C45">
-        <v>2018</v>
-      </c>
-      <c r="D45" t="s">
-        <v>9</v>
-      </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>243</v>
+        <v>31</v>
       </c>
       <c r="I45" t="s">
         <v>243</v>
@@ -4818,520 +5126,549 @@
       <c r="J45" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" t="str">
-        <f t="shared" si="0"/>
-        <v>Drake, Chad E.; Codd, R. Trent III; Terry, Christeine (2018) Assessing the validity of implicit and explicit measures of stigma toward clients with substance use disorders among mental health practitioners. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2018.03.005</v>
-      </c>
-      <c r="C46">
-        <v>2018</v>
-      </c>
-      <c r="D46" t="s">
-        <v>40</v>
+      <c r="K45" t="s">
+        <v>243</v>
+      </c>
+      <c r="L45" t="s">
+        <v>243</v>
+      </c>
+      <c r="M45" t="s">
+        <v>243</v>
+      </c>
+      <c r="N45" t="s">
+        <v>243</v>
+      </c>
+      <c r="O45" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>217</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="1"/>
+        <v>Michnevich, Twyla; Schmidt, Alexander F.; Scheunemann, Jakob; Moritz, Steffen; Miegel, Franziska; Jelinek, Lena (2021) Aggressiveness in patients with obsessive-compulsive disorder as assessed by the Implicit Relational Assessment Procedure. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2021.06.008</v>
+      </c>
+      <c r="D46">
+        <v>2021</v>
       </c>
       <c r="E46" t="s">
-        <v>41</v>
+        <v>218</v>
       </c>
       <c r="F46" t="s">
+        <v>219</v>
+      </c>
+      <c r="G46" t="s">
         <v>14</v>
       </c>
-      <c r="G46" t="s">
-        <v>42</v>
-      </c>
       <c r="H46" t="s">
+        <v>220</v>
+      </c>
+      <c r="I46" t="s">
+        <v>266</v>
+      </c>
+      <c r="J46" t="s">
+        <v>259</v>
+      </c>
+      <c r="K46" s="1">
+        <v>44995</v>
+      </c>
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="1"/>
+        <v>Inoue, Kazuya; Shima, Taiki; Takahashi, Madoka; Lee, Steve K.; Ohtsuki, Tomu; Kumano, Hiroaki (2020) Reliability and validity of the Implicit Relational Assessment Procedure (IRAP) as a measure of Change Agenda. The Psychological Record. 10.1007/s40732-020-00416-z</v>
+      </c>
+      <c r="D47">
+        <v>2020</v>
+      </c>
+      <c r="E47" t="s">
+        <v>116</v>
+      </c>
+      <c r="F47" t="s">
+        <v>117</v>
+      </c>
+      <c r="G47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" t="s">
+        <v>118</v>
+      </c>
+      <c r="I47" t="s">
+        <v>266</v>
+      </c>
+      <c r="J47" t="s">
+        <v>250</v>
+      </c>
+      <c r="K47" s="1">
+        <v>44995</v>
+      </c>
+      <c r="L47" t="b">
+        <v>1</v>
+      </c>
+      <c r="M47" t="b">
+        <v>1</v>
+      </c>
+      <c r="N47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="1"/>
+        <v>Nasso, Selene; Vanderhasselt, Marie-Anne; De Raedt, Rudi (2020) Testing the neurocognitive framework for regulation expectation: The relationship between actual/ideal self-esteem and proactive/reactive autonomic stress regulation. Journal of Behavior Therapy and Experimental Psychiatry. 10.1016/j.jbtep.2020.101598</v>
+      </c>
+      <c r="D48">
+        <v>2020</v>
+      </c>
+      <c r="E48" t="s">
+        <v>138</v>
+      </c>
+      <c r="F48" t="s">
+        <v>139</v>
+      </c>
+      <c r="G48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H48" t="s">
+        <v>140</v>
+      </c>
+      <c r="I48" t="s">
+        <v>267</v>
+      </c>
+      <c r="J48" t="s">
+        <v>303</v>
+      </c>
+      <c r="K48" s="1">
+        <v>45006</v>
+      </c>
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="1"/>
+        <v>Delgado, Eduardo M. Blasco; Cascalló, Aurembiaix Llobera; Sánchez, L. Jorge Ruiz; Carrasco, Jorge Villarroel (2019) Measuring the attitudes from Spanish and Catalan people toward Spanish and Catalan identity with the Implicit Relational Assessment Procedure. International Journal of Psychology &amp; Psychological Therapy. NA</v>
+      </c>
+      <c r="D49">
+        <v>2019</v>
+      </c>
+      <c r="E49" t="s">
+        <v>124</v>
+      </c>
+      <c r="F49" t="s">
+        <v>125</v>
+      </c>
+      <c r="G49" t="s">
+        <v>32</v>
+      </c>
+      <c r="H49" t="s">
         <v>243</v>
       </c>
-      <c r="I46" t="s">
-        <v>243</v>
-      </c>
-      <c r="J46" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" t="str">
-        <f t="shared" si="0"/>
-        <v>De Schryver, Maarten; Hussey, Ian; De Neve, Jan; Cartwright, Aoife; Barnes-Holmes, Dermot (2018) The PIIRAP: An alternative scoring algorithm for the IRAP using a probabilistic semiparametric effect size measure. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2018.01.001</v>
-      </c>
-      <c r="C47">
-        <v>2018</v>
-      </c>
-      <c r="D47" t="s">
-        <v>29</v>
-      </c>
-      <c r="E47" t="s">
-        <v>30</v>
-      </c>
-      <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" t="s">
-        <v>243</v>
-      </c>
-      <c r="I47" t="s">
-        <v>243</v>
-      </c>
-      <c r="J47" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>217</v>
-      </c>
-      <c r="B48" t="str">
-        <f t="shared" si="0"/>
-        <v>Michnevich, Twyla; Schmidt, Alexander F.; Scheunemann, Jakob; Moritz, Steffen; Miegel, Franziska; Jelinek, Lena (2021) Aggressiveness in patients with obsessive-compulsive disorder as assessed by the Implicit Relational Assessment Procedure. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2021.06.008</v>
-      </c>
-      <c r="C48">
+      <c r="I49" t="s">
+        <v>266</v>
+      </c>
+      <c r="J49" t="s">
+        <v>256</v>
+      </c>
+      <c r="K49" s="1">
+        <v>44995</v>
+      </c>
+      <c r="L49" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="1"/>
+        <v>Errasti, José; Martinez, Hugo; Rodriguez, Carmen; Marquez, Jennifer; Maldonado, Alejandro; Menendez, Alvaro (2019) Social context in a collective IRAP application about gender stereotypes: Mixed versus single gender groups. The Psychological Record. 10.1007/s40732-018-0320-1</v>
+      </c>
+      <c r="D50">
+        <v>2019</v>
+      </c>
+      <c r="E50" t="s">
+        <v>142</v>
+      </c>
+      <c r="F50" t="s">
+        <v>143</v>
+      </c>
+      <c r="G50" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" t="s">
+        <v>144</v>
+      </c>
+      <c r="I50" t="s">
+        <v>266</v>
+      </c>
+      <c r="J50" t="s">
+        <v>257</v>
+      </c>
+      <c r="K50" s="1">
+        <v>44995</v>
+      </c>
+      <c r="L50" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="1"/>
+        <v>Hong, Bao; Zhang, Lu; Sun, Hongri (2019) Measurement of the vertical spatial metaphor of power concepts using the Implicit Relational Assessment Procedure. Frontiers in Psychology. 10.3389/fpsyg.2019.01422</v>
+      </c>
+      <c r="D51">
+        <v>2019</v>
+      </c>
+      <c r="E51" t="s">
+        <v>150</v>
+      </c>
+      <c r="F51" t="s">
+        <v>151</v>
+      </c>
+      <c r="G51" t="s">
+        <v>37</v>
+      </c>
+      <c r="H51" t="s">
+        <v>152</v>
+      </c>
+      <c r="I51" t="s">
+        <v>266</v>
+      </c>
+      <c r="J51" t="s">
+        <v>258</v>
+      </c>
+      <c r="K51" s="1">
+        <v>44995</v>
+      </c>
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>174</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="1"/>
+        <v>Henklain, Marcelo H. O.; Haydu, Verônica Bender; Carmo, João S.; Muniz, Monalisa; Perez, William F. (2019) Expanding the evidence of content validity for the Teacher Behavior Checklist using the IRAP: TBC’s content validity using the IRAP. The Psychological Record. 10.1007/s40732-019-00334-9</v>
+      </c>
+      <c r="D52">
+        <v>2019</v>
+      </c>
+      <c r="E52" t="s">
+        <v>175</v>
+      </c>
+      <c r="F52" t="s">
+        <v>176</v>
+      </c>
+      <c r="G52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" t="s">
+        <v>177</v>
+      </c>
+      <c r="I52" t="s">
+        <v>282</v>
+      </c>
+      <c r="J52" t="s">
+        <v>283</v>
+      </c>
+      <c r="K52" s="1">
+        <v>45006</v>
+      </c>
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>224</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="1"/>
+        <v>Glock, Sabine; Shevchuk, Anna; Kleen, Hannah (2022) Why Is Murat's achievement so low? Causal attributions and implicit attitudes toward ethnic minority students predict preservice teachers' judgments about achievement. Frontiers in Psychology. 10.3389/fpsyg.2022.819793</v>
+      </c>
+      <c r="D53">
+        <v>2022</v>
+      </c>
+      <c r="E53" t="s">
+        <v>225</v>
+      </c>
+      <c r="F53" t="s">
+        <v>226</v>
+      </c>
+      <c r="G53" t="s">
+        <v>37</v>
+      </c>
+      <c r="H53" t="s">
+        <v>227</v>
+      </c>
+      <c r="I53" t="s">
+        <v>266</v>
+      </c>
+      <c r="J53" t="s">
+        <v>255</v>
+      </c>
+      <c r="K53" s="1">
+        <v>44995</v>
+      </c>
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>228</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="1"/>
+        <v>Simione, Luca; Vagni, Monia; Maiorano, Tiziana; Giostra, Valeria; Pajardi, Daniela (2022) How implicit attitudes toward vaccination affect vaccine hesitancy and behaviour: Developing and validating the V-IRAP. International Journal of Environmental Research and Public Health. 10.3390/ijerph19074205</v>
+      </c>
+      <c r="D54">
+        <v>2022</v>
+      </c>
+      <c r="E54" t="s">
+        <v>229</v>
+      </c>
+      <c r="F54" t="s">
+        <v>230</v>
+      </c>
+      <c r="G54" t="s">
+        <v>231</v>
+      </c>
+      <c r="H54" t="s">
+        <v>232</v>
+      </c>
+      <c r="I54" t="s">
+        <v>266</v>
+      </c>
+      <c r="J54" t="s">
+        <v>254</v>
+      </c>
+      <c r="K54" s="1">
+        <v>44995</v>
+      </c>
+      <c r="L54" t="b">
+        <v>1</v>
+      </c>
+      <c r="M54" t="b">
+        <v>1</v>
+      </c>
+      <c r="N54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>178</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="1"/>
+        <v>Paliliunas, Dana; Frizell, Chynna B. (2021) Evaluation of college students’ implicit biases toward believability of claims of sexual harassment using the Implicit Relational Assessment Procedure (IRAP). Behavior and Social Issues. 10.1007/s42822-021-00061-3</v>
+      </c>
+      <c r="D55">
         <v>2021</v>
       </c>
-      <c r="D48" t="s">
-        <v>218</v>
-      </c>
-      <c r="E48" t="s">
-        <v>219</v>
-      </c>
-      <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>220</v>
-      </c>
-      <c r="H48" t="s">
-        <v>292</v>
-      </c>
-      <c r="I48" t="s">
-        <v>265</v>
-      </c>
-      <c r="J48" s="1">
+      <c r="E55" t="s">
+        <v>179</v>
+      </c>
+      <c r="F55" t="s">
+        <v>180</v>
+      </c>
+      <c r="G55" t="s">
+        <v>43</v>
+      </c>
+      <c r="H55" t="s">
+        <v>181</v>
+      </c>
+      <c r="I55" t="s">
+        <v>266</v>
+      </c>
+      <c r="J55" t="s">
+        <v>253</v>
+      </c>
+      <c r="K55" s="1">
         <v>44995</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>115</v>
-      </c>
-      <c r="B49" t="str">
-        <f t="shared" si="0"/>
-        <v>Inoue, Kazuya; Shima, Taiki; Takahashi, Madoka; Lee, Steve K.; Ohtsuki, Tomu; Kumano, Hiroaki (2020) Reliability and validity of the Implicit Relational Assessment Procedure (IRAP) as a measure of Change Agenda. The Psychological Record. 10.1007/s40732-020-00416-z</v>
-      </c>
-      <c r="C49">
-        <v>2020</v>
-      </c>
-      <c r="D49" t="s">
-        <v>116</v>
-      </c>
-      <c r="E49" t="s">
-        <v>117</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>195</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="1"/>
+        <v>Cabrera, Isabel; Márquez-González, María; Kishita, Naoko; Vara-García, Carlos; Losada, Andrés (2021) Development and validation of an Implicit Relational Assessment Procedure (IRAP) to measure implicit dysfunctional beliefs about caregiving in dementia family caregivers. The Psychological Record. 10.1007/s40732-020-00445-8</v>
+      </c>
+      <c r="D56">
+        <v>2021</v>
+      </c>
+      <c r="E56" t="s">
+        <v>196</v>
+      </c>
+      <c r="F56" t="s">
+        <v>197</v>
+      </c>
+      <c r="G56" t="s">
         <v>15</v>
       </c>
-      <c r="G49" t="s">
-        <v>118</v>
-      </c>
-      <c r="H49" t="s">
-        <v>292</v>
-      </c>
-      <c r="I49" t="s">
-        <v>253</v>
-      </c>
-      <c r="J49" s="1">
+      <c r="H56" t="s">
+        <v>198</v>
+      </c>
+      <c r="I56" t="s">
+        <v>266</v>
+      </c>
+      <c r="J56" t="s">
+        <v>252</v>
+      </c>
+      <c r="K56" s="1">
         <v>44995</v>
       </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>137</v>
-      </c>
-      <c r="B50" t="str">
-        <f t="shared" si="0"/>
-        <v>Nasso, Selene; Vanderhasselt, Marie-Anne; De Raedt, Rudi (2020) Testing the neurocognitive framework for regulation expectation: The relationship between actual/ideal self-esteem and proactive/reactive autonomic stress regulation. Journal of Behavior Therapy and Experimental Psychiatry. 10.1016/j.jbtep.2020.101598</v>
-      </c>
-      <c r="C50">
-        <v>2020</v>
-      </c>
-      <c r="D50" t="s">
-        <v>138</v>
-      </c>
-      <c r="E50" t="s">
-        <v>139</v>
-      </c>
-      <c r="F50" t="s">
-        <v>38</v>
-      </c>
-      <c r="G50" t="s">
-        <v>140</v>
-      </c>
-      <c r="H50" t="s">
-        <v>292</v>
-      </c>
-      <c r="I50" t="s">
-        <v>261</v>
-      </c>
-      <c r="J50" s="1">
-        <v>44995</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>123</v>
-      </c>
-      <c r="B51" t="str">
-        <f t="shared" si="0"/>
-        <v>Delgado, Eduardo M. Blasco; Cascalló, Aurembiaix Llobera; Sánchez, L. Jorge Ruiz; Carrasco, Jorge Villarroel (2019) Measuring the attitudes from Spanish and Catalan people toward Spanish and Catalan identity with the Implicit Relational Assessment Procedure. International Journal of Psychology &amp; Psychological Therapy. NA</v>
-      </c>
-      <c r="C51">
-        <v>2019</v>
-      </c>
-      <c r="D51" t="s">
-        <v>124</v>
-      </c>
-      <c r="E51" t="s">
-        <v>125</v>
-      </c>
-      <c r="F51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G51" t="s">
-        <v>243</v>
-      </c>
-      <c r="H51" t="s">
-        <v>292</v>
-      </c>
-      <c r="I51" t="s">
-        <v>262</v>
-      </c>
-      <c r="J51" s="1">
-        <v>44995</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>141</v>
-      </c>
-      <c r="B52" t="str">
-        <f t="shared" si="0"/>
-        <v>Errasti, José; Martinez, Hugo; Rodriguez, Carmen; Marquez, Jennifer; Maldonado, Alejandro; Menendez, Alvaro (2019) Social context in a collective IRAP application about gender stereotypes: Mixed versus single gender groups. The Psychological Record. 10.1007/s40732-018-0320-1</v>
-      </c>
-      <c r="C52">
-        <v>2019</v>
-      </c>
-      <c r="D52" t="s">
-        <v>142</v>
-      </c>
-      <c r="E52" t="s">
-        <v>143</v>
-      </c>
-      <c r="F52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" t="s">
-        <v>144</v>
-      </c>
-      <c r="H52" t="s">
-        <v>292</v>
-      </c>
-      <c r="I52" t="s">
-        <v>263</v>
-      </c>
-      <c r="J52" s="1">
-        <v>44995</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>149</v>
-      </c>
-      <c r="B53" t="str">
-        <f t="shared" si="0"/>
-        <v>Hong, Bao; Zhang, Lu; Sun, Hongri (2019) Measurement of the vertical spatial metaphor of power concepts using the Implicit Relational Assessment Procedure. Frontiers in Psychology. 10.3389/fpsyg.2019.01422</v>
-      </c>
-      <c r="C53">
-        <v>2019</v>
-      </c>
-      <c r="D53" t="s">
-        <v>150</v>
-      </c>
-      <c r="E53" t="s">
-        <v>151</v>
-      </c>
-      <c r="F53" t="s">
-        <v>37</v>
-      </c>
-      <c r="G53" t="s">
-        <v>152</v>
-      </c>
-      <c r="H53" t="s">
-        <v>292</v>
-      </c>
-      <c r="I53" t="s">
-        <v>264</v>
-      </c>
-      <c r="J53" s="1">
-        <v>44995</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>174</v>
-      </c>
-      <c r="B54" t="str">
-        <f t="shared" si="0"/>
-        <v>Henklain, Marcelo H. O.; Haydu, Verônica Bender; Carmo, João S.; Muniz, Monalisa; Perez, William F. (2019) Expanding the evidence of content validity for the Teacher Behavior Checklist using the IRAP: TBC’s content validity using the IRAP. The Psychological Record. 10.1007/s40732-019-00334-9</v>
-      </c>
-      <c r="C54">
-        <v>2019</v>
-      </c>
-      <c r="D54" t="s">
-        <v>175</v>
-      </c>
-      <c r="E54" t="s">
-        <v>176</v>
-      </c>
-      <c r="F54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" t="s">
-        <v>177</v>
-      </c>
-      <c r="H54" t="s">
-        <v>292</v>
-      </c>
-      <c r="I54" t="s">
-        <v>260</v>
-      </c>
-      <c r="J54" s="1">
-        <v>44995</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>224</v>
-      </c>
-      <c r="B55" t="str">
-        <f t="shared" si="0"/>
-        <v>Glock, Sabine; Shevchuk, Anna; Kleen, Hannah (2022) Why Is Murat's achievement so low? Causal attributions and implicit attitudes toward ethnic minority students predict preservice teachers' judgments about achievement. Frontiers in Psychology. 10.3389/fpsyg.2022.819793</v>
-      </c>
-      <c r="C55">
-        <v>2022</v>
-      </c>
-      <c r="D55" t="s">
-        <v>225</v>
-      </c>
-      <c r="E55" t="s">
-        <v>226</v>
-      </c>
-      <c r="F55" t="s">
-        <v>37</v>
-      </c>
-      <c r="G55" t="s">
-        <v>227</v>
-      </c>
-      <c r="H55" t="s">
-        <v>292</v>
-      </c>
-      <c r="I55" t="s">
-        <v>259</v>
-      </c>
-      <c r="J55" s="1">
-        <v>44995</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>228</v>
-      </c>
-      <c r="B56" t="str">
-        <f t="shared" si="0"/>
-        <v>Simione, Luca; Vagni, Monia; Maiorano, Tiziana; Giostra, Valeria; Pajardi, Daniela (2022) How implicit attitudes toward vaccination affect vaccine hesitancy and behaviour: Developing and validating the V-IRAP. International Journal of Environmental Research and Public Health. 10.3390/ijerph19074205</v>
-      </c>
-      <c r="C56">
-        <v>2022</v>
-      </c>
-      <c r="D56" t="s">
-        <v>229</v>
-      </c>
-      <c r="E56" t="s">
-        <v>230</v>
-      </c>
-      <c r="F56" t="s">
-        <v>231</v>
-      </c>
-      <c r="G56" t="s">
-        <v>232</v>
-      </c>
-      <c r="H56" t="s">
-        <v>292</v>
-      </c>
-      <c r="I56" t="s">
-        <v>258</v>
-      </c>
-      <c r="J56" s="1">
-        <v>44995</v>
-      </c>
-      <c r="K56" t="b">
-        <v>1</v>
-      </c>
       <c r="L56" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>178</v>
-      </c>
-      <c r="B57" t="str">
-        <f t="shared" si="0"/>
-        <v>Paliliunas, Dana; Frizell, Chynna B. (2021) Evaluation of college students’ implicit biases toward believability of claims of sexual harassment using the Implicit Relational Assessment Procedure (IRAP). Behavior and Social Issues. 10.1007/s42822-021-00061-3</v>
-      </c>
-      <c r="C57">
-        <v>2021</v>
-      </c>
-      <c r="D57" t="s">
-        <v>179</v>
-      </c>
-      <c r="E57" t="s">
-        <v>180</v>
-      </c>
-      <c r="F57" t="s">
-        <v>43</v>
-      </c>
-      <c r="G57" t="s">
-        <v>181</v>
-      </c>
-      <c r="H57" t="s">
-        <v>292</v>
-      </c>
-      <c r="I57" t="s">
-        <v>257</v>
-      </c>
-      <c r="J57" s="1">
-        <v>44995</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>195</v>
-      </c>
-      <c r="B58" t="str">
-        <f t="shared" si="0"/>
-        <v>Cabrera, Isabel; Márquez-González, María; Kishita, Naoko; Vara-García, Carlos; Losada, Andrés (2021) Development and validation of an Implicit Relational Assessment Procedure (IRAP) to measure implicit dysfunctional beliefs about caregiving in dementia family caregivers. The Psychological Record. 10.1007/s40732-020-00445-8</v>
-      </c>
-      <c r="C58">
-        <v>2021</v>
-      </c>
-      <c r="D58" t="s">
-        <v>196</v>
-      </c>
-      <c r="E58" t="s">
-        <v>197</v>
-      </c>
-      <c r="F58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" t="s">
-        <v>198</v>
-      </c>
-      <c r="H58" t="s">
-        <v>292</v>
-      </c>
-      <c r="I58" t="s">
-        <v>256</v>
-      </c>
-      <c r="J58" s="1">
-        <v>44995</v>
+        <v>0</v>
+      </c>
+      <c r="M56" t="b">
+        <v>0</v>
+      </c>
+      <c r="N56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="L58" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L59" s="4">
+        <f>AVERAGEA(L2:L56)</f>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="M59" s="4">
+        <f>AVERAGEA(M2:M56)</f>
+        <v>0.14545454545454545</v>
+      </c>
+      <c r="N59" s="4">
+        <f>AVERAGEA(N2:N56)</f>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:L30">
-    <sortCondition ref="D16:D30"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B16:M30">
+    <sortCondition ref="E16:E30"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3DD7E0-3AC8-9E4B-9C74-0A5953720795}">
-  <dimension ref="A1:A12"/>
-  <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="39.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>281</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/requests for data/data requests.xlsx
+++ b/data/requests for data/data requests.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ian/git/repository-of-published-irap-data/data/requests for data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3C25BE-4203-C345-9A98-32F5F399DC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9506662-865B-7541-B18F-7323A437A295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6760" yWindow="1720" windowWidth="31640" windowHeight="18980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publications since 2018" sheetId="1" r:id="rId1"/>
     <sheet name="contacted" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="310">
   <si>
     <t>Key</t>
   </si>
@@ -755,12 +756,6 @@
     <t>author</t>
   </si>
   <si>
-    <t>authors_contacted</t>
-  </si>
-  <si>
-    <t>date_contacted</t>
-  </si>
-  <si>
     <t>murphy; kelly; foody</t>
   </si>
   <si>
@@ -788,9 +783,6 @@
     <t>kazuya inoue</t>
   </si>
   <si>
-    <t>reply_received_binary</t>
-  </si>
-  <si>
     <t>cabrera</t>
   </si>
   <si>
@@ -815,21 +807,12 @@
     <t>Michnevich</t>
   </si>
   <si>
-    <t>choice of contact</t>
-  </si>
-  <si>
     <t>a senior author who I personally know</t>
   </si>
   <si>
     <t>"I did have the data for these studies until very recently but I mistakenly wiped them from the old laptop where they were stored, along with quite a bit of other stuff from the Maynooth era."</t>
   </si>
   <si>
-    <t>reported_able_and_willing_to_share</t>
-  </si>
-  <si>
-    <t>reported_able_and_willing_to_share_explanation</t>
-  </si>
-  <si>
     <t>[journal does not issue DOIs]</t>
   </si>
   <si>
@@ -845,9 +828,6 @@
     <t>multiple senior authors who I personally know</t>
   </si>
   <si>
-    <t>unclear</t>
-  </si>
-  <si>
     <t>barnes-holmes, d; barnes-holmes, y, perez, bortoloti, de rose</t>
   </si>
   <si>
@@ -912,12 +892,6 @@
   </si>
   <si>
     <t>"Let me prepare some data to share." on 15-03-2023</t>
-  </si>
-  <si>
-    <t>shared_data</t>
-  </si>
-  <si>
-    <t>repored they will share but it could take time</t>
   </si>
   <si>
     <t>proportion replying (at least one coauthor per article)</t>
@@ -997,6 +971,33 @@
       </rPr>
       <t xml:space="preserve"> ethical restrictions at kelly's institutions, murphy reports having no data from any studies</t>
     </r>
+  </si>
+  <si>
+    <t>contacted summary</t>
+  </si>
+  <si>
+    <t>contacted authors</t>
+  </si>
+  <si>
+    <t>contacted date</t>
+  </si>
+  <si>
+    <t>replied to emails</t>
+  </si>
+  <si>
+    <t>shared data</t>
+  </si>
+  <si>
+    <t>reported able and willing to share data</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>already have data, am coauthor or chad is.</t>
+  </si>
+  <si>
+    <t>reported they will share but it could take time</t>
   </si>
 </sst>
 </file>
@@ -2993,30 +2994,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647F9036-BD7F-8941-AAC0-FD3B8EC13872}">
-  <dimension ref="A1:S59"/>
+  <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G33" zoomScale="119" workbookViewId="0">
-      <selection activeCell="L64" sqref="L64"/>
+    <sheetView tabSelected="1" topLeftCell="I23" zoomScale="119" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="6.1640625" customWidth="1"/>
     <col min="3" max="3" width="39.1640625" customWidth="1"/>
     <col min="4" max="4" width="5.83203125" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
     <col min="7" max="7" width="23.6640625" customWidth="1"/>
     <col min="9" max="9" width="34.83203125" customWidth="1"/>
     <col min="10" max="10" width="25.1640625" customWidth="1"/>
-    <col min="12" max="12" width="19" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="14.5" customWidth="1"/>
     <col min="13" max="13" width="31.6640625" customWidth="1"/>
-    <col min="14" max="14" width="19.1640625" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" customWidth="1"/>
     <col min="15" max="15" width="42.6640625" customWidth="1"/>
     <col min="16" max="16" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B1" t="s">
         <v>237</v>
@@ -3040,25 +3043,25 @@
         <v>236</v>
       </c>
       <c r="I1" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="J1" t="s">
-        <v>240</v>
+        <v>302</v>
       </c>
       <c r="K1" t="s">
-        <v>241</v>
+        <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>251</v>
+        <v>304</v>
       </c>
       <c r="M1" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="N1" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="O1" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -3069,7 +3072,7 @@
         <v>65</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C33" si="0">E2&amp;" ("&amp;D2&amp;") "&amp;F2&amp;". "&amp;G2&amp;". "&amp;H2</f>
+        <f>E2&amp;" ("&amp;D2&amp;") "&amp;F2&amp;". "&amp;G2&amp;". "&amp;H2</f>
         <v>Murphy, Carol; Maloney, Emma; Kelly, Michelle (2022) The role of relational contextual cues versus relational coherence indicators as response options on the Implicit Relational Assessment Procedure. The Psychological Record. 10.1007/s40732-022-00512-2</v>
       </c>
       <c r="D2">
@@ -3088,10 +3091,10 @@
         <v>68</v>
       </c>
       <c r="I2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="J2" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="K2" s="1">
         <v>44995</v>
@@ -3106,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -3117,7 +3120,7 @@
         <v>73</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" si="0"/>
+        <f>E3&amp;" ("&amp;D3&amp;") "&amp;F3&amp;". "&amp;G3&amp;". "&amp;H3</f>
         <v>Nolan, Conor; Murphy, Carol; Kelly, Michelle (2022) Using the IRAP to investigate gender biases towards ADHD and anxiety. The Psychological Record. 10.1007/s40732-021-00474-x</v>
       </c>
       <c r="D3">
@@ -3136,10 +3139,10 @@
         <v>76</v>
       </c>
       <c r="I3" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="J3" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="K3" s="1">
         <v>45008</v>
@@ -3154,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -3165,7 +3168,7 @@
         <v>103</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="0"/>
+        <f>E4&amp;" ("&amp;D4&amp;") "&amp;F4&amp;". "&amp;G4&amp;". "&amp;H4</f>
         <v>Murphy, Rachel; Murphy, Carol; Kelly, Michelle; Roche, Bryan (2021) Using the Implicit Relational Assessment Procedure (IRAP) to examine implicit beauty bias in the context of employability. The Psychological Record. 10.1007/s40732-020-00427-w</v>
       </c>
       <c r="D4">
@@ -3184,10 +3187,10 @@
         <v>106</v>
       </c>
       <c r="I4" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="J4" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="K4" s="1">
         <v>45008</v>
@@ -3202,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -3213,7 +3216,7 @@
         <v>77</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="0"/>
+        <f>E5&amp;" ("&amp;D5&amp;") "&amp;F5&amp;". "&amp;G5&amp;". "&amp;H5</f>
         <v>Curtis, Aisling; Foody, Mairéad; Kelly, Michelle; Murphy, Carol (2020) Using the Implicit Relational Assessment Procedure to explore students’ implicit age discrimination of toxic versus innocuous phrases. International Journal of Psychology &amp; Psychological Therapy. NA</v>
       </c>
       <c r="D5">
@@ -3229,13 +3232,13 @@
         <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I5" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="J5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K5" s="1">
         <v>44995</v>
@@ -3250,7 +3253,7 @@
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -3261,7 +3264,7 @@
         <v>55</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="0"/>
+        <f>E6&amp;" ("&amp;D6&amp;") "&amp;F6&amp;". "&amp;G6&amp;". "&amp;H6</f>
         <v>Kane, Alan; Murphy, Carol; Kelly, Michelle (2020) Assessing implicit and explicit dementia stigma in young adults and care-workers. Dementia: The International Journal of Social Research and Practice. 10.1177/1471301218804727</v>
       </c>
       <c r="D6">
@@ -3280,10 +3283,10 @@
         <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="J6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K6" s="1">
         <v>44995</v>
@@ -3298,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -3309,7 +3312,7 @@
         <v>126</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="0"/>
+        <f>E7&amp;" ("&amp;D7&amp;") "&amp;F7&amp;". "&amp;G7&amp;". "&amp;H7</f>
         <v>Rice, Hannah; Murphy, Carol; Nolan, Conor; Kelly, Michelle (2020) Measuring implicit attractiveness bias in the context of innocence and guilt evaluations. International Journal of Psychology &amp; Psychological Therapy. NA</v>
       </c>
       <c r="D7">
@@ -3325,13 +3328,13 @@
         <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="J7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K7" s="1">
         <v>44995</v>
@@ -3346,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -3357,7 +3360,7 @@
         <v>186</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="0"/>
+        <f>E8&amp;" ("&amp;D8&amp;") "&amp;F8&amp;". "&amp;G8&amp;". "&amp;H8</f>
         <v>Maloney, Emma; Foody, Mairéad; Murphy, Carol (2020) Do response options in the Implicit Relational Assessment Procedure (IRAP) matter? A comparison of contextual relations versus relational coherent indicators. The Psychological Record. 10.1007/s40732-019-00360-7</v>
       </c>
       <c r="D8">
@@ -3376,10 +3379,10 @@
         <v>189</v>
       </c>
       <c r="I8" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="J8" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="K8" s="1">
         <v>44995</v>
@@ -3394,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -3405,7 +3408,7 @@
         <v>80</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="0"/>
+        <f>E9&amp;" ("&amp;D9&amp;") "&amp;F9&amp;". "&amp;G9&amp;". "&amp;H9</f>
         <v>Was, Margaret; Foody, Mairéad; Murphy, Carol (2019) Using the Implicit Relational Assessment Procedure (IRAP) to investigate attractiveness bias in the domain of employability. International Journal of Psychology &amp; Psychological Therapy. NA</v>
       </c>
       <c r="D9">
@@ -3421,13 +3424,13 @@
         <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I9" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="J9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K9" s="1">
         <v>44995</v>
@@ -3442,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -3453,7 +3456,7 @@
         <v>33</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="0"/>
+        <f>E10&amp;" ("&amp;D10&amp;") "&amp;F10&amp;". "&amp;G10&amp;". "&amp;H10</f>
         <v>Pennie, Brian; Kelly, Michelle E. (2018) An examination of generalised implicit biases towards ‘wanting more’ as a proxy measure of materialistic behaviour: A Relational Frame Theory (RFT) perspective. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2018.02.004</v>
       </c>
       <c r="D10" s="3">
@@ -3472,10 +3475,10 @@
         <v>36</v>
       </c>
       <c r="I10" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="K10" s="1">
         <v>45008</v>
@@ -3490,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -3501,7 +3504,7 @@
         <v>99</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="0"/>
+        <f>E11&amp;" ("&amp;D11&amp;") "&amp;F11&amp;". "&amp;G11&amp;". "&amp;H11</f>
         <v>Fleming, Katie; Foody, Mairead; Murphy, Carol (2020) Using the Implicit Relational Assessment Procedure (IRAP) to examine implicit gender stereotypes in science, technology, engineering and maths (STEM). The Psychological Record. 10.1007/s40732-020-00401-6</v>
       </c>
       <c r="D11">
@@ -3520,10 +3523,10 @@
         <v>102</v>
       </c>
       <c r="I11" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="J11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K11" s="1">
         <v>44995</v>
@@ -3538,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -3549,7 +3552,7 @@
         <v>133</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="0"/>
+        <f>E12&amp;" ("&amp;D12&amp;") "&amp;F12&amp;". "&amp;G12&amp;". "&amp;H12</f>
         <v>Bast, Diana Ferroni; Lyons, Christina; Stewart, Ian; Connor, Thomas; Kelly, Michelle; Goyos, Celso (2020) The effect of educational messages on implicit and explicit attitudes towards individuals on the autism spectrum versus normally developing individuals. The Psychological Record. 10.1007/s40732-019-00363-4</v>
       </c>
       <c r="D12">
@@ -3568,10 +3571,10 @@
         <v>136</v>
       </c>
       <c r="I12" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K12" s="1">
         <v>44995</v>
@@ -3594,7 +3597,7 @@
         <v>107</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="0"/>
+        <f>E13&amp;" ("&amp;D13&amp;") "&amp;F13&amp;". "&amp;G13&amp;". "&amp;H13</f>
         <v>Ferroni-Bast, Diana; Fitzpatrick, Jane; Stewart, Ian; Goyos, Celso (2019) Using the Implicit Relational Assessment Procedure (IRAP) as a measure of reaction to perceived failure and the effects of a defusion intervention in this context. The Psychological Record. 10.1007/s40732-019-00349-2</v>
       </c>
       <c r="D13">
@@ -3613,10 +3616,10 @@
         <v>110</v>
       </c>
       <c r="I13" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K13" s="1">
         <v>44995</v>
@@ -3639,7 +3642,7 @@
         <v>91</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="0"/>
+        <f>E14&amp;" ("&amp;D14&amp;") "&amp;F14&amp;". "&amp;G14&amp;". "&amp;H14</f>
         <v>Rezende, Mauro Carvalho; Bast, Diana Ferroni; Huziwara, Edson Massayuki; Bortoloti, Renato (2021) The Implicit Relational Assessment Procedure as a measure of hopelessness in the elderly: An exploratory study. The Psychological Record. 10.1007/s40732-020-00406-1</v>
       </c>
       <c r="D14">
@@ -3658,10 +3661,10 @@
         <v>94</v>
       </c>
       <c r="I14" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="J14" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="K14" s="1">
         <v>44995</v>
@@ -3676,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -3687,7 +3690,7 @@
         <v>95</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="0"/>
+        <f>E15&amp;" ("&amp;D15&amp;") "&amp;F15&amp;". "&amp;G15&amp;". "&amp;H15</f>
         <v>Alasiri, Eman; Bast, Diana; Kolts, Russell L. (2019) Using the Implicit Relational Assessment Procedure (IRAP) to explore common humanity as a dimension of self-compassion. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2019.09.004</v>
       </c>
       <c r="D15">
@@ -3706,10 +3709,10 @@
         <v>98</v>
       </c>
       <c r="I15" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="J15" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="K15" s="1">
         <v>45006</v>
@@ -3732,7 +3735,7 @@
         <v>165</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="0"/>
+        <f>E16&amp;" ("&amp;D16&amp;") "&amp;F16&amp;". "&amp;G16&amp;". "&amp;H16</f>
         <v>Dunne, Ciara; McEnteggart, Ciara; Harte, Colin; Barnes-Holmes, Dermot; Barnes-Holmes, Yvonne (2018) Faking a race IRAP effect in the context of single versus multiple label stimuli. International Journal of Psychology &amp; Psychological Therapy. [journal does not issue DOIs]</v>
       </c>
       <c r="D16">
@@ -3748,13 +3751,13 @@
         <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="I16" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K16" s="1">
         <v>44995</v>
@@ -3769,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
@@ -3780,7 +3783,7 @@
         <v>24</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="0"/>
+        <f>E17&amp;" ("&amp;D17&amp;") "&amp;F17&amp;". "&amp;G17&amp;". "&amp;H17</f>
         <v>Finn, Martin; Barnes-Holmes, Dermot; McEnteggart, Ciara (2018) Exploring the single-trial-type-dominance-effect in the IRAP: Developing a differential arbitrarily applicable relational responding effects (DAARRE) model. The Psychological Record. 10.1007/s40732-017-0262-z</v>
       </c>
       <c r="D17">
@@ -3799,10 +3802,10 @@
         <v>27</v>
       </c>
       <c r="I17" t="s">
+        <v>261</v>
+      </c>
+      <c r="J17" t="s">
         <v>267</v>
-      </c>
-      <c r="J17" t="s">
-        <v>274</v>
       </c>
       <c r="K17" s="1">
         <v>44995</v>
@@ -3817,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="S17" s="1"/>
     </row>
@@ -3829,7 +3832,7 @@
         <v>119</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="0"/>
+        <f>E18&amp;" ("&amp;D18&amp;") "&amp;F18&amp;". "&amp;G18&amp;". "&amp;H18</f>
         <v>Finn, Martin; Barnes-Holmes, Dermot; McEnteggart, Ciara; Kavanagh, Deirdre (2019) Predicting and influencing the single-trial-type-dominance-effect: The first study. The Psychological Record. 10.1007/s40732-019-00347-4</v>
       </c>
       <c r="D18">
@@ -3848,10 +3851,10 @@
         <v>122</v>
       </c>
       <c r="I18" t="s">
+        <v>261</v>
+      </c>
+      <c r="J18" t="s">
         <v>267</v>
-      </c>
-      <c r="J18" t="s">
-        <v>274</v>
       </c>
       <c r="K18" s="1">
         <v>44995</v>
@@ -3866,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="S18" s="1"/>
     </row>
@@ -3878,7 +3881,7 @@
         <v>213</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="0"/>
+        <f>E19&amp;" ("&amp;D19&amp;") "&amp;F19&amp;". "&amp;G19&amp;". "&amp;H19</f>
         <v>Gomes, Cainã T.; Perez, William F.; de Almeida, João Henrique; Ribeiro, Arthur; de Rose, Julio C.; Barnes-Holmes, Dermot (2019) Assessing a derived transformation of functions using the Implicit Relational Assessment Procedure under three motivative conditions. The Psychological Record. 10.1007/s40732-019-00353-6</v>
       </c>
       <c r="D19">
@@ -3897,10 +3900,10 @@
         <v>216</v>
       </c>
       <c r="I19" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="J19" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="K19" s="1">
         <v>44995</v>
@@ -3915,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="S19" s="1"/>
     </row>
@@ -3927,7 +3930,7 @@
         <v>210</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="0"/>
+        <f>E20&amp;" ("&amp;D20&amp;") "&amp;F20&amp;". "&amp;G20&amp;". "&amp;H20</f>
         <v xml:space="preserve">Hendriks, Annemieke L.; McEnteggart, Ciara; Barnes-Holmes, Yvonne; De Mey, Hubert R. A.; Witteman, Cilia L. M.; Janssen, Gwenny T. L.; Egger, Jos I. M. (2020) Assessing deictic relational responding in psychosis using the Implicit Relational Assessment Procedure. International Journal of Psychology &amp; Psychological Therapy. </v>
       </c>
       <c r="D20">
@@ -3943,10 +3946,10 @@
         <v>32</v>
       </c>
       <c r="I20" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="J20" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="K20" s="1">
         <v>45005</v>
@@ -3961,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="S20" s="1"/>
     </row>
@@ -3973,7 +3976,7 @@
         <v>207</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="0"/>
+        <f>E21&amp;" ("&amp;D21&amp;") "&amp;F21&amp;". "&amp;G21&amp;". "&amp;H21</f>
         <v>Hendriks, Annemieke L.; McEnteggart, Ciara; Barnes-Holmes, Yvonne; Veltmaat, Anouk; De Mey, Hubert R. A.; Witteman, Cilia L. M.; Janssen, Gwenny T. L.; Egger, Jos I. M. (2020) Assessing deictic relational responding in social anxiety using the Implicit Relational Assessment Procedure. International Journal of Psychology &amp; Psychological Therapy. [journal does not issue DOIs]</v>
       </c>
       <c r="D21">
@@ -3989,13 +3992,13 @@
         <v>32</v>
       </c>
       <c r="H21" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="I21" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="J21" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="K21" s="1">
         <v>45005</v>
@@ -4010,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="S21" s="1"/>
     </row>
@@ -4022,7 +4025,7 @@
         <v>69</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="0"/>
+        <f>E22&amp;" ("&amp;D22&amp;") "&amp;F22&amp;". "&amp;G22&amp;". "&amp;H22</f>
         <v>Kavanagh, Deirdre; Barnes-Holmes, Yvonne; Barnes-Holmes, Dermot (2022) Attempting to analyze perspective-taking with a false belief vignette using the Implicit Relational Assessment Procedure. The Psychological Record. 10.1007/s40732-021-00500-y</v>
       </c>
       <c r="D22">
@@ -4041,10 +4044,10 @@
         <v>72</v>
       </c>
       <c r="I22" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="J22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K22" s="1">
         <v>44995</v>
@@ -4059,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
@@ -4070,7 +4073,7 @@
         <v>20</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="0"/>
+        <f>E23&amp;" ("&amp;D23&amp;") "&amp;F23&amp;". "&amp;G23&amp;". "&amp;H23</f>
         <v>Kavanagh, Deirdre; Barnes-Holmes, Yvonne; Barnes-Holmes, Dermot; McEnteggart, Ciara; Finn, Martin (2018) Exploring differential trial-type effects and the impact of a read-aloud procedure on deictic relational responding on the IRAP. The Psychological Record. 10.1007/s40732-018-0276-1</v>
       </c>
       <c r="D23">
@@ -4089,10 +4092,10 @@
         <v>23</v>
       </c>
       <c r="I23" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="J23" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K23" s="1">
         <v>44995</v>
@@ -4107,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
@@ -4118,7 +4121,7 @@
         <v>171</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="0"/>
+        <f>E24&amp;" ("&amp;D24&amp;") "&amp;F24&amp;". "&amp;G24&amp;". "&amp;H24</f>
         <v>Kavanagh, Deirdre; Matthyssen, Nele; Barnes-Holmes, Yvonne; Barnes-Holmes, Dermot; McEnteggart, Ciara; Vastano, Roberta (2019) Exploring the use of pictures of self and other in the IRAP: Reflecting upon the emergence of differential trial type effects. International Journal of Psychology &amp; Psychological Therapy. [journal does not issue DOIs]</v>
       </c>
       <c r="D24">
@@ -4134,13 +4137,13 @@
         <v>32</v>
       </c>
       <c r="H24" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="I24" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="J24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K24" s="1">
         <v>44995</v>
@@ -4155,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
@@ -4166,7 +4169,7 @@
         <v>87</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="0"/>
+        <f>E25&amp;" ("&amp;D25&amp;") "&amp;F25&amp;". "&amp;G25&amp;". "&amp;H25</f>
         <v>Kavanagh, Deirdre; Roelandt, Adeline; Raemdonck, Lisa; Barnes-Holmes, Yvonne; Barnes-Holmes, Dermot; McEnteggart, Ciara (2019) The on-going search for perspective-taking IRAPs: Exploring the potential of the natural language-IRAP. The Psychological Record. 10.1007/s40732-019-00333-w</v>
       </c>
       <c r="D25">
@@ -4185,10 +4188,10 @@
         <v>90</v>
       </c>
       <c r="I25" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="J25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K25" s="1">
         <v>44995</v>
@@ -4203,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
@@ -4214,7 +4217,7 @@
         <v>221</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="0"/>
+        <f>E26&amp;" ("&amp;D26&amp;") "&amp;F26&amp;". "&amp;G26&amp;". "&amp;H26</f>
         <v>Leech, Aileen; Barnes-Holmes, Dermot (2022) Fear and avoidance: A three-day investigation on the impact of a fear-related verbal-rehearsal task on a behavior-behavior relation. The Psychological Record. 10.1007/s40732-021-00470-1</v>
       </c>
       <c r="D26">
@@ -4233,10 +4236,10 @@
         <v>223</v>
       </c>
       <c r="I26" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="J26" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="K26" s="1">
         <v>44999</v>
@@ -4251,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
@@ -4262,7 +4265,7 @@
         <v>83</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="0"/>
+        <f>E27&amp;" ("&amp;D27&amp;") "&amp;F27&amp;". "&amp;G27&amp;". "&amp;H27</f>
         <v>Leech, Aileen; Barnes-Holmes, Dermot (2020) Training and testing for a transformation of fear and avoidance functions via combinatorial entailment using the Implicit Relational Assessment Procedure (IRAP): Further exploratory analyses. Behavioural Processes. 10.1016/j.beproc.2019.104027</v>
       </c>
       <c r="D27">
@@ -4281,10 +4284,10 @@
         <v>86</v>
       </c>
       <c r="I27" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="J27" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="K27" s="1">
         <v>44999</v>
@@ -4299,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
@@ -4310,7 +4313,7 @@
         <v>45</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="0"/>
+        <f>E28&amp;" ("&amp;D28&amp;") "&amp;F28&amp;". "&amp;G28&amp;". "&amp;H28</f>
         <v>Leech, Aileen; Bouyrden, Jaber; Bruijsten, Nathalie; Barnes-Holmes, Dermot; McEnteggart, Ciara (2018) Training and testing for a transformation of fear and avoidance functions using the Implicit Relational Assessment Procedure: The first study. Behavioural Processes. 10.1016/j.beproc.2018.08.012</v>
       </c>
       <c r="D28">
@@ -4329,10 +4332,10 @@
         <v>49</v>
       </c>
       <c r="I28" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="J28" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="K28" s="1">
         <v>44999</v>
@@ -4347,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
@@ -4358,7 +4361,7 @@
         <v>161</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="0"/>
+        <f>E29&amp;" ("&amp;D29&amp;") "&amp;F29&amp;". "&amp;G29&amp;". "&amp;H29</f>
         <v>Pidgeon, Audrey; McEnteggart, Ciara; Harte, Colin; Barnes-Holmes, Dermot; Barnes-Holmes, Yvonne (2021) Four self-related IRAPs: Analyzing and interpreting effects in light of the DAARRE model. The Psychological Record. 10.1007/s40732-020-00428-9</v>
       </c>
       <c r="D29">
@@ -4377,10 +4380,10 @@
         <v>164</v>
       </c>
       <c r="I29" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="J29" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K29" s="1">
         <v>44995</v>
@@ -4395,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
@@ -4406,7 +4409,7 @@
         <v>199</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="0"/>
+        <f>E30&amp;" ("&amp;D30&amp;") "&amp;F30&amp;". "&amp;G30&amp;". "&amp;H30</f>
         <v>Scanlon, Geraldine; McEnteggart, Ciara; Barnes-Holmes, Yvonne (2020) Attitudes to pupils with EBD: An implicit approach. Emotional &amp; Behavioural Difficulties. 10.1080/13632752.2020.1729609</v>
       </c>
       <c r="D30">
@@ -4425,10 +4428,10 @@
         <v>202</v>
       </c>
       <c r="I30" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="J30" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K30" s="1">
         <v>44999</v>
@@ -4443,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
@@ -4454,7 +4457,7 @@
         <v>60</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="0"/>
+        <f>E31&amp;" ("&amp;D31&amp;") "&amp;F31&amp;". "&amp;G31&amp;". "&amp;H31</f>
         <v>Hernández-López, Monica; Quinones-Jimenez, Lourdes; Blanco-Romero, Alberto L.; Rodriguez-Valverde, Miguel (2021) Testing the discrepancy between actual and ideal body image with the Implicit Relational Assessment Procedure (IRAP). Journal of Eating Disorders. 10.1186/s40337-021-00434-4</v>
       </c>
       <c r="D31">
@@ -4473,10 +4476,10 @@
         <v>64</v>
       </c>
       <c r="I31" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J31" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K31" s="1">
         <v>44995</v>
@@ -4487,11 +4490,11 @@
       <c r="M31" t="b">
         <v>1</v>
       </c>
-      <c r="N31" t="b">
-        <v>0</v>
-      </c>
-      <c r="O31" t="s">
-        <v>294</v>
+      <c r="N31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
@@ -4502,7 +4505,7 @@
         <v>153</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="0"/>
+        <f>E32&amp;" ("&amp;D32&amp;") "&amp;F32&amp;". "&amp;G32&amp;". "&amp;H32</f>
         <v>Hernández-López, Mónica; Antequera-Rubio, Alba; Rodríguez-Valverde, Miguel (2019) Implicit attitudes to female body shape in Spanish women with high and low body dissatisfaction. Frontiers in Psychology. 10.3389/fpsyg.2019.02102</v>
       </c>
       <c r="D32">
@@ -4521,10 +4524,10 @@
         <v>156</v>
       </c>
       <c r="I32" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J32" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K32" s="1">
         <v>44995</v>
@@ -4535,11 +4538,11 @@
       <c r="M32" t="b">
         <v>1</v>
       </c>
-      <c r="N32" t="b">
-        <v>0</v>
-      </c>
-      <c r="O32" t="s">
-        <v>294</v>
+      <c r="N32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -4550,7 +4553,7 @@
         <v>145</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="0"/>
+        <f>E33&amp;" ("&amp;D33&amp;") "&amp;F33&amp;". "&amp;G33&amp;". "&amp;H33</f>
         <v>Schmidt, Margarete; de Rose, Julio C.; Bortoloti, Renato (2021) Relating, orienting and evoking functions in an IRAP study involving emotional pictographs (emojis) used in electronic messages. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2021.06.005</v>
       </c>
       <c r="D33">
@@ -4569,10 +4572,10 @@
         <v>148</v>
       </c>
       <c r="I33" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="J33" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K33" s="1">
         <v>44995</v>
@@ -4595,7 +4598,7 @@
         <v>111</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" ref="C34:C65" si="1">E34&amp;" ("&amp;D34&amp;") "&amp;F34&amp;". "&amp;G34&amp;". "&amp;H34</f>
+        <f>E34&amp;" ("&amp;D34&amp;") "&amp;F34&amp;". "&amp;G34&amp;". "&amp;H34</f>
         <v>Pinto, Joana Andrade Ramalho; de Almeida, Rodrigo Vianna; Bortoloti, Renato (2020) The stimulus’ orienting function may play an important role in IRAP performance: Supportive evidence from an eye-tracking study of brands. The Psychological Record. 10.1007/s40732-020-00378-2</v>
       </c>
       <c r="D34">
@@ -4614,10 +4617,10 @@
         <v>114</v>
       </c>
       <c r="I34" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="J34" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="K34" s="1">
         <v>45006</v>
@@ -4640,7 +4643,7 @@
         <v>129</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="1"/>
+        <f>E35&amp;" ("&amp;D35&amp;") "&amp;F35&amp;". "&amp;G35&amp;". "&amp;H35</f>
         <v>Moreira, Murilo; de Almeida, João H.; de Rose, Júlio C. (2021) The impact of career choice on the implicit gender–career bias among undergraduate Brazilian students. Behavior and Social Issues. 10.1007/s42822-021-00075-x</v>
       </c>
       <c r="D35">
@@ -4659,10 +4662,10 @@
         <v>132</v>
       </c>
       <c r="I35" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="J35" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K35" s="1">
         <v>44995</v>
@@ -4685,7 +4688,7 @@
         <v>157</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="1"/>
+        <f>E36&amp;" ("&amp;D36&amp;") "&amp;F36&amp;". "&amp;G36&amp;". "&amp;H36</f>
         <v>Perez, William F.; de Almeida, João Henrique; de Rose, Julio C.; Dorigon, Andrea H.; de Vasconcellos, Eduardo L.; da Silva, Marco A.; Lima, Najra D. P.; de Almeida, Roberta B. M.; Montan, Rodrigo N. M.; Barnes-Holmes, Dermot (2019) Implicit and explicit measures of transformation of function from facial expressions of fear and of happiness via equivalence relations. The Psychological Record. 10.1007/s40732-018-0304-1</v>
       </c>
       <c r="D36">
@@ -4704,10 +4707,10 @@
         <v>160</v>
       </c>
       <c r="I36" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="J36" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="K36" s="1">
         <v>45006</v>
@@ -4730,7 +4733,7 @@
         <v>182</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="1"/>
+        <f>E37&amp;" ("&amp;D37&amp;") "&amp;F37&amp;". "&amp;G37&amp;". "&amp;H37</f>
         <v>Bortoloti, Renato; de Almeida, Rodrigo Vianna; de Almeida, João Henrique; de Rose, Julio C. (2019) Emotional faces in symbolic relations: A happiness superiority effect involving the equivalence paradigm. Frontiers in Psychology. 10.3389/fpsyg.2019.00954</v>
       </c>
       <c r="D37">
@@ -4749,10 +4752,10 @@
         <v>185</v>
       </c>
       <c r="I37" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="J37" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="K37" s="1">
         <v>45006</v>
@@ -4775,7 +4778,7 @@
         <v>190</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="1"/>
+        <f>E38&amp;" ("&amp;D38&amp;") "&amp;F38&amp;". "&amp;G38&amp;". "&amp;H38</f>
         <v>Farrell, Lynn; Nearchou, Finiki; McHugh, Louise (2020) Examining the effectiveness of brief interventions to strengthen a positive implicit relation between women and STEM across two timepoints. Social Psychology of Education: An International Journal. 10.1007/s11218-020-09576-w</v>
       </c>
       <c r="D38">
@@ -4794,10 +4797,10 @@
         <v>194</v>
       </c>
       <c r="I38" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="J38" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K38" s="1">
         <v>44995</v>
@@ -4805,14 +4808,14 @@
       <c r="L38" t="b">
         <v>1</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="N38" t="b">
+      <c r="M38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38" s="2" t="b">
         <v>0</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
@@ -4823,7 +4826,7 @@
         <v>16</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="1"/>
+        <f>E39&amp;" ("&amp;D39&amp;") "&amp;F39&amp;". "&amp;G39&amp;". "&amp;H39</f>
         <v>Munnelly, Anita; Farrell, Lynn; O'Connor, Martin; McHugh, Louise (2018) Adolescents’ implicit and explicit attitudes toward cyberbullying: An exploratory study using the Implicit Relational Assessment Procedure (IRAP) and self-report measures. The Psychological Record. 10.1007/s40732-017-0261-0</v>
       </c>
       <c r="D39">
@@ -4842,10 +4845,10 @@
         <v>19</v>
       </c>
       <c r="I39" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="J39" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="K39" s="1">
         <v>44995</v>
@@ -4868,7 +4871,7 @@
         <v>168</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="1"/>
+        <f>E40&amp;" ("&amp;D40&amp;") "&amp;F40&amp;". "&amp;G40&amp;". "&amp;H40</f>
         <v>Farrell, Lynn; McHugh, Louise (2020) Exploring the relationship between implicit and explicit gender-STEM bias and behavior among STEM students using the Implicit Relational Assessment Procedure. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2019.12.008</v>
       </c>
       <c r="D40">
@@ -4887,10 +4890,10 @@
         <v>170</v>
       </c>
       <c r="I40" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="J40" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K40" s="1">
         <v>44995</v>
@@ -4898,14 +4901,14 @@
       <c r="L40" t="b">
         <v>1</v>
       </c>
-      <c r="M40" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="N40" t="b">
+      <c r="M40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" s="2" t="b">
         <v>0</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
@@ -4916,7 +4919,7 @@
         <v>50</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="1"/>
+        <f>E41&amp;" ("&amp;D41&amp;") "&amp;F41&amp;". "&amp;G41&amp;". "&amp;H41</f>
         <v>van der Kaap-Deeder, Jolene; De Houwer, Jan; Hughes, Sean; Spruyt, Adriaan; Vansteenkiste, Maarten (2018) The development and validation of an implicit measure of competence need satisfaction. Motivation and Emotion. 10.1007/s11031-018-9685-3</v>
       </c>
       <c r="D41">
@@ -4935,10 +4938,10 @@
         <v>54</v>
       </c>
       <c r="I41" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="J41" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="K41" s="1">
         <v>44999</v>
@@ -4961,7 +4964,7 @@
         <v>203</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="1"/>
+        <f>E42&amp;" ("&amp;D42&amp;") "&amp;F42&amp;". "&amp;G42&amp;". "&amp;H42</f>
         <v>Rafacz, Sharlet D.; Houmanfar, Ramona A.; Smith, Gregory S.; Levin, Michael E. (2019) Assessing the effects of motivative augmentals, pay-for-performance, and implicit verbal responding on cooperation. The Psychological Record. 10.1007/s40732-018-0324-x</v>
       </c>
       <c r="D42">
@@ -4980,10 +4983,10 @@
         <v>206</v>
       </c>
       <c r="I42" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="J42" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="K42" s="1">
         <v>45005</v>
@@ -5003,47 +5006,44 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>217</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="1"/>
-        <v>Drake, Chad E.; Primeaux, Sunni; Thomas, Jorden (2018) Comparing implicit gender stereotypes between women and men with the Implicit Relational Assessment Procedure. Gender Issues. 10.1007/s12147-017-9189-6</v>
+        <f>E43&amp;" ("&amp;D43&amp;") "&amp;F43&amp;". "&amp;G43&amp;". "&amp;H43</f>
+        <v>Michnevich, Twyla; Schmidt, Alexander F.; Scheunemann, Jakob; Moritz, Steffen; Miegel, Franziska; Jelinek, Lena (2021) Aggressiveness in patients with obsessive-compulsive disorder as assessed by the Implicit Relational Assessment Procedure. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2021.06.008</v>
       </c>
       <c r="D43">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>218</v>
       </c>
       <c r="F43" t="s">
-        <v>10</v>
+        <v>219</v>
       </c>
       <c r="G43" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="I43" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="J43" t="s">
-        <v>243</v>
-      </c>
-      <c r="K43" t="s">
-        <v>243</v>
-      </c>
-      <c r="L43" t="s">
-        <v>243</v>
-      </c>
-      <c r="M43" t="s">
-        <v>243</v>
-      </c>
-      <c r="N43" t="s">
-        <v>243</v>
-      </c>
-      <c r="O43" t="s">
-        <v>302</v>
+        <v>256</v>
+      </c>
+      <c r="K43" s="1">
+        <v>44995</v>
+      </c>
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="b">
+        <v>0</v>
+      </c>
+      <c r="N43" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
@@ -5051,47 +5051,44 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="1"/>
-        <v>Drake, Chad E.; Codd, R. Trent III; Terry, Christeine (2018) Assessing the validity of implicit and explicit measures of stigma toward clients with substance use disorders among mental health practitioners. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2018.03.005</v>
+        <f>E44&amp;" ("&amp;D44&amp;") "&amp;F44&amp;". "&amp;G44&amp;". "&amp;H44</f>
+        <v>Inoue, Kazuya; Shima, Taiki; Takahashi, Madoka; Lee, Steve K.; Ohtsuki, Tomu; Kumano, Hiroaki (2020) Reliability and validity of the Implicit Relational Assessment Procedure (IRAP) as a measure of Change Agenda. The Psychological Record. 10.1007/s40732-020-00416-z</v>
       </c>
       <c r="D44">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="E44" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="G44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H44" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="I44" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="J44" t="s">
-        <v>243</v>
-      </c>
-      <c r="K44" t="s">
-        <v>243</v>
-      </c>
-      <c r="L44" t="s">
-        <v>243</v>
-      </c>
-      <c r="M44" t="s">
-        <v>243</v>
-      </c>
-      <c r="N44" t="s">
-        <v>243</v>
-      </c>
-      <c r="O44" t="s">
-        <v>302</v>
+        <v>248</v>
+      </c>
+      <c r="K44" s="1">
+        <v>44995</v>
+      </c>
+      <c r="L44" t="b">
+        <v>1</v>
+      </c>
+      <c r="M44" t="b">
+        <v>1</v>
+      </c>
+      <c r="N44" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
@@ -5099,47 +5096,44 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="1"/>
-        <v>De Schryver, Maarten; Hussey, Ian; De Neve, Jan; Cartwright, Aoife; Barnes-Holmes, Dermot (2018) The PIIRAP: An alternative scoring algorithm for the IRAP using a probabilistic semiparametric effect size measure. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2018.01.001</v>
+        <f>E45&amp;" ("&amp;D45&amp;") "&amp;F45&amp;". "&amp;G45&amp;". "&amp;H45</f>
+        <v>Nasso, Selene; Vanderhasselt, Marie-Anne; De Raedt, Rudi (2020) Testing the neurocognitive framework for regulation expectation: The relationship between actual/ideal self-esteem and proactive/reactive autonomic stress regulation. Journal of Behavior Therapy and Experimental Psychiatry. 10.1016/j.jbtep.2020.101598</v>
       </c>
       <c r="D45">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="E45" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="G45" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H45" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="I45" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="J45" t="s">
-        <v>243</v>
-      </c>
-      <c r="K45" t="s">
-        <v>243</v>
-      </c>
-      <c r="L45" t="s">
-        <v>243</v>
-      </c>
-      <c r="M45" t="s">
-        <v>243</v>
-      </c>
-      <c r="N45" t="s">
-        <v>243</v>
-      </c>
-      <c r="O45" t="s">
-        <v>302</v>
+        <v>294</v>
+      </c>
+      <c r="K45" s="1">
+        <v>45006</v>
+      </c>
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
@@ -5147,32 +5141,32 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>217</v>
+        <v>123</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="1"/>
-        <v>Michnevich, Twyla; Schmidt, Alexander F.; Scheunemann, Jakob; Moritz, Steffen; Miegel, Franziska; Jelinek, Lena (2021) Aggressiveness in patients with obsessive-compulsive disorder as assessed by the Implicit Relational Assessment Procedure. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2021.06.008</v>
+        <f>E46&amp;" ("&amp;D46&amp;") "&amp;F46&amp;". "&amp;G46&amp;". "&amp;H46</f>
+        <v>Delgado, Eduardo M. Blasco; Cascalló, Aurembiaix Llobera; Sánchez, L. Jorge Ruiz; Carrasco, Jorge Villarroel (2019) Measuring the attitudes from Spanish and Catalan people toward Spanish and Catalan identity with the Implicit Relational Assessment Procedure. International Journal of Psychology &amp; Psychological Therapy. NA</v>
       </c>
       <c r="D46">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E46" t="s">
-        <v>218</v>
+        <v>124</v>
       </c>
       <c r="F46" t="s">
-        <v>219</v>
+        <v>125</v>
       </c>
       <c r="G46" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H46" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="I46" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J46" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="K46" s="1">
         <v>44995</v>
@@ -5192,44 +5186,44 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="1"/>
-        <v>Inoue, Kazuya; Shima, Taiki; Takahashi, Madoka; Lee, Steve K.; Ohtsuki, Tomu; Kumano, Hiroaki (2020) Reliability and validity of the Implicit Relational Assessment Procedure (IRAP) as a measure of Change Agenda. The Psychological Record. 10.1007/s40732-020-00416-z</v>
+        <f>E47&amp;" ("&amp;D47&amp;") "&amp;F47&amp;". "&amp;G47&amp;". "&amp;H47</f>
+        <v>Errasti, José; Martinez, Hugo; Rodriguez, Carmen; Marquez, Jennifer; Maldonado, Alejandro; Menendez, Alvaro (2019) Social context in a collective IRAP application about gender stereotypes: Mixed versus single gender groups. The Psychological Record. 10.1007/s40732-018-0320-1</v>
       </c>
       <c r="D47">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E47" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="F47" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="G47" t="s">
         <v>15</v>
       </c>
       <c r="H47" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="I47" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J47" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="K47" s="1">
         <v>44995</v>
       </c>
       <c r="L47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
@@ -5237,35 +5231,35 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="1"/>
-        <v>Nasso, Selene; Vanderhasselt, Marie-Anne; De Raedt, Rudi (2020) Testing the neurocognitive framework for regulation expectation: The relationship between actual/ideal self-esteem and proactive/reactive autonomic stress regulation. Journal of Behavior Therapy and Experimental Psychiatry. 10.1016/j.jbtep.2020.101598</v>
+        <f>E48&amp;" ("&amp;D48&amp;") "&amp;F48&amp;". "&amp;G48&amp;". "&amp;H48</f>
+        <v>Hong, Bao; Zhang, Lu; Sun, Hongri (2019) Measurement of the vertical spatial metaphor of power concepts using the Implicit Relational Assessment Procedure. Frontiers in Psychology. 10.3389/fpsyg.2019.01422</v>
       </c>
       <c r="D48">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E48" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="F48" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H48" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="I48" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="J48" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="K48" s="1">
-        <v>45006</v>
+        <v>44995</v>
       </c>
       <c r="L48" t="b">
         <v>0</v>
@@ -5282,35 +5276,35 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="1"/>
-        <v>Delgado, Eduardo M. Blasco; Cascalló, Aurembiaix Llobera; Sánchez, L. Jorge Ruiz; Carrasco, Jorge Villarroel (2019) Measuring the attitudes from Spanish and Catalan people toward Spanish and Catalan identity with the Implicit Relational Assessment Procedure. International Journal of Psychology &amp; Psychological Therapy. NA</v>
+        <f>E49&amp;" ("&amp;D49&amp;") "&amp;F49&amp;". "&amp;G49&amp;". "&amp;H49</f>
+        <v>Henklain, Marcelo H. O.; Haydu, Verônica Bender; Carmo, João S.; Muniz, Monalisa; Perez, William F. (2019) Expanding the evidence of content validity for the Teacher Behavior Checklist using the IRAP: TBC’s content validity using the IRAP. The Psychological Record. 10.1007/s40732-019-00334-9</v>
       </c>
       <c r="D49">
         <v>2019</v>
       </c>
       <c r="E49" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="F49" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="G49" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H49" t="s">
-        <v>243</v>
+        <v>177</v>
       </c>
       <c r="I49" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="J49" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="K49" s="1">
-        <v>44995</v>
+        <v>45006</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
@@ -5327,32 +5321,32 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>141</v>
+        <v>224</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="1"/>
-        <v>Errasti, José; Martinez, Hugo; Rodriguez, Carmen; Marquez, Jennifer; Maldonado, Alejandro; Menendez, Alvaro (2019) Social context in a collective IRAP application about gender stereotypes: Mixed versus single gender groups. The Psychological Record. 10.1007/s40732-018-0320-1</v>
+        <f>E50&amp;" ("&amp;D50&amp;") "&amp;F50&amp;". "&amp;G50&amp;". "&amp;H50</f>
+        <v>Glock, Sabine; Shevchuk, Anna; Kleen, Hannah (2022) Why Is Murat's achievement so low? Causal attributions and implicit attitudes toward ethnic minority students predict preservice teachers' judgments about achievement. Frontiers in Psychology. 10.3389/fpsyg.2022.819793</v>
       </c>
       <c r="D50">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="E50" t="s">
-        <v>142</v>
+        <v>225</v>
       </c>
       <c r="F50" t="s">
-        <v>143</v>
+        <v>226</v>
       </c>
       <c r="G50" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="H50" t="s">
-        <v>144</v>
+        <v>227</v>
       </c>
       <c r="I50" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J50" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="K50" s="1">
         <v>44995</v>
@@ -5372,44 +5366,47 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="1"/>
-        <v>Hong, Bao; Zhang, Lu; Sun, Hongri (2019) Measurement of the vertical spatial metaphor of power concepts using the Implicit Relational Assessment Procedure. Frontiers in Psychology. 10.3389/fpsyg.2019.01422</v>
+        <f>E51&amp;" ("&amp;D51&amp;") "&amp;F51&amp;". "&amp;G51&amp;". "&amp;H51</f>
+        <v>Simione, Luca; Vagni, Monia; Maiorano, Tiziana; Giostra, Valeria; Pajardi, Daniela (2022) How implicit attitudes toward vaccination affect vaccine hesitancy and behaviour: Developing and validating the V-IRAP. International Journal of Environmental Research and Public Health. 10.3390/ijerph19074205</v>
       </c>
       <c r="D51">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="E51" t="s">
-        <v>150</v>
+        <v>229</v>
       </c>
       <c r="F51" t="s">
-        <v>151</v>
+        <v>230</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>231</v>
       </c>
       <c r="H51" t="s">
-        <v>152</v>
+        <v>232</v>
       </c>
       <c r="I51" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J51" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="K51" s="1">
         <v>44995</v>
       </c>
       <c r="L51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" t="b">
-        <v>0</v>
-      </c>
-      <c r="N51" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
@@ -5417,35 +5414,35 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="1"/>
-        <v>Henklain, Marcelo H. O.; Haydu, Verônica Bender; Carmo, João S.; Muniz, Monalisa; Perez, William F. (2019) Expanding the evidence of content validity for the Teacher Behavior Checklist using the IRAP: TBC’s content validity using the IRAP. The Psychological Record. 10.1007/s40732-019-00334-9</v>
+        <f>E52&amp;" ("&amp;D52&amp;") "&amp;F52&amp;". "&amp;G52&amp;". "&amp;H52</f>
+        <v>Paliliunas, Dana; Frizell, Chynna B. (2021) Evaluation of college students’ implicit biases toward believability of claims of sexual harassment using the Implicit Relational Assessment Procedure (IRAP). Behavior and Social Issues. 10.1007/s42822-021-00061-3</v>
       </c>
       <c r="D52">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E52" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F52" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G52" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="H52" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="I52" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="J52" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="K52" s="1">
-        <v>45006</v>
+        <v>44995</v>
       </c>
       <c r="L52" t="b">
         <v>0</v>
@@ -5462,32 +5459,32 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="1"/>
-        <v>Glock, Sabine; Shevchuk, Anna; Kleen, Hannah (2022) Why Is Murat's achievement so low? Causal attributions and implicit attitudes toward ethnic minority students predict preservice teachers' judgments about achievement. Frontiers in Psychology. 10.3389/fpsyg.2022.819793</v>
+        <f>E53&amp;" ("&amp;D53&amp;") "&amp;F53&amp;". "&amp;G53&amp;". "&amp;H53</f>
+        <v>Cabrera, Isabel; Márquez-González, María; Kishita, Naoko; Vara-García, Carlos; Losada, Andrés (2021) Development and validation of an Implicit Relational Assessment Procedure (IRAP) to measure implicit dysfunctional beliefs about caregiving in dementia family caregivers. The Psychological Record. 10.1007/s40732-020-00445-8</v>
       </c>
       <c r="D53">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E53" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="F53" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H53" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="I53" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J53" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="K53" s="1">
         <v>44995</v>
@@ -5502,167 +5499,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>228</v>
-      </c>
-      <c r="C54" t="str">
-        <f t="shared" si="1"/>
-        <v>Simione, Luca; Vagni, Monia; Maiorano, Tiziana; Giostra, Valeria; Pajardi, Daniela (2022) How implicit attitudes toward vaccination affect vaccine hesitancy and behaviour: Developing and validating the V-IRAP. International Journal of Environmental Research and Public Health. 10.3390/ijerph19074205</v>
-      </c>
-      <c r="D54">
-        <v>2022</v>
-      </c>
-      <c r="E54" t="s">
-        <v>229</v>
-      </c>
-      <c r="F54" t="s">
-        <v>230</v>
-      </c>
-      <c r="G54" t="s">
-        <v>231</v>
-      </c>
-      <c r="H54" t="s">
-        <v>232</v>
-      </c>
-      <c r="I54" t="s">
-        <v>266</v>
-      </c>
-      <c r="J54" t="s">
-        <v>254</v>
-      </c>
-      <c r="K54" s="1">
-        <v>44995</v>
-      </c>
-      <c r="L54" t="b">
-        <v>1</v>
-      </c>
-      <c r="M54" t="b">
-        <v>1</v>
-      </c>
-      <c r="N54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O54" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>178</v>
-      </c>
-      <c r="C55" t="str">
-        <f t="shared" si="1"/>
-        <v>Paliliunas, Dana; Frizell, Chynna B. (2021) Evaluation of college students’ implicit biases toward believability of claims of sexual harassment using the Implicit Relational Assessment Procedure (IRAP). Behavior and Social Issues. 10.1007/s42822-021-00061-3</v>
-      </c>
-      <c r="D55">
-        <v>2021</v>
-      </c>
-      <c r="E55" t="s">
-        <v>179</v>
-      </c>
-      <c r="F55" t="s">
-        <v>180</v>
-      </c>
-      <c r="G55" t="s">
-        <v>43</v>
-      </c>
-      <c r="H55" t="s">
-        <v>181</v>
-      </c>
-      <c r="I55" t="s">
-        <v>266</v>
-      </c>
-      <c r="J55" t="s">
-        <v>253</v>
-      </c>
-      <c r="K55" s="1">
-        <v>44995</v>
-      </c>
-      <c r="L55" t="b">
-        <v>0</v>
-      </c>
-      <c r="M55" t="b">
-        <v>0</v>
-      </c>
-      <c r="N55" t="b">
-        <v>0</v>
+    <row r="55" spans="1:15" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L55" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>195</v>
-      </c>
-      <c r="C56" t="str">
-        <f t="shared" si="1"/>
-        <v>Cabrera, Isabel; Márquez-González, María; Kishita, Naoko; Vara-García, Carlos; Losada, Andrés (2021) Development and validation of an Implicit Relational Assessment Procedure (IRAP) to measure implicit dysfunctional beliefs about caregiving in dementia family caregivers. The Psychological Record. 10.1007/s40732-020-00445-8</v>
-      </c>
-      <c r="D56">
-        <v>2021</v>
-      </c>
-      <c r="E56" t="s">
-        <v>196</v>
-      </c>
-      <c r="F56" t="s">
-        <v>197</v>
-      </c>
-      <c r="G56" t="s">
-        <v>15</v>
-      </c>
-      <c r="H56" t="s">
-        <v>198</v>
-      </c>
-      <c r="I56" t="s">
-        <v>266</v>
-      </c>
-      <c r="J56" t="s">
-        <v>252</v>
-      </c>
-      <c r="K56" s="1">
-        <v>44995</v>
-      </c>
-      <c r="L56" t="b">
-        <v>0</v>
-      </c>
-      <c r="M56" t="b">
-        <v>0</v>
-      </c>
-      <c r="N56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="51" x14ac:dyDescent="0.2">
-      <c r="L58" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="M58" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="N58" s="5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="L59" s="4">
-        <f>AVERAGEA(L2:L56)</f>
-        <v>0.63636363636363635</v>
-      </c>
-      <c r="M59" s="4">
-        <f>AVERAGEA(M2:M56)</f>
-        <v>0.14545454545454545</v>
-      </c>
-      <c r="N59" s="4">
-        <f>AVERAGEA(N2:N56)</f>
-        <v>9.0909090909090912E-2</v>
+      <c r="L56" s="4">
+        <f>AVERAGEA(L2:L53)</f>
+        <v>0.67307692307692313</v>
+      </c>
+      <c r="M56" s="4">
+        <f>AVERAGEA(M2:M53)</f>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="N56" s="4">
+        <f>AVERAGEA(N2:N53)</f>
+        <v>9.6153846153846159E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5671,4 +5530,163 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A718DD-5579-AB44-9A16-5F2C3E5B6C5C}">
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="str">
+        <f>E1&amp;" ("&amp;D1&amp;") "&amp;F1&amp;". "&amp;G1&amp;". "&amp;H1</f>
+        <v>Drake, Chad E.; Primeaux, Sunni; Thomas, Jorden (2018) Comparing implicit gender stereotypes between women and men with the Implicit Relational Assessment Procedure. Gender Issues. 10.1007/s12147-017-9189-6</v>
+      </c>
+      <c r="D1">
+        <v>2018</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L1" t="s">
+        <v>241</v>
+      </c>
+      <c r="M1" t="s">
+        <v>241</v>
+      </c>
+      <c r="N1" t="s">
+        <v>241</v>
+      </c>
+      <c r="O1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="str">
+        <f>E2&amp;" ("&amp;D2&amp;") "&amp;F2&amp;". "&amp;G2&amp;". "&amp;H2</f>
+        <v>Drake, Chad E.; Codd, R. Trent III; Terry, Christeine (2018) Assessing the validity of implicit and explicit measures of stigma toward clients with substance use disorders among mental health practitioners. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2018.03.005</v>
+      </c>
+      <c r="D2">
+        <v>2018</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K2" t="s">
+        <v>241</v>
+      </c>
+      <c r="L2" t="s">
+        <v>241</v>
+      </c>
+      <c r="M2" t="s">
+        <v>241</v>
+      </c>
+      <c r="N2" t="s">
+        <v>241</v>
+      </c>
+      <c r="O2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="str">
+        <f>E3&amp;" ("&amp;D3&amp;") "&amp;F3&amp;". "&amp;G3&amp;". "&amp;H3</f>
+        <v>De Schryver, Maarten; Hussey, Ian; De Neve, Jan; Cartwright, Aoife; Barnes-Holmes, Dermot (2018) The PIIRAP: An alternative scoring algorithm for the IRAP using a probabilistic semiparametric effect size measure. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2018.01.001</v>
+      </c>
+      <c r="D3">
+        <v>2018</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>241</v>
+      </c>
+      <c r="J3" t="s">
+        <v>241</v>
+      </c>
+      <c r="K3" t="s">
+        <v>241</v>
+      </c>
+      <c r="L3" t="s">
+        <v>241</v>
+      </c>
+      <c r="M3" t="s">
+        <v>241</v>
+      </c>
+      <c r="N3" t="s">
+        <v>241</v>
+      </c>
+      <c r="O3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/requests for data/data requests.xlsx
+++ b/data/requests for data/data requests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ian/git/repository-of-published-irap-data/data/requests for data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9506662-865B-7541-B18F-7323A437A295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237F145C-5098-004F-AE04-D4C98EA94DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6760" yWindow="1720" windowWidth="31640" windowHeight="18980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="341">
   <si>
     <t>Key</t>
   </si>
@@ -828,9 +828,6 @@
     <t>multiple senior authors who I personally know</t>
   </si>
   <si>
-    <t>barnes-holmes, d; barnes-holmes, y, perez, bortoloti, de rose</t>
-  </si>
-  <si>
     <t>bast, de rose, bortoloti</t>
   </si>
   <si>
@@ -919,26 +916,6 @@
   </si>
   <si>
     <t>Vanderhasselt, De Raedt</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>"Anonymised data files are available from the first author upon request."</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ethical restrictions at kelly's institutions, murphy reports having no data from any studies.</t>
-    </r>
   </si>
   <si>
     <t>murphy; kelly; foody, Murphy</t>
@@ -998,6 +975,122 @@
   </si>
   <si>
     <t>reported they will share but it could take time</t>
+  </si>
+  <si>
+    <t>data sharing statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">despite data sharing statement specifying the first author, the first author did not reply to emails. </t>
+  </si>
+  <si>
+    <t>Despite data sharing statement, Kelly stated that the data was no longer available. ethical restrictions at kelly's institutions, murphy reports having no data from any studies.</t>
+  </si>
+  <si>
+    <t>Data and materials can be provided via e-mail to the first author or via ResearchGate</t>
+  </si>
+  <si>
+    <t>both first author, corresponding and senior authors</t>
+  </si>
+  <si>
+    <t>barnes-holmes, d; barnes-holmes, y, perez, bortoloti, de rose, gomes</t>
+  </si>
+  <si>
+    <t>data sharing statement adhered to</t>
+  </si>
+  <si>
+    <t>The datasets generated during and/or analyzed during the current study are available from the corresponding author on reasonable request. [kavanagh is corrisponding, email no longer works]</t>
+  </si>
+  <si>
+    <t>The data that support the findings of this study are available from the corresponding author. [cabrerea]</t>
+  </si>
+  <si>
+    <t>The data from the study are available from the corresponding author on reasonable request. [Paliliunas]</t>
+  </si>
+  <si>
+    <t>The datasets during and/or analyzed during the current study are available from the corresponding author on reasonable request. [leech]</t>
+  </si>
+  <si>
+    <t>The datasets analyzed during the current study are available from the corresponding author upon reasonable request. [harte]</t>
+  </si>
+  <si>
+    <t>The data that support the findings of this study are available on request from the corresponding author. [simione]</t>
+  </si>
+  <si>
+    <t>The datasets generated for this study are available on request to the corresponding author. [hernandez-lopez]</t>
+  </si>
+  <si>
+    <t>The raw data supporting the conclusions of this manuscript will be made available by the authors, without undue reservation, to any qualified researcher.</t>
+  </si>
+  <si>
+    <t>Anonymised data files are available from the first author upon request. [rice]</t>
+  </si>
+  <si>
+    <t>The datasets generated and/or analyzed during the current study are available from the corresponding author on reasonable request. [bast]</t>
+  </si>
+  <si>
+    <t>Data are available at https://www.researchgate.net/publication/346542029_careergender_study_data.</t>
+  </si>
+  <si>
+    <t>data obtained from researchgate link in article</t>
+  </si>
+  <si>
+    <t>All data generated or analyzed during this study are included in this article and its supplementary information files.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Contrary to data sharing statement, no supplementary files are available on the publishers site or linked to in the article. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ethical restrictions at kelly's institutions, murphy reports having no data from any studies</t>
+    </r>
+  </si>
+  <si>
+    <t>Data supporting the findings presented in this article can be found at https://osf.io/qnvbh/ and through doi:10. 17605/OSF.IO/QNVBH.</t>
+  </si>
+  <si>
+    <t>data sharing statement type</t>
+  </si>
+  <si>
+    <t>promissory</t>
+  </si>
+  <si>
+    <t>actual</t>
+  </si>
+  <si>
+    <t>All data and materials from the current studies are available upon request from Rachel Murphy.</t>
+  </si>
+  <si>
+    <t>All data and materials used in this study are available on request from the corresponding author. [carol murphy]</t>
+  </si>
+  <si>
+    <t>The datasets used and/or analysed during the current study are available from the corresponding author on reasonable request. [hernandez-lopez]</t>
+  </si>
+  <si>
+    <t>Note: The data supporting the conclusions of this manuscript will be made available upon request to the first author. [bortoloti]</t>
+  </si>
+  <si>
+    <t>The datasets generated during and/or analyzed during the current study are available from the corresponding author on reasonable request. [nolan]</t>
+  </si>
+  <si>
+    <t>adherence to data sharing</t>
+  </si>
+  <si>
+    <t>The raw data supporting the conclusions of this article will be  made available by the authors, without undue reservation. [glock corrisponding]</t>
+  </si>
+  <si>
+    <t>waiting for ethics advice</t>
   </si>
 </sst>
 </file>
@@ -1505,16 +1598,34 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="16" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2996,8 +3107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647F9036-BD7F-8941-AAC0-FD3B8EC13872}">
   <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I23" zoomScale="119" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="J34" zoomScale="119" workbookViewId="0">
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3013,2520 +3124,3032 @@
     <col min="12" max="12" width="14.5" customWidth="1"/>
     <col min="13" max="13" width="31.6640625" customWidth="1"/>
     <col min="14" max="14" width="11.1640625" customWidth="1"/>
-    <col min="15" max="15" width="42.6640625" customWidth="1"/>
-    <col min="16" max="16" width="14.83203125" customWidth="1"/>
+    <col min="15" max="15" width="50.1640625" customWidth="1"/>
+    <col min="16" max="16" width="44" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="L1" t="s">
-        <v>304</v>
-      </c>
-      <c r="M1" t="s">
-        <v>306</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="O1" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="O1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="P1" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="5" t="str">
         <f>E2&amp;" ("&amp;D2&amp;") "&amp;F2&amp;". "&amp;G2&amp;". "&amp;H2</f>
         <v>Murphy, Carol; Maloney, Emma; Kelly, Michelle (2022) The role of relational contextual cues versus relational coherence indicators as response options on the Implicit Relational Assessment Procedure. The Psychological Record. 10.1007/s40732-022-00512-2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <v>2022</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="J2" t="s">
-        <v>291</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="J2" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="K2" s="7">
         <v>44995</v>
       </c>
-      <c r="L2" t="b">
+      <c r="L2" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="M2" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q2" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3" s="5" t="str">
         <f>E3&amp;" ("&amp;D3&amp;") "&amp;F3&amp;". "&amp;G3&amp;". "&amp;H3</f>
         <v>Nolan, Conor; Murphy, Carol; Kelly, Michelle (2022) Using the IRAP to investigate gender biases towards ADHD and anxiety. The Psychological Record. 10.1007/s40732-021-00474-x</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>2022</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="I3" t="s">
-        <v>275</v>
-      </c>
-      <c r="J3" t="s">
-        <v>298</v>
-      </c>
-      <c r="K3" s="1">
+      <c r="I3" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="K3" s="7">
         <v>45008</v>
       </c>
-      <c r="L3" t="b">
+      <c r="L3" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="M3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" s="5" t="str">
         <f>E4&amp;" ("&amp;D4&amp;") "&amp;F4&amp;". "&amp;G4&amp;". "&amp;H4</f>
         <v>Murphy, Rachel; Murphy, Carol; Kelly, Michelle; Roche, Bryan (2021) Using the Implicit Relational Assessment Procedure (IRAP) to examine implicit beauty bias in the context of employability. The Psychological Record. 10.1007/s40732-020-00427-w</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>2021</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="I4" t="s">
-        <v>275</v>
-      </c>
-      <c r="J4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K4" s="1">
-        <v>45008</v>
-      </c>
-      <c r="L4" t="b">
+      <c r="I4" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="K4" s="7">
+        <v>45006</v>
+      </c>
+      <c r="L4" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="M4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" s="5" t="str">
         <f>E5&amp;" ("&amp;D5&amp;") "&amp;F5&amp;". "&amp;G5&amp;". "&amp;H5</f>
         <v>Curtis, Aisling; Foody, Mairéad; Kelly, Michelle; Murphy, Carol (2020) Using the Implicit Relational Assessment Procedure to explore students’ implicit age discrimination of toxic versus innocuous phrases. International Journal of Psychology &amp; Psychological Therapy. NA</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>2020</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H5" t="s">
-        <v>241</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="H5" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="7">
         <v>44995</v>
       </c>
-      <c r="L5" t="b">
+      <c r="L5" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M5" t="b">
+      <c r="M5" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="N5" t="b">
+      <c r="N5" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="O5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="O5" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="P5" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6" s="5" t="str">
         <f>E6&amp;" ("&amp;D6&amp;") "&amp;F6&amp;". "&amp;G6&amp;". "&amp;H6</f>
         <v>Kane, Alan; Murphy, Carol; Kelly, Michelle (2020) Assessing implicit and explicit dementia stigma in young adults and care-workers. Dementia: The International Journal of Social Research and Practice. 10.1177/1471301218804727</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>2020</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="7">
         <v>44995</v>
       </c>
-      <c r="L6" t="b">
+      <c r="L6" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="M6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="P6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7" s="5" t="str">
         <f>E7&amp;" ("&amp;D7&amp;") "&amp;F7&amp;". "&amp;G7&amp;". "&amp;H7</f>
         <v>Rice, Hannah; Murphy, Carol; Nolan, Conor; Kelly, Michelle (2020) Measuring implicit attractiveness bias in the context of innocence and guilt evaluations. International Journal of Psychology &amp; Psychological Therapy. NA</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>2020</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H7" t="s">
-        <v>241</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="H7" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="7">
         <v>44995</v>
       </c>
-      <c r="L7" t="b">
+      <c r="L7" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="M7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8" s="5" t="str">
         <f>E8&amp;" ("&amp;D8&amp;") "&amp;F8&amp;". "&amp;G8&amp;". "&amp;H8</f>
         <v>Maloney, Emma; Foody, Mairéad; Murphy, Carol (2020) Do response options in the Implicit Relational Assessment Procedure (IRAP) matter? A comparison of contextual relations versus relational coherent indicators. The Psychological Record. 10.1007/s40732-019-00360-7</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>2020</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="J8" t="s">
-        <v>291</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="J8" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="K8" s="7">
         <v>44995</v>
       </c>
-      <c r="L8" t="b">
+      <c r="L8" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="M8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9" s="5" t="str">
         <f>E9&amp;" ("&amp;D9&amp;") "&amp;F9&amp;". "&amp;G9&amp;". "&amp;H9</f>
         <v>Was, Margaret; Foody, Mairéad; Murphy, Carol (2019) Using the Implicit Relational Assessment Procedure (IRAP) to investigate attractiveness bias in the domain of employability. International Journal of Psychology &amp; Psychological Therapy. NA</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <v>2019</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H9" t="s">
-        <v>241</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="H9" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="7">
         <v>44995</v>
       </c>
-      <c r="L9" t="b">
+      <c r="L9" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" t="b">
-        <v>0</v>
-      </c>
-      <c r="O9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="M9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="P9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10" s="5" t="str">
         <f>E10&amp;" ("&amp;D10&amp;") "&amp;F10&amp;". "&amp;G10&amp;". "&amp;H10</f>
         <v>Pennie, Brian; Kelly, Michelle E. (2018) An examination of generalised implicit biases towards ‘wanting more’ as a proxy measure of materialistic behaviour: A Relational Frame Theory (RFT) perspective. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2018.02.004</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="8">
         <v>2018</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="K10" s="1">
+      <c r="J10" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="K10" s="7">
         <v>45008</v>
       </c>
-      <c r="L10" t="b">
+      <c r="L10" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
-      </c>
-      <c r="N10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="M10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="P10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11" s="5" t="str">
         <f>E11&amp;" ("&amp;D11&amp;") "&amp;F11&amp;". "&amp;G11&amp;". "&amp;H11</f>
         <v>Fleming, Katie; Foody, Mairead; Murphy, Carol (2020) Using the Implicit Relational Assessment Procedure (IRAP) to examine implicit gender stereotypes in science, technology, engineering and maths (STEM). The Psychological Record. 10.1007/s40732-020-00401-6</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>2020</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="7">
         <v>44995</v>
       </c>
-      <c r="L11" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" t="b">
-        <v>0</v>
-      </c>
-      <c r="N11" t="b">
-        <v>0</v>
-      </c>
-      <c r="O11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="L11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12" s="5" t="str">
         <f>E12&amp;" ("&amp;D12&amp;") "&amp;F12&amp;". "&amp;G12&amp;". "&amp;H12</f>
         <v>Bast, Diana Ferroni; Lyons, Christina; Stewart, Ian; Connor, Thomas; Kelly, Michelle; Goyos, Celso (2020) The effect of educational messages on implicit and explicit attitudes towards individuals on the autism spectrum versus normally developing individuals. The Psychological Record. 10.1007/s40732-019-00363-4</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>2020</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="7">
         <v>44995</v>
       </c>
-      <c r="L12" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" t="b">
-        <v>0</v>
-      </c>
-      <c r="N12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="L12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5"/>
+      <c r="P12" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C13" s="5" t="str">
         <f>E13&amp;" ("&amp;D13&amp;") "&amp;F13&amp;". "&amp;G13&amp;". "&amp;H13</f>
         <v>Ferroni-Bast, Diana; Fitzpatrick, Jane; Stewart, Ian; Goyos, Celso (2019) Using the Implicit Relational Assessment Procedure (IRAP) as a measure of reaction to perceived failure and the effects of a defusion intervention in this context. The Psychological Record. 10.1007/s40732-019-00349-2</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="5">
         <v>2019</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="7">
         <v>44995</v>
       </c>
-      <c r="L13" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" t="b">
-        <v>0</v>
-      </c>
-      <c r="N13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="L13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5"/>
+      <c r="P13" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C14" s="5" t="str">
         <f>E14&amp;" ("&amp;D14&amp;") "&amp;F14&amp;". "&amp;G14&amp;". "&amp;H14</f>
         <v>Rezende, Mauro Carvalho; Bast, Diana Ferroni; Huziwara, Edson Massayuki; Bortoloti, Renato (2021) The Implicit Relational Assessment Procedure as a measure of hopelessness in the elderly: An exploratory study. The Psychological Record. 10.1007/s40732-020-00406-1</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="5">
         <v>2021</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="J14" t="s">
-        <v>265</v>
-      </c>
-      <c r="K14" s="1">
+      <c r="J14" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="K14" s="7">
         <v>44995</v>
       </c>
-      <c r="L14" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" t="b">
-        <v>0</v>
-      </c>
-      <c r="N14" t="b">
-        <v>0</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="L14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="P14" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C15" s="5" t="str">
         <f>E15&amp;" ("&amp;D15&amp;") "&amp;F15&amp;". "&amp;G15&amp;". "&amp;H15</f>
         <v>Alasiri, Eman; Bast, Diana; Kolts, Russell L. (2019) Using the Implicit Relational Assessment Procedure (IRAP) to explore common humanity as a dimension of self-compassion. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2019.09.004</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="5">
         <v>2019</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="J15" t="s">
-        <v>289</v>
-      </c>
-      <c r="K15" s="1">
+      <c r="J15" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="K15" s="7">
         <v>45006</v>
       </c>
-      <c r="L15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" t="b">
-        <v>0</v>
-      </c>
-      <c r="N15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="L15" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" s="5"/>
+      <c r="P15" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C16" s="5" t="str">
         <f>E16&amp;" ("&amp;D16&amp;") "&amp;F16&amp;". "&amp;G16&amp;". "&amp;H16</f>
         <v>Dunne, Ciara; McEnteggart, Ciara; Harte, Colin; Barnes-Holmes, Dermot; Barnes-Holmes, Yvonne (2018) Faking a race IRAP effect in the context of single versus multiple label stimuli. International Journal of Psychology &amp; Psychological Therapy. [journal does not issue DOIs]</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="5">
         <v>2018</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="7">
         <v>44995</v>
       </c>
-      <c r="L16" t="b">
+      <c r="L16" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
-      </c>
-      <c r="N16" t="b">
-        <v>0</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="M16" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" s="5" t="s">
         <v>258</v>
       </c>
+      <c r="P16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C17" s="5" t="str">
         <f>E17&amp;" ("&amp;D17&amp;") "&amp;F17&amp;". "&amp;G17&amp;". "&amp;H17</f>
         <v>Finn, Martin; Barnes-Holmes, Dermot; McEnteggart, Ciara (2018) Exploring the single-trial-type-dominance-effect in the IRAP: Developing a differential arbitrarily applicable relational responding effects (DAARRE) model. The Psychological Record. 10.1007/s40732-017-0262-z</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="5">
         <v>2018</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="J17" t="s">
-        <v>267</v>
-      </c>
-      <c r="K17" s="1">
+      <c r="J17" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="K17" s="7">
         <v>44995</v>
       </c>
-      <c r="L17" t="b">
+      <c r="L17" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
-      </c>
-      <c r="N17" t="b">
-        <v>0</v>
-      </c>
-      <c r="O17" t="s">
-        <v>269</v>
+      <c r="M17" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="P17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C18" s="5" t="str">
         <f>E18&amp;" ("&amp;D18&amp;") "&amp;F18&amp;". "&amp;G18&amp;". "&amp;H18</f>
         <v>Finn, Martin; Barnes-Holmes, Dermot; McEnteggart, Ciara; Kavanagh, Deirdre (2019) Predicting and influencing the single-trial-type-dominance-effect: The first study. The Psychological Record. 10.1007/s40732-019-00347-4</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="5">
         <v>2019</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="J18" t="s">
-        <v>267</v>
-      </c>
-      <c r="K18" s="1">
+      <c r="J18" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="K18" s="7">
         <v>44995</v>
       </c>
-      <c r="L18" t="b">
+      <c r="L18" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
-      </c>
-      <c r="N18" t="b">
-        <v>0</v>
-      </c>
-      <c r="O18" t="s">
-        <v>269</v>
+      <c r="M18" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="P18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="19" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C19" s="5" t="str">
         <f>E19&amp;" ("&amp;D19&amp;") "&amp;F19&amp;". "&amp;G19&amp;". "&amp;H19</f>
         <v>Gomes, Cainã T.; Perez, William F.; de Almeida, João Henrique; Ribeiro, Arthur; de Rose, Julio C.; Barnes-Holmes, Dermot (2019) Assessing a derived transformation of functions using the Implicit Relational Assessment Procedure under three motivative conditions. The Psychological Record. 10.1007/s40732-019-00353-6</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="5">
         <v>2019</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="I19" t="s">
-        <v>261</v>
-      </c>
-      <c r="J19" t="s">
-        <v>264</v>
-      </c>
-      <c r="K19" s="1">
-        <v>44995</v>
-      </c>
-      <c r="L19" t="b">
+      <c r="I19" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="K19" s="7">
+        <v>45007</v>
+      </c>
+      <c r="L19" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N19" t="b">
-        <v>0</v>
-      </c>
-      <c r="O19" t="s">
-        <v>270</v>
+      <c r="M19" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q19" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>331</v>
       </c>
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C20" s="5" t="str">
         <f>E20&amp;" ("&amp;D20&amp;") "&amp;F20&amp;". "&amp;G20&amp;". "&amp;H20</f>
         <v xml:space="preserve">Hendriks, Annemieke L.; McEnteggart, Ciara; Barnes-Holmes, Yvonne; De Mey, Hubert R. A.; Witteman, Cilia L. M.; Janssen, Gwenny T. L.; Egger, Jos I. M. (2020) Assessing deictic relational responding in psychosis using the Implicit Relational Assessment Procedure. International Journal of Psychology &amp; Psychological Therapy. </v>
       </c>
-      <c r="D20">
+      <c r="D20" s="5">
         <v>2020</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I20" t="s">
+      <c r="H20" s="5"/>
+      <c r="I20" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="J20" t="s">
-        <v>268</v>
-      </c>
-      <c r="K20" s="1">
+      <c r="J20" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="K20" s="7">
         <v>45005</v>
       </c>
-      <c r="L20" t="b">
+      <c r="L20" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
-      </c>
-      <c r="N20" t="b">
-        <v>0</v>
-      </c>
-      <c r="O20" t="s">
-        <v>271</v>
+      <c r="M20" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="P20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C21" s="5" t="str">
         <f>E21&amp;" ("&amp;D21&amp;") "&amp;F21&amp;". "&amp;G21&amp;". "&amp;H21</f>
         <v>Hendriks, Annemieke L.; McEnteggart, Ciara; Barnes-Holmes, Yvonne; Veltmaat, Anouk; De Mey, Hubert R. A.; Witteman, Cilia L. M.; Janssen, Gwenny T. L.; Egger, Jos I. M. (2020) Assessing deictic relational responding in social anxiety using the Implicit Relational Assessment Procedure. International Journal of Psychology &amp; Psychological Therapy. [journal does not issue DOIs]</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="5">
         <v>2020</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="J21" t="s">
-        <v>268</v>
-      </c>
-      <c r="K21" s="1">
+      <c r="J21" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="K21" s="7">
         <v>45005</v>
       </c>
-      <c r="L21" t="b">
+      <c r="L21" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
-      </c>
-      <c r="N21" t="b">
-        <v>0</v>
-      </c>
-      <c r="O21" t="s">
-        <v>271</v>
+      <c r="M21" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="P21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="22" spans="1:19" ht="68" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C22" s="5" t="str">
         <f>E22&amp;" ("&amp;D22&amp;") "&amp;F22&amp;". "&amp;G22&amp;". "&amp;H22</f>
         <v>Kavanagh, Deirdre; Barnes-Holmes, Yvonne; Barnes-Holmes, Dermot (2022) Attempting to analyze perspective-taking with a false belief vignette using the Implicit Relational Assessment Procedure. The Psychological Record. 10.1007/s40732-021-00500-y</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="5">
         <v>2022</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="7">
         <v>44995</v>
       </c>
-      <c r="L22" t="b">
+      <c r="L22" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
-      </c>
-      <c r="N22" t="b">
-        <v>0</v>
-      </c>
-      <c r="O22" t="s">
-        <v>290</v>
+      <c r="M22" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q22" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C23" s="5" t="str">
         <f>E23&amp;" ("&amp;D23&amp;") "&amp;F23&amp;". "&amp;G23&amp;". "&amp;H23</f>
         <v>Kavanagh, Deirdre; Barnes-Holmes, Yvonne; Barnes-Holmes, Dermot; McEnteggart, Ciara; Finn, Martin (2018) Exploring differential trial-type effects and the impact of a read-aloud procedure on deictic relational responding on the IRAP. The Psychological Record. 10.1007/s40732-018-0276-1</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="5">
         <v>2018</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="7">
         <v>44995</v>
       </c>
-      <c r="L23" t="b">
+      <c r="L23" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
-      </c>
-      <c r="N23" t="b">
-        <v>0</v>
-      </c>
-      <c r="O23" t="s">
-        <v>290</v>
+      <c r="M23" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="P23" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C24" t="str">
+      <c r="C24" s="5" t="str">
         <f>E24&amp;" ("&amp;D24&amp;") "&amp;F24&amp;". "&amp;G24&amp;". "&amp;H24</f>
         <v>Kavanagh, Deirdre; Matthyssen, Nele; Barnes-Holmes, Yvonne; Barnes-Holmes, Dermot; McEnteggart, Ciara; Vastano, Roberta (2019) Exploring the use of pictures of self and other in the IRAP: Reflecting upon the emergence of differential trial type effects. International Journal of Psychology &amp; Psychological Therapy. [journal does not issue DOIs]</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="5">
         <v>2019</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="7">
         <v>44995</v>
       </c>
-      <c r="L24" t="b">
+      <c r="L24" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
-      </c>
-      <c r="N24" t="b">
-        <v>0</v>
-      </c>
-      <c r="O24" t="s">
-        <v>290</v>
+      <c r="M24" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="P24" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C25" t="str">
+      <c r="C25" s="5" t="str">
         <f>E25&amp;" ("&amp;D25&amp;") "&amp;F25&amp;". "&amp;G25&amp;". "&amp;H25</f>
         <v>Kavanagh, Deirdre; Roelandt, Adeline; Raemdonck, Lisa; Barnes-Holmes, Yvonne; Barnes-Holmes, Dermot; McEnteggart, Ciara (2019) The on-going search for perspective-taking IRAPs: Exploring the potential of the natural language-IRAP. The Psychological Record. 10.1007/s40732-019-00333-w</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="5">
         <v>2019</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="7">
         <v>44995</v>
       </c>
-      <c r="L25" t="b">
+      <c r="L25" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
-      </c>
-      <c r="N25" t="b">
-        <v>0</v>
-      </c>
-      <c r="O25" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="M25" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="P25" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C26" s="5" t="str">
         <f>E26&amp;" ("&amp;D26&amp;") "&amp;F26&amp;". "&amp;G26&amp;". "&amp;H26</f>
         <v>Leech, Aileen; Barnes-Holmes, Dermot (2022) Fear and avoidance: A three-day investigation on the impact of a fear-related verbal-rehearsal task on a behavior-behavior relation. The Psychological Record. 10.1007/s40732-021-00470-1</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="5">
         <v>2022</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="K26" s="7">
+        <v>44999</v>
+      </c>
+      <c r="L26" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O26" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="K26" s="1">
-        <v>44999</v>
-      </c>
-      <c r="L26" t="b">
-        <v>1</v>
-      </c>
-      <c r="M26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N26" t="b">
-        <v>0</v>
-      </c>
-      <c r="O26" t="s">
-        <v>283</v>
+      <c r="P26" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q26" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C27" s="5" t="str">
         <f>E27&amp;" ("&amp;D27&amp;") "&amp;F27&amp;". "&amp;G27&amp;". "&amp;H27</f>
         <v>Leech, Aileen; Barnes-Holmes, Dermot (2020) Training and testing for a transformation of fear and avoidance functions via combinatorial entailment using the Implicit Relational Assessment Procedure (IRAP): Further exploratory analyses. Behavioural Processes. 10.1016/j.beproc.2019.104027</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="5">
         <v>2020</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="K27" s="7">
+        <v>44999</v>
+      </c>
+      <c r="L27" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O27" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="K27" s="1">
-        <v>44999</v>
-      </c>
-      <c r="L27" t="b">
-        <v>1</v>
-      </c>
-      <c r="M27" t="b">
-        <v>0</v>
-      </c>
-      <c r="N27" t="b">
-        <v>0</v>
-      </c>
-      <c r="O27" t="s">
-        <v>283</v>
+      <c r="P27" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C28" s="5" t="str">
         <f>E28&amp;" ("&amp;D28&amp;") "&amp;F28&amp;". "&amp;G28&amp;". "&amp;H28</f>
         <v>Leech, Aileen; Bouyrden, Jaber; Bruijsten, Nathalie; Barnes-Holmes, Dermot; McEnteggart, Ciara (2018) Training and testing for a transformation of fear and avoidance functions using the Implicit Relational Assessment Procedure: The first study. Behavioural Processes. 10.1016/j.beproc.2018.08.012</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="5">
         <v>2018</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="K28" s="7">
+        <v>44999</v>
+      </c>
+      <c r="L28" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O28" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="K28" s="1">
-        <v>44999</v>
-      </c>
-      <c r="L28" t="b">
-        <v>1</v>
-      </c>
-      <c r="M28" t="b">
-        <v>0</v>
-      </c>
-      <c r="N28" t="b">
-        <v>0</v>
-      </c>
-      <c r="O28" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="P28" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C29" s="5" t="str">
         <f>E29&amp;" ("&amp;D29&amp;") "&amp;F29&amp;". "&amp;G29&amp;". "&amp;H29</f>
         <v>Pidgeon, Audrey; McEnteggart, Ciara; Harte, Colin; Barnes-Holmes, Dermot; Barnes-Holmes, Yvonne (2021) Four self-related IRAPs: Analyzing and interpreting effects in light of the DAARRE model. The Psychological Record. 10.1007/s40732-020-00428-9</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="5">
         <v>2021</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="7">
         <v>44995</v>
       </c>
-      <c r="L29" t="b">
+      <c r="L29" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
-      </c>
-      <c r="N29" t="b">
-        <v>0</v>
-      </c>
-      <c r="O29" t="s">
+      <c r="M29" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O29" s="5" t="s">
         <v>258</v>
       </c>
+      <c r="P29" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q29" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C30" t="str">
+      <c r="C30" s="5" t="str">
         <f>E30&amp;" ("&amp;D30&amp;") "&amp;F30&amp;". "&amp;G30&amp;". "&amp;H30</f>
         <v>Scanlon, Geraldine; McEnteggart, Ciara; Barnes-Holmes, Yvonne (2020) Attitudes to pupils with EBD: An implicit approach. Emotional &amp; Behavioural Difficulties. 10.1080/13632752.2020.1729609</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="5">
         <v>2020</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="7">
         <v>44999</v>
       </c>
-      <c r="L30" t="b">
+      <c r="L30" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
-      </c>
-      <c r="N30" t="b">
-        <v>0</v>
-      </c>
-      <c r="O30" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="M30" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="P30" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C31" t="str">
+      <c r="C31" s="5" t="str">
         <f>E31&amp;" ("&amp;D31&amp;") "&amp;F31&amp;". "&amp;G31&amp;". "&amp;H31</f>
         <v>Hernández-López, Monica; Quinones-Jimenez, Lourdes; Blanco-Romero, Alberto L.; Rodriguez-Valverde, Miguel (2021) Testing the discrepancy between actual and ideal body image with the Implicit Relational Assessment Procedure (IRAP). Journal of Eating Disorders. 10.1186/s40337-021-00434-4</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="5">
         <v>2021</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="7">
         <v>44995</v>
       </c>
-      <c r="L31" t="b">
+      <c r="L31" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M31" t="b">
+      <c r="M31" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="N31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="N31" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q31" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C32" t="str">
+      <c r="C32" s="5" t="str">
         <f>E32&amp;" ("&amp;D32&amp;") "&amp;F32&amp;". "&amp;G32&amp;". "&amp;H32</f>
         <v>Hernández-López, Mónica; Antequera-Rubio, Alba; Rodríguez-Valverde, Miguel (2019) Implicit attitudes to female body shape in Spanish women with high and low body dissatisfaction. Frontiers in Psychology. 10.3389/fpsyg.2019.02102</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="5">
         <v>2019</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="7">
         <v>44995</v>
       </c>
-      <c r="L32" t="b">
+      <c r="L32" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M32" t="b">
+      <c r="M32" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="N32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="N32" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O32" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q32" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C33" t="str">
+      <c r="C33" s="5" t="str">
         <f>E33&amp;" ("&amp;D33&amp;") "&amp;F33&amp;". "&amp;G33&amp;". "&amp;H33</f>
         <v>Schmidt, Margarete; de Rose, Julio C.; Bortoloti, Renato (2021) Relating, orienting and evoking functions in an IRAP study involving emotional pictographs (emojis) used in electronic messages. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2021.06.005</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="5">
         <v>2021</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="7">
         <v>44995</v>
       </c>
-      <c r="L33" t="b">
-        <v>0</v>
-      </c>
-      <c r="M33" t="b">
-        <v>0</v>
-      </c>
-      <c r="N33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="L33" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N33" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O33" s="5"/>
+      <c r="P33" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C34" t="str">
+      <c r="C34" s="5" t="str">
         <f>E34&amp;" ("&amp;D34&amp;") "&amp;F34&amp;". "&amp;G34&amp;". "&amp;H34</f>
         <v>Pinto, Joana Andrade Ramalho; de Almeida, Rodrigo Vianna; Bortoloti, Renato (2020) The stimulus’ orienting function may play an important role in IRAP performance: Supportive evidence from an eye-tracking study of brands. The Psychological Record. 10.1007/s40732-020-00378-2</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="5">
         <v>2020</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="J34" t="s">
-        <v>278</v>
-      </c>
-      <c r="K34" s="1">
+      <c r="J34" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="K34" s="7">
         <v>45006</v>
       </c>
-      <c r="L34" t="b">
+      <c r="L34" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M34" t="b">
+      <c r="M34" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="N34" t="b">
+      <c r="N34" s="5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="O34" s="5"/>
+      <c r="P34" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q34" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C35" t="str">
+      <c r="C35" s="5" t="str">
         <f>E35&amp;" ("&amp;D35&amp;") "&amp;F35&amp;". "&amp;G35&amp;". "&amp;H35</f>
         <v>Moreira, Murilo; de Almeida, João H.; de Rose, Júlio C. (2021) The impact of career choice on the implicit gender–career bias among undergraduate Brazilian students. Behavior and Social Issues. 10.1007/s42822-021-00075-x</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="5">
         <v>2021</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35" s="7">
         <v>44995</v>
       </c>
-      <c r="L35" t="b">
-        <v>0</v>
-      </c>
-      <c r="M35" t="b">
-        <v>0</v>
-      </c>
-      <c r="N35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="L35" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N35" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O35" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q35" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C36" t="str">
+      <c r="C36" s="5" t="str">
         <f>E36&amp;" ("&amp;D36&amp;") "&amp;F36&amp;". "&amp;G36&amp;". "&amp;H36</f>
         <v>Perez, William F.; de Almeida, João Henrique; de Rose, Julio C.; Dorigon, Andrea H.; de Vasconcellos, Eduardo L.; da Silva, Marco A.; Lima, Najra D. P.; de Almeida, Roberta B. M.; Montan, Rodrigo N. M.; Barnes-Holmes, Dermot (2019) Implicit and explicit measures of transformation of function from facial expressions of fear and of happiness via equivalence relations. The Psychological Record. 10.1007/s40732-018-0304-1</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="5">
         <v>2019</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="J36" t="s">
-        <v>279</v>
-      </c>
-      <c r="K36" s="1">
+      <c r="J36" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="K36" s="7">
         <v>45006</v>
       </c>
-      <c r="L36" t="b">
-        <v>0</v>
-      </c>
-      <c r="M36" t="b">
-        <v>0</v>
-      </c>
-      <c r="N36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="L36" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O36" s="5"/>
+      <c r="P36" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C37" t="str">
+      <c r="C37" s="5" t="str">
         <f>E37&amp;" ("&amp;D37&amp;") "&amp;F37&amp;". "&amp;G37&amp;". "&amp;H37</f>
         <v>Bortoloti, Renato; de Almeida, Rodrigo Vianna; de Almeida, João Henrique; de Rose, Julio C. (2019) Emotional faces in symbolic relations: A happiness superiority effect involving the equivalence paradigm. Frontiers in Psychology. 10.3389/fpsyg.2019.00954</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="5">
         <v>2019</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="J37" t="s">
-        <v>280</v>
-      </c>
-      <c r="K37" s="1">
+      <c r="J37" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="K37" s="7">
         <v>45006</v>
       </c>
-      <c r="L37" t="b">
+      <c r="L37" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M37" t="b">
+      <c r="M37" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="N37" t="b">
+      <c r="N37" s="5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="O37" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q37" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C38" t="str">
+      <c r="C38" s="5" t="str">
         <f>E38&amp;" ("&amp;D38&amp;") "&amp;F38&amp;". "&amp;G38&amp;". "&amp;H38</f>
         <v>Farrell, Lynn; Nearchou, Finiki; McHugh, Louise (2020) Examining the effectiveness of brief interventions to strengthen a positive implicit relation between women and STEM across two timepoints. Social Psychology of Education: An International Journal. 10.1007/s11218-020-09576-w</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="5">
         <v>2020</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" s="7">
         <v>44995</v>
       </c>
-      <c r="L38" t="b">
+      <c r="L38" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="M38" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O38" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="P38" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C39" t="str">
+      <c r="C39" s="5" t="str">
         <f>E39&amp;" ("&amp;D39&amp;") "&amp;F39&amp;". "&amp;G39&amp;". "&amp;H39</f>
         <v>Munnelly, Anita; Farrell, Lynn; O'Connor, Martin; McHugh, Louise (2018) Adolescents’ implicit and explicit attitudes toward cyberbullying: An exploratory study using the Implicit Relational Assessment Procedure (IRAP) and self-report measures. The Psychological Record. 10.1007/s40732-017-0261-0</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="5">
         <v>2018</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="J39" t="s">
-        <v>274</v>
-      </c>
-      <c r="K39" s="1">
+      <c r="J39" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K39" s="7">
         <v>44995</v>
       </c>
-      <c r="L39" t="b">
+      <c r="L39" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M39" t="b">
-        <v>0</v>
-      </c>
-      <c r="N39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="M39" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O39" s="5"/>
+      <c r="P39" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C40" t="str">
+      <c r="C40" s="5" t="str">
         <f>E40&amp;" ("&amp;D40&amp;") "&amp;F40&amp;". "&amp;G40&amp;". "&amp;H40</f>
         <v>Farrell, Lynn; McHugh, Louise (2020) Exploring the relationship between implicit and explicit gender-STEM bias and behavior among STEM students using the Implicit Relational Assessment Procedure. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2019.12.008</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="5">
         <v>2020</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="K40" s="1">
+      <c r="K40" s="7">
         <v>44995</v>
       </c>
-      <c r="L40" t="b">
+      <c r="L40" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="M40" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O40" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="P40" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C41" t="str">
+      <c r="C41" s="5" t="str">
         <f>E41&amp;" ("&amp;D41&amp;") "&amp;F41&amp;". "&amp;G41&amp;". "&amp;H41</f>
         <v>van der Kaap-Deeder, Jolene; De Houwer, Jan; Hughes, Sean; Spruyt, Adriaan; Vansteenkiste, Maarten (2018) The development and validation of an implicit measure of competence need satisfaction. Motivation and Emotion. 10.1007/s11031-018-9685-3</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="5">
         <v>2018</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="J41" t="s">
-        <v>277</v>
-      </c>
-      <c r="K41" s="1">
+      <c r="J41" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="K41" s="7">
         <v>44999</v>
       </c>
-      <c r="L41" t="b">
+      <c r="L41" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M41" t="b">
+      <c r="M41" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="N41" t="b">
+      <c r="N41" s="5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="O41" s="5"/>
+      <c r="P41" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="R41" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C42" t="str">
+      <c r="C42" s="5" t="str">
         <f>E42&amp;" ("&amp;D42&amp;") "&amp;F42&amp;". "&amp;G42&amp;". "&amp;H42</f>
         <v>Rafacz, Sharlet D.; Houmanfar, Ramona A.; Smith, Gregory S.; Levin, Michael E. (2019) Assessing the effects of motivative augmentals, pay-for-performance, and implicit verbal responding on cooperation. The Psychological Record. 10.1007/s40732-018-0324-x</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="5">
         <v>2019</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="J42" t="s">
-        <v>281</v>
-      </c>
-      <c r="K42" s="1">
+      <c r="J42" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="K42" s="7">
         <v>45005</v>
       </c>
-      <c r="L42" t="b">
+      <c r="L42" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M42" t="b">
-        <v>0</v>
-      </c>
-      <c r="N42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="M42" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O42" s="5"/>
+      <c r="P42" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C43" t="str">
+      <c r="C43" s="5" t="str">
         <f>E43&amp;" ("&amp;D43&amp;") "&amp;F43&amp;". "&amp;G43&amp;". "&amp;H43</f>
         <v>Michnevich, Twyla; Schmidt, Alexander F.; Scheunemann, Jakob; Moritz, Steffen; Miegel, Franziska; Jelinek, Lena (2021) Aggressiveness in patients with obsessive-compulsive disorder as assessed by the Implicit Relational Assessment Procedure. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2021.06.008</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="5">
         <v>2021</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="K43" s="1">
+      <c r="K43" s="7">
         <v>44995</v>
       </c>
-      <c r="L43" t="b">
-        <v>0</v>
-      </c>
-      <c r="M43" t="b">
-        <v>0</v>
-      </c>
-      <c r="N43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="L43" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N43" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O43" s="5"/>
+      <c r="P43" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="R43" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C44" t="str">
+      <c r="C44" s="5" t="str">
         <f>E44&amp;" ("&amp;D44&amp;") "&amp;F44&amp;". "&amp;G44&amp;". "&amp;H44</f>
         <v>Inoue, Kazuya; Shima, Taiki; Takahashi, Madoka; Lee, Steve K.; Ohtsuki, Tomu; Kumano, Hiroaki (2020) Reliability and validity of the Implicit Relational Assessment Procedure (IRAP) as a measure of Change Agenda. The Psychological Record. 10.1007/s40732-020-00416-z</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="5">
         <v>2020</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K44" s="7">
         <v>44995</v>
       </c>
-      <c r="L44" t="b">
+      <c r="L44" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M44" t="b">
+      <c r="M44" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="N44" t="b">
+      <c r="N44" s="5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="O44" s="5"/>
+      <c r="P44" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C45" t="str">
+      <c r="C45" s="5" t="str">
         <f>E45&amp;" ("&amp;D45&amp;") "&amp;F45&amp;". "&amp;G45&amp;". "&amp;H45</f>
         <v>Nasso, Selene; Vanderhasselt, Marie-Anne; De Raedt, Rudi (2020) Testing the neurocognitive framework for regulation expectation: The relationship between actual/ideal self-esteem and proactive/reactive autonomic stress regulation. Journal of Behavior Therapy and Experimental Psychiatry. 10.1016/j.jbtep.2020.101598</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="5">
         <v>2020</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="J45" t="s">
-        <v>294</v>
-      </c>
-      <c r="K45" s="1">
+      <c r="J45" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="K45" s="7">
         <v>45006</v>
       </c>
-      <c r="L45" t="b">
-        <v>0</v>
-      </c>
-      <c r="M45" t="b">
-        <v>0</v>
-      </c>
-      <c r="N45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="L45" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M45" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O45" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="P45" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="R45" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C46" t="str">
+      <c r="C46" s="5" t="str">
         <f>E46&amp;" ("&amp;D46&amp;") "&amp;F46&amp;". "&amp;G46&amp;". "&amp;H46</f>
         <v>Delgado, Eduardo M. Blasco; Cascalló, Aurembiaix Llobera; Sánchez, L. Jorge Ruiz; Carrasco, Jorge Villarroel (2019) Measuring the attitudes from Spanish and Catalan people toward Spanish and Catalan identity with the Implicit Relational Assessment Procedure. International Journal of Psychology &amp; Psychological Therapy. NA</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="5">
         <v>2019</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H46" t="s">
-        <v>241</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="H46" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="I46" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K46" s="7">
         <v>44995</v>
       </c>
-      <c r="L46" t="b">
-        <v>0</v>
-      </c>
-      <c r="M46" t="b">
-        <v>0</v>
-      </c>
-      <c r="N46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="L46" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O46" s="5"/>
+      <c r="P46" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C47" t="str">
+      <c r="C47" s="5" t="str">
         <f>E47&amp;" ("&amp;D47&amp;") "&amp;F47&amp;". "&amp;G47&amp;". "&amp;H47</f>
         <v>Errasti, José; Martinez, Hugo; Rodriguez, Carmen; Marquez, Jennifer; Maldonado, Alejandro; Menendez, Alvaro (2019) Social context in a collective IRAP application about gender stereotypes: Mixed versus single gender groups. The Psychological Record. 10.1007/s40732-018-0320-1</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="5">
         <v>2019</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="K47" s="1">
+      <c r="K47" s="7">
         <v>44995</v>
       </c>
-      <c r="L47" t="b">
-        <v>0</v>
-      </c>
-      <c r="M47" t="b">
-        <v>0</v>
-      </c>
-      <c r="N47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="L47" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O47" s="5"/>
+      <c r="P47" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="R47" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C48" t="str">
+      <c r="C48" s="5" t="str">
         <f>E48&amp;" ("&amp;D48&amp;") "&amp;F48&amp;". "&amp;G48&amp;". "&amp;H48</f>
         <v>Hong, Bao; Zhang, Lu; Sun, Hongri (2019) Measurement of the vertical spatial metaphor of power concepts using the Implicit Relational Assessment Procedure. Frontiers in Psychology. 10.3389/fpsyg.2019.01422</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="5">
         <v>2019</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="K48" s="1">
+      <c r="K48" s="7">
         <v>44995</v>
       </c>
-      <c r="L48" t="b">
-        <v>0</v>
-      </c>
-      <c r="M48" t="b">
-        <v>0</v>
-      </c>
-      <c r="N48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="L48" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O48" s="5"/>
+      <c r="P48" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q48" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C49" t="str">
+      <c r="C49" s="5" t="str">
         <f>E49&amp;" ("&amp;D49&amp;") "&amp;F49&amp;". "&amp;G49&amp;". "&amp;H49</f>
         <v>Henklain, Marcelo H. O.; Haydu, Verônica Bender; Carmo, João S.; Muniz, Monalisa; Perez, William F. (2019) Expanding the evidence of content validity for the Teacher Behavior Checklist using the IRAP: TBC’s content validity using the IRAP. The Psychological Record. 10.1007/s40732-019-00334-9</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="5">
         <v>2019</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="J49" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="J49" t="s">
-        <v>276</v>
-      </c>
-      <c r="K49" s="1">
+      <c r="K49" s="7">
         <v>45006</v>
       </c>
-      <c r="L49" t="b">
-        <v>0</v>
-      </c>
-      <c r="M49" t="b">
-        <v>0</v>
-      </c>
-      <c r="N49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="L49" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O49" s="5"/>
+      <c r="P49" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="R49" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C50" t="str">
+      <c r="C50" s="5" t="str">
         <f>E50&amp;" ("&amp;D50&amp;") "&amp;F50&amp;". "&amp;G50&amp;". "&amp;H50</f>
         <v>Glock, Sabine; Shevchuk, Anna; Kleen, Hannah (2022) Why Is Murat's achievement so low? Causal attributions and implicit attitudes toward ethnic minority students predict preservice teachers' judgments about achievement. Frontiers in Psychology. 10.3389/fpsyg.2022.819793</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="5">
         <v>2022</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="K50" s="1">
+      <c r="K50" s="7">
         <v>44995</v>
       </c>
-      <c r="L50" t="b">
-        <v>0</v>
-      </c>
-      <c r="M50" t="b">
-        <v>0</v>
-      </c>
-      <c r="N50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="L50" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O50" s="5"/>
+      <c r="P50" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q50" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R50" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C51" t="str">
+      <c r="C51" s="5" t="str">
         <f>E51&amp;" ("&amp;D51&amp;") "&amp;F51&amp;". "&amp;G51&amp;". "&amp;H51</f>
         <v>Simione, Luca; Vagni, Monia; Maiorano, Tiziana; Giostra, Valeria; Pajardi, Daniela (2022) How implicit attitudes toward vaccination affect vaccine hesitancy and behaviour: Developing and validating the V-IRAP. International Journal of Environmental Research and Public Health. 10.3390/ijerph19074205</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="5">
         <v>2022</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="K51" s="1">
+      <c r="K51" s="7">
         <v>44995</v>
       </c>
-      <c r="L51" t="b">
+      <c r="L51" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M51" t="b">
+      <c r="M51" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="N51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O51" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="N51" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O51" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="P51" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q51" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R51" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C52" t="str">
+      <c r="C52" s="5" t="str">
         <f>E52&amp;" ("&amp;D52&amp;") "&amp;F52&amp;". "&amp;G52&amp;". "&amp;H52</f>
         <v>Paliliunas, Dana; Frizell, Chynna B. (2021) Evaluation of college students’ implicit biases toward believability of claims of sexual harassment using the Implicit Relational Assessment Procedure (IRAP). Behavior and Social Issues. 10.1007/s42822-021-00061-3</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="5">
         <v>2021</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J52" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="K52" s="1">
+      <c r="K52" s="7">
         <v>44995</v>
       </c>
-      <c r="L52" t="b">
-        <v>0</v>
-      </c>
-      <c r="M52" t="b">
-        <v>0</v>
-      </c>
-      <c r="N52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="L52" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O52" s="5"/>
+      <c r="P52" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q52" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R52" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C53" t="str">
+      <c r="C53" s="5" t="str">
         <f>E53&amp;" ("&amp;D53&amp;") "&amp;F53&amp;". "&amp;G53&amp;". "&amp;H53</f>
         <v>Cabrera, Isabel; Márquez-González, María; Kishita, Naoko; Vara-García, Carlos; Losada, Andrés (2021) Development and validation of an Implicit Relational Assessment Procedure (IRAP) to measure implicit dysfunctional beliefs about caregiving in dementia family caregivers. The Psychological Record. 10.1007/s40732-020-00445-8</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="5">
         <v>2021</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J53" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="K53" s="1">
+      <c r="K53" s="7">
         <v>44995</v>
       </c>
-      <c r="L53" t="b">
-        <v>0</v>
-      </c>
-      <c r="M53" t="b">
-        <v>0</v>
-      </c>
-      <c r="N53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L55" s="5" t="s">
+      <c r="L53" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O53" s="5"/>
+      <c r="P53" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q53" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R53" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L55" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="M55" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="M55" s="5" t="s">
+      <c r="N55" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="N55" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="L56" s="4">
+      <c r="Q55" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L56" s="2">
         <f>AVERAGEA(L2:L53)</f>
-        <v>0.67307692307692313</v>
-      </c>
-      <c r="M56" s="4">
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="M56" s="2">
         <f>AVERAGEA(M2:M53)</f>
         <v>0.15384615384615385</v>
       </c>
-      <c r="N56" s="4">
+      <c r="N56" s="2">
         <f>AVERAGEA(N2:N53)</f>
         <v>9.6153846153846159E-2</v>
       </c>
+      <c r="Q56" s="2">
+        <f>AVERAGEA(Q2:Q53)</f>
+        <v>3.8461538461538464E-2</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B16:M30">
-    <sortCondition ref="E16:E30"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R53">
+    <sortCondition ref="A53"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5587,7 +6210,7 @@
         <v>241</v>
       </c>
       <c r="O1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -5635,7 +6258,7 @@
         <v>241</v>
       </c>
       <c r="O2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -5683,7 +6306,7 @@
         <v>241</v>
       </c>
       <c r="O3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/data/requests for data/data requests.xlsx
+++ b/data/requests for data/data requests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ian/git/repository-of-published-irap-data/data/requests for data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2DA90E-AC67-824E-8258-B74D4055ABF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2973341-B116-FD48-A774-4A2763EC02D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5660" yWindow="680" windowWidth="29620" windowHeight="20640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1964,8 +1964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647F9036-BD7F-8941-AAC0-FD3B8EC13872}">
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="119" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="119" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2049,7 +2049,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="3" t="str">
-        <f>E2&amp;" ("&amp;D2&amp;") "&amp;F2&amp;". "&amp;G2&amp;". "&amp;H2</f>
+        <f t="shared" ref="C2:C33" si="0">E2&amp;" ("&amp;D2&amp;") "&amp;F2&amp;". "&amp;G2&amp;". "&amp;H2</f>
         <v>Murphy, Carol; Maloney, Emma; Kelly, Michelle (2022) The role of relational contextual cues versus relational coherence indicators as response options on the Implicit Relational Assessment Procedure. The Psychological Record. 10.1007/s40732-022-00512-2</v>
       </c>
       <c r="D2" s="3">
@@ -2106,7 +2106,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="3" t="str">
-        <f>E3&amp;" ("&amp;D3&amp;") "&amp;F3&amp;". "&amp;G3&amp;". "&amp;H3</f>
+        <f t="shared" si="0"/>
         <v>Nolan, Conor; Murphy, Carol; Kelly, Michelle (2022) Using the IRAP to investigate gender biases towards ADHD and anxiety. The Psychological Record. 10.1007/s40732-021-00474-x</v>
       </c>
       <c r="D3" s="3">
@@ -2163,7 +2163,7 @@
         <v>95</v>
       </c>
       <c r="C4" s="3" t="str">
-        <f>E4&amp;" ("&amp;D4&amp;") "&amp;F4&amp;". "&amp;G4&amp;". "&amp;H4</f>
+        <f t="shared" si="0"/>
         <v>Murphy, Rachel; Murphy, Carol; Kelly, Michelle; Roche, Bryan (2021) Using the Implicit Relational Assessment Procedure (IRAP) to examine implicit beauty bias in the context of employability. The Psychological Record. 10.1007/s40732-020-00427-w</v>
       </c>
       <c r="D4" s="3">
@@ -2220,7 +2220,7 @@
         <v>69</v>
       </c>
       <c r="C5" s="3" t="str">
-        <f>E5&amp;" ("&amp;D5&amp;") "&amp;F5&amp;". "&amp;G5&amp;". "&amp;H5</f>
+        <f t="shared" si="0"/>
         <v>Curtis, Aisling; Foody, Mairéad; Kelly, Michelle; Murphy, Carol (2020) Using the Implicit Relational Assessment Procedure to explore students’ implicit age discrimination of toxic versus innocuous phrases. International Journal of Psychology &amp; Psychological Therapy. NA</v>
       </c>
       <c r="D5" s="3">
@@ -2277,7 +2277,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="3" t="str">
-        <f>E6&amp;" ("&amp;D6&amp;") "&amp;F6&amp;". "&amp;G6&amp;". "&amp;H6</f>
+        <f t="shared" si="0"/>
         <v>Kane, Alan; Murphy, Carol; Kelly, Michelle (2020) Assessing implicit and explicit dementia stigma in young adults and care-workers. Dementia: The International Journal of Social Research and Practice. 10.1177/1471301218804727</v>
       </c>
       <c r="D6" s="3">
@@ -2334,7 +2334,7 @@
         <v>118</v>
       </c>
       <c r="C7" s="3" t="str">
-        <f>E7&amp;" ("&amp;D7&amp;") "&amp;F7&amp;". "&amp;G7&amp;". "&amp;H7</f>
+        <f t="shared" si="0"/>
         <v>Rice, Hannah; Murphy, Carol; Nolan, Conor; Kelly, Michelle (2020) Measuring implicit attractiveness bias in the context of innocence and guilt evaluations. International Journal of Psychology &amp; Psychological Therapy. NA</v>
       </c>
       <c r="D7" s="3">
@@ -2391,7 +2391,7 @@
         <v>178</v>
       </c>
       <c r="C8" s="3" t="str">
-        <f>E8&amp;" ("&amp;D8&amp;") "&amp;F8&amp;". "&amp;G8&amp;". "&amp;H8</f>
+        <f t="shared" si="0"/>
         <v>Maloney, Emma; Foody, Mairéad; Murphy, Carol (2020) Do response options in the Implicit Relational Assessment Procedure (IRAP) matter? A comparison of contextual relations versus relational coherent indicators. The Psychological Record. 10.1007/s40732-019-00360-7</v>
       </c>
       <c r="D8" s="3">
@@ -2448,7 +2448,7 @@
         <v>72</v>
       </c>
       <c r="C9" s="3" t="str">
-        <f>E9&amp;" ("&amp;D9&amp;") "&amp;F9&amp;". "&amp;G9&amp;". "&amp;H9</f>
+        <f t="shared" si="0"/>
         <v>Was, Margaret; Foody, Mairéad; Murphy, Carol (2019) Using the Implicit Relational Assessment Procedure (IRAP) to investigate attractiveness bias in the domain of employability. International Journal of Psychology &amp; Psychological Therapy. NA</v>
       </c>
       <c r="D9" s="3">
@@ -2505,7 +2505,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="3" t="str">
-        <f>E10&amp;" ("&amp;D10&amp;") "&amp;F10&amp;". "&amp;G10&amp;". "&amp;H10</f>
+        <f t="shared" si="0"/>
         <v>Pennie, Brian; Kelly, Michelle E. (2018) An examination of generalised implicit biases towards ‘wanting more’ as a proxy measure of materialistic behaviour: A Relational Frame Theory (RFT) perspective. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2018.02.004</v>
       </c>
       <c r="D10" s="6">
@@ -2562,7 +2562,7 @@
         <v>91</v>
       </c>
       <c r="C11" s="3" t="str">
-        <f>E11&amp;" ("&amp;D11&amp;") "&amp;F11&amp;". "&amp;G11&amp;". "&amp;H11</f>
+        <f t="shared" si="0"/>
         <v>Fleming, Katie; Foody, Mairead; Murphy, Carol (2020) Using the Implicit Relational Assessment Procedure (IRAP) to examine implicit gender stereotypes in science, technology, engineering and maths (STEM). The Psychological Record. 10.1007/s40732-020-00401-6</v>
       </c>
       <c r="D11" s="3">
@@ -2619,7 +2619,7 @@
         <v>125</v>
       </c>
       <c r="C12" s="3" t="str">
-        <f>E12&amp;" ("&amp;D12&amp;") "&amp;F12&amp;". "&amp;G12&amp;". "&amp;H12</f>
+        <f t="shared" si="0"/>
         <v>Bast, Diana Ferroni; Lyons, Christina; Stewart, Ian; Connor, Thomas; Kelly, Michelle; Goyos, Celso (2020) The effect of educational messages on implicit and explicit attitudes towards individuals on the autism spectrum versus normally developing individuals. The Psychological Record. 10.1007/s40732-019-00363-4</v>
       </c>
       <c r="D12" s="3">
@@ -2674,7 +2674,7 @@
         <v>99</v>
       </c>
       <c r="C13" s="3" t="str">
-        <f>E13&amp;" ("&amp;D13&amp;") "&amp;F13&amp;". "&amp;G13&amp;". "&amp;H13</f>
+        <f t="shared" si="0"/>
         <v>Ferroni-Bast, Diana; Fitzpatrick, Jane; Stewart, Ian; Goyos, Celso (2019) Using the Implicit Relational Assessment Procedure (IRAP) as a measure of reaction to perceived failure and the effects of a defusion intervention in this context. The Psychological Record. 10.1007/s40732-019-00349-2</v>
       </c>
       <c r="D13" s="3">
@@ -2729,7 +2729,7 @@
         <v>83</v>
       </c>
       <c r="C14" s="3" t="str">
-        <f>E14&amp;" ("&amp;D14&amp;") "&amp;F14&amp;". "&amp;G14&amp;". "&amp;H14</f>
+        <f t="shared" si="0"/>
         <v>Rezende, Mauro Carvalho; Bast, Diana Ferroni; Huziwara, Edson Massayuki; Bortoloti, Renato (2021) The Implicit Relational Assessment Procedure as a measure of hopelessness in the elderly: An exploratory study. The Psychological Record. 10.1007/s40732-020-00406-1</v>
       </c>
       <c r="D14" s="3">
@@ -2786,7 +2786,7 @@
         <v>87</v>
       </c>
       <c r="C15" s="3" t="str">
-        <f>E15&amp;" ("&amp;D15&amp;") "&amp;F15&amp;". "&amp;G15&amp;". "&amp;H15</f>
+        <f t="shared" si="0"/>
         <v>Alasiri, Eman; Bast, Diana; Kolts, Russell L. (2019) Using the Implicit Relational Assessment Procedure (IRAP) to explore common humanity as a dimension of self-compassion. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2019.09.004</v>
       </c>
       <c r="D15" s="3">
@@ -2841,7 +2841,7 @@
         <v>157</v>
       </c>
       <c r="C16" s="3" t="str">
-        <f>E16&amp;" ("&amp;D16&amp;") "&amp;F16&amp;". "&amp;G16&amp;". "&amp;H16</f>
+        <f t="shared" si="0"/>
         <v>Dunne, Ciara; McEnteggart, Ciara; Harte, Colin; Barnes-Holmes, Dermot; Barnes-Holmes, Yvonne (2018) Faking a race IRAP effect in the context of single versus multiple label stimuli. International Journal of Psychology &amp; Psychological Therapy. [journal does not issue DOIs]</v>
       </c>
       <c r="D16" s="3">
@@ -2898,7 +2898,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="3" t="str">
-        <f>E17&amp;" ("&amp;D17&amp;") "&amp;F17&amp;". "&amp;G17&amp;". "&amp;H17</f>
+        <f t="shared" si="0"/>
         <v>Finn, Martin; Barnes-Holmes, Dermot; McEnteggart, Ciara (2018) Exploring the single-trial-type-dominance-effect in the IRAP: Developing a differential arbitrarily applicable relational responding effects (DAARRE) model. The Psychological Record. 10.1007/s40732-017-0262-z</v>
       </c>
       <c r="D17" s="3">
@@ -2956,7 +2956,7 @@
         <v>111</v>
       </c>
       <c r="C18" s="3" t="str">
-        <f>E18&amp;" ("&amp;D18&amp;") "&amp;F18&amp;". "&amp;G18&amp;". "&amp;H18</f>
+        <f t="shared" si="0"/>
         <v>Finn, Martin; Barnes-Holmes, Dermot; McEnteggart, Ciara; Kavanagh, Deirdre (2019) Predicting and influencing the single-trial-type-dominance-effect: The first study. The Psychological Record. 10.1007/s40732-019-00347-4</v>
       </c>
       <c r="D18" s="3">
@@ -3014,7 +3014,7 @@
         <v>205</v>
       </c>
       <c r="C19" s="3" t="str">
-        <f>E19&amp;" ("&amp;D19&amp;") "&amp;F19&amp;". "&amp;G19&amp;". "&amp;H19</f>
+        <f t="shared" si="0"/>
         <v>Gomes, Cainã T.; Perez, William F.; de Almeida, João Henrique; Ribeiro, Arthur; de Rose, Julio C.; Barnes-Holmes, Dermot (2019) Assessing a derived transformation of functions using the Implicit Relational Assessment Procedure under three motivative conditions. The Psychological Record. 10.1007/s40732-019-00353-6</v>
       </c>
       <c r="D19" s="3">
@@ -3072,7 +3072,7 @@
         <v>202</v>
       </c>
       <c r="C20" s="3" t="str">
-        <f>E20&amp;" ("&amp;D20&amp;") "&amp;F20&amp;". "&amp;G20&amp;". "&amp;H20</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Hendriks, Annemieke L.; McEnteggart, Ciara; Barnes-Holmes, Yvonne; De Mey, Hubert R. A.; Witteman, Cilia L. M.; Janssen, Gwenny T. L.; Egger, Jos I. M. (2020) Assessing deictic relational responding in psychosis using the Implicit Relational Assessment Procedure. International Journal of Psychology &amp; Psychological Therapy. </v>
       </c>
       <c r="D20" s="3">
@@ -3128,7 +3128,7 @@
         <v>199</v>
       </c>
       <c r="C21" s="3" t="str">
-        <f>E21&amp;" ("&amp;D21&amp;") "&amp;F21&amp;". "&amp;G21&amp;". "&amp;H21</f>
+        <f t="shared" si="0"/>
         <v>Hendriks, Annemieke L.; McEnteggart, Ciara; Barnes-Holmes, Yvonne; Veltmaat, Anouk; De Mey, Hubert R. A.; Witteman, Cilia L. M.; Janssen, Gwenny T. L.; Egger, Jos I. M. (2020) Assessing deictic relational responding in social anxiety using the Implicit Relational Assessment Procedure. International Journal of Psychology &amp; Psychological Therapy. [journal does not issue DOIs]</v>
       </c>
       <c r="D21" s="3">
@@ -3186,7 +3186,7 @@
         <v>61</v>
       </c>
       <c r="C22" s="3" t="str">
-        <f>E22&amp;" ("&amp;D22&amp;") "&amp;F22&amp;". "&amp;G22&amp;". "&amp;H22</f>
+        <f t="shared" si="0"/>
         <v>Kavanagh, Deirdre; Barnes-Holmes, Yvonne; Barnes-Holmes, Dermot (2022) Attempting to analyze perspective-taking with a false belief vignette using the Implicit Relational Assessment Procedure. The Psychological Record. 10.1007/s40732-021-00500-y</v>
       </c>
       <c r="D22" s="3">
@@ -3243,7 +3243,7 @@
         <v>12</v>
       </c>
       <c r="C23" s="3" t="str">
-        <f>E23&amp;" ("&amp;D23&amp;") "&amp;F23&amp;". "&amp;G23&amp;". "&amp;H23</f>
+        <f t="shared" si="0"/>
         <v>Kavanagh, Deirdre; Barnes-Holmes, Yvonne; Barnes-Holmes, Dermot; McEnteggart, Ciara; Finn, Martin (2018) Exploring differential trial-type effects and the impact of a read-aloud procedure on deictic relational responding on the IRAP. The Psychological Record. 10.1007/s40732-018-0276-1</v>
       </c>
       <c r="D23" s="3">
@@ -3300,7 +3300,7 @@
         <v>163</v>
       </c>
       <c r="C24" s="3" t="str">
-        <f>E24&amp;" ("&amp;D24&amp;") "&amp;F24&amp;". "&amp;G24&amp;". "&amp;H24</f>
+        <f t="shared" si="0"/>
         <v>Kavanagh, Deirdre; Matthyssen, Nele; Barnes-Holmes, Yvonne; Barnes-Holmes, Dermot; McEnteggart, Ciara; Vastano, Roberta (2019) Exploring the use of pictures of self and other in the IRAP: Reflecting upon the emergence of differential trial type effects. International Journal of Psychology &amp; Psychological Therapy. [journal does not issue DOIs]</v>
       </c>
       <c r="D24" s="3">
@@ -3357,7 +3357,7 @@
         <v>79</v>
       </c>
       <c r="C25" s="3" t="str">
-        <f>E25&amp;" ("&amp;D25&amp;") "&amp;F25&amp;". "&amp;G25&amp;". "&amp;H25</f>
+        <f t="shared" si="0"/>
         <v>Kavanagh, Deirdre; Roelandt, Adeline; Raemdonck, Lisa; Barnes-Holmes, Yvonne; Barnes-Holmes, Dermot; McEnteggart, Ciara (2019) The on-going search for perspective-taking IRAPs: Exploring the potential of the natural language-IRAP. The Psychological Record. 10.1007/s40732-019-00333-w</v>
       </c>
       <c r="D25" s="3">
@@ -3414,7 +3414,7 @@
         <v>213</v>
       </c>
       <c r="C26" s="3" t="str">
-        <f>E26&amp;" ("&amp;D26&amp;") "&amp;F26&amp;". "&amp;G26&amp;". "&amp;H26</f>
+        <f t="shared" si="0"/>
         <v>Leech, Aileen; Barnes-Holmes, Dermot (2022) Fear and avoidance: A three-day investigation on the impact of a fear-related verbal-rehearsal task on a behavior-behavior relation. The Psychological Record. 10.1007/s40732-021-00470-1</v>
       </c>
       <c r="D26" s="3">
@@ -3471,7 +3471,7 @@
         <v>75</v>
       </c>
       <c r="C27" s="3" t="str">
-        <f>E27&amp;" ("&amp;D27&amp;") "&amp;F27&amp;". "&amp;G27&amp;". "&amp;H27</f>
+        <f t="shared" si="0"/>
         <v>Leech, Aileen; Barnes-Holmes, Dermot (2020) Training and testing for a transformation of fear and avoidance functions via combinatorial entailment using the Implicit Relational Assessment Procedure (IRAP): Further exploratory analyses. Behavioural Processes. 10.1016/j.beproc.2019.104027</v>
       </c>
       <c r="D27" s="3">
@@ -3528,7 +3528,7 @@
         <v>37</v>
       </c>
       <c r="C28" s="3" t="str">
-        <f>E28&amp;" ("&amp;D28&amp;") "&amp;F28&amp;". "&amp;G28&amp;". "&amp;H28</f>
+        <f t="shared" si="0"/>
         <v>Leech, Aileen; Bouyrden, Jaber; Bruijsten, Nathalie; Barnes-Holmes, Dermot; McEnteggart, Ciara (2018) Training and testing for a transformation of fear and avoidance functions using the Implicit Relational Assessment Procedure: The first study. Behavioural Processes. 10.1016/j.beproc.2018.08.012</v>
       </c>
       <c r="D28" s="3">
@@ -3585,7 +3585,7 @@
         <v>153</v>
       </c>
       <c r="C29" s="3" t="str">
-        <f>E29&amp;" ("&amp;D29&amp;") "&amp;F29&amp;". "&amp;G29&amp;". "&amp;H29</f>
+        <f t="shared" si="0"/>
         <v>Pidgeon, Audrey; McEnteggart, Ciara; Harte, Colin; Barnes-Holmes, Dermot; Barnes-Holmes, Yvonne (2021) Four self-related IRAPs: Analyzing and interpreting effects in light of the DAARRE model. The Psychological Record. 10.1007/s40732-020-00428-9</v>
       </c>
       <c r="D29" s="3">
@@ -3642,7 +3642,7 @@
         <v>191</v>
       </c>
       <c r="C30" s="3" t="str">
-        <f>E30&amp;" ("&amp;D30&amp;") "&amp;F30&amp;". "&amp;G30&amp;". "&amp;H30</f>
+        <f t="shared" si="0"/>
         <v>Scanlon, Geraldine; McEnteggart, Ciara; Barnes-Holmes, Yvonne (2020) Attitudes to pupils with EBD: An implicit approach. Emotional &amp; Behavioural Difficulties. 10.1080/13632752.2020.1729609</v>
       </c>
       <c r="D30" s="3">
@@ -3699,7 +3699,7 @@
         <v>52</v>
       </c>
       <c r="C31" s="3" t="str">
-        <f>E31&amp;" ("&amp;D31&amp;") "&amp;F31&amp;". "&amp;G31&amp;". "&amp;H31</f>
+        <f t="shared" si="0"/>
         <v>Hernández-López, Monica; Quinones-Jimenez, Lourdes; Blanco-Romero, Alberto L.; Rodriguez-Valverde, Miguel (2021) Testing the discrepancy between actual and ideal body image with the Implicit Relational Assessment Procedure (IRAP). Journal of Eating Disorders. 10.1186/s40337-021-00434-4</v>
       </c>
       <c r="D31" s="3">
@@ -3756,7 +3756,7 @@
         <v>145</v>
       </c>
       <c r="C32" s="3" t="str">
-        <f>E32&amp;" ("&amp;D32&amp;") "&amp;F32&amp;". "&amp;G32&amp;". "&amp;H32</f>
+        <f t="shared" si="0"/>
         <v>Hernández-López, Mónica; Antequera-Rubio, Alba; Rodríguez-Valverde, Miguel (2019) Implicit attitudes to female body shape in Spanish women with high and low body dissatisfaction. Frontiers in Psychology. 10.3389/fpsyg.2019.02102</v>
       </c>
       <c r="D32" s="3">
@@ -3813,7 +3813,7 @@
         <v>137</v>
       </c>
       <c r="C33" s="3" t="str">
-        <f>E33&amp;" ("&amp;D33&amp;") "&amp;F33&amp;". "&amp;G33&amp;". "&amp;H33</f>
+        <f t="shared" si="0"/>
         <v>Schmidt, Margarete; de Rose, Julio C.; Bortoloti, Renato (2021) Relating, orienting and evoking functions in an IRAP study involving emotional pictographs (emojis) used in electronic messages. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2021.06.005</v>
       </c>
       <c r="D33" s="3">
@@ -3868,7 +3868,7 @@
         <v>103</v>
       </c>
       <c r="C34" s="3" t="str">
-        <f>E34&amp;" ("&amp;D34&amp;") "&amp;F34&amp;". "&amp;G34&amp;". "&amp;H34</f>
+        <f t="shared" ref="C34:C65" si="1">E34&amp;" ("&amp;D34&amp;") "&amp;F34&amp;". "&amp;G34&amp;". "&amp;H34</f>
         <v>Pinto, Joana Andrade Ramalho; de Almeida, Rodrigo Vianna; Bortoloti, Renato (2020) The stimulus’ orienting function may play an important role in IRAP performance: Supportive evidence from an eye-tracking study of brands. The Psychological Record. 10.1007/s40732-020-00378-2</v>
       </c>
       <c r="D34" s="3">
@@ -3923,7 +3923,7 @@
         <v>121</v>
       </c>
       <c r="C35" s="3" t="str">
-        <f>E35&amp;" ("&amp;D35&amp;") "&amp;F35&amp;". "&amp;G35&amp;". "&amp;H35</f>
+        <f t="shared" si="1"/>
         <v>Moreira, Murilo; de Almeida, João H.; de Rose, Júlio C. (2021) The impact of career choice on the implicit gender–career bias among undergraduate Brazilian students. Behavior and Social Issues. 10.1007/s42822-021-00075-x</v>
       </c>
       <c r="D35" s="3">
@@ -3980,7 +3980,7 @@
         <v>149</v>
       </c>
       <c r="C36" s="3" t="str">
-        <f>E36&amp;" ("&amp;D36&amp;") "&amp;F36&amp;". "&amp;G36&amp;". "&amp;H36</f>
+        <f t="shared" si="1"/>
         <v>Perez, William F.; de Almeida, João Henrique; de Rose, Julio C.; Dorigon, Andrea H.; de Vasconcellos, Eduardo L.; da Silva, Marco A.; Lima, Najra D. P.; de Almeida, Roberta B. M.; Montan, Rodrigo N. M.; Barnes-Holmes, Dermot (2019) Implicit and explicit measures of transformation of function from facial expressions of fear and of happiness via equivalence relations. The Psychological Record. 10.1007/s40732-018-0304-1</v>
       </c>
       <c r="D36" s="3">
@@ -4035,7 +4035,7 @@
         <v>174</v>
       </c>
       <c r="C37" s="3" t="str">
-        <f>E37&amp;" ("&amp;D37&amp;") "&amp;F37&amp;". "&amp;G37&amp;". "&amp;H37</f>
+        <f t="shared" si="1"/>
         <v>Bortoloti, Renato; de Almeida, Rodrigo Vianna; de Almeida, João Henrique; de Rose, Julio C. (2019) Emotional faces in symbolic relations: A happiness superiority effect involving the equivalence paradigm. Frontiers in Psychology. 10.3389/fpsyg.2019.00954</v>
       </c>
       <c r="D37" s="3">
@@ -4092,7 +4092,7 @@
         <v>182</v>
       </c>
       <c r="C38" s="3" t="str">
-        <f>E38&amp;" ("&amp;D38&amp;") "&amp;F38&amp;". "&amp;G38&amp;". "&amp;H38</f>
+        <f t="shared" si="1"/>
         <v>Farrell, Lynn; Nearchou, Finiki; McHugh, Louise (2020) Examining the effectiveness of brief interventions to strengthen a positive implicit relation between women and STEM across two timepoints. Social Psychology of Education: An International Journal. 10.1007/s11218-020-09576-w</v>
       </c>
       <c r="D38" s="3">
@@ -4149,7 +4149,7 @@
         <v>8</v>
       </c>
       <c r="C39" s="3" t="str">
-        <f>E39&amp;" ("&amp;D39&amp;") "&amp;F39&amp;". "&amp;G39&amp;". "&amp;H39</f>
+        <f t="shared" si="1"/>
         <v>Munnelly, Anita; Farrell, Lynn; O'Connor, Martin; McHugh, Louise (2018) Adolescents’ implicit and explicit attitudes toward cyberbullying: An exploratory study using the Implicit Relational Assessment Procedure (IRAP) and self-report measures. The Psychological Record. 10.1007/s40732-017-0261-0</v>
       </c>
       <c r="D39" s="3">
@@ -4204,7 +4204,7 @@
         <v>160</v>
       </c>
       <c r="C40" s="3" t="str">
-        <f>E40&amp;" ("&amp;D40&amp;") "&amp;F40&amp;". "&amp;G40&amp;". "&amp;H40</f>
+        <f t="shared" si="1"/>
         <v>Farrell, Lynn; McHugh, Louise (2020) Exploring the relationship between implicit and explicit gender-STEM bias and behavior among STEM students using the Implicit Relational Assessment Procedure. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2019.12.008</v>
       </c>
       <c r="D40" s="3">
@@ -4261,7 +4261,7 @@
         <v>42</v>
       </c>
       <c r="C41" s="3" t="str">
-        <f>E41&amp;" ("&amp;D41&amp;") "&amp;F41&amp;". "&amp;G41&amp;". "&amp;H41</f>
+        <f t="shared" si="1"/>
         <v>van der Kaap-Deeder, Jolene; De Houwer, Jan; Hughes, Sean; Spruyt, Adriaan; Vansteenkiste, Maarten (2018) The development and validation of an implicit measure of competence need satisfaction. Motivation and Emotion. 10.1007/s11031-018-9685-3</v>
       </c>
       <c r="D41" s="3">
@@ -4316,7 +4316,7 @@
         <v>195</v>
       </c>
       <c r="C42" s="3" t="str">
-        <f>E42&amp;" ("&amp;D42&amp;") "&amp;F42&amp;". "&amp;G42&amp;". "&amp;H42</f>
+        <f t="shared" si="1"/>
         <v>Rafacz, Sharlet D.; Houmanfar, Ramona A.; Smith, Gregory S.; Levin, Michael E. (2019) Assessing the effects of motivative augmentals, pay-for-performance, and implicit verbal responding on cooperation. The Psychological Record. 10.1007/s40732-018-0324-x</v>
       </c>
       <c r="D42" s="3">
@@ -4371,7 +4371,7 @@
         <v>209</v>
       </c>
       <c r="C43" s="3" t="str">
-        <f>E43&amp;" ("&amp;D43&amp;") "&amp;F43&amp;". "&amp;G43&amp;". "&amp;H43</f>
+        <f t="shared" si="1"/>
         <v>Michnevich, Twyla; Schmidt, Alexander F.; Scheunemann, Jakob; Moritz, Steffen; Miegel, Franziska; Jelinek, Lena (2021) Aggressiveness in patients with obsessive-compulsive disorder as assessed by the Implicit Relational Assessment Procedure. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2021.06.008</v>
       </c>
       <c r="D43" s="3">
@@ -4426,7 +4426,7 @@
         <v>107</v>
       </c>
       <c r="C44" s="3" t="str">
-        <f>E44&amp;" ("&amp;D44&amp;") "&amp;F44&amp;". "&amp;G44&amp;". "&amp;H44</f>
+        <f t="shared" si="1"/>
         <v>Inoue, Kazuya; Shima, Taiki; Takahashi, Madoka; Lee, Steve K.; Ohtsuki, Tomu; Kumano, Hiroaki (2020) Reliability and validity of the Implicit Relational Assessment Procedure (IRAP) as a measure of Change Agenda. The Psychological Record. 10.1007/s40732-020-00416-z</v>
       </c>
       <c r="D44" s="3">
@@ -4481,7 +4481,7 @@
         <v>129</v>
       </c>
       <c r="C45" s="3" t="str">
-        <f>E45&amp;" ("&amp;D45&amp;") "&amp;F45&amp;". "&amp;G45&amp;". "&amp;H45</f>
+        <f t="shared" si="1"/>
         <v>Nasso, Selene; Vanderhasselt, Marie-Anne; De Raedt, Rudi (2020) Testing the neurocognitive framework for regulation expectation: The relationship between actual/ideal self-esteem and proactive/reactive autonomic stress regulation. Journal of Behavior Therapy and Experimental Psychiatry. 10.1016/j.jbtep.2020.101598</v>
       </c>
       <c r="D45" s="3">
@@ -4538,7 +4538,7 @@
         <v>115</v>
       </c>
       <c r="C46" s="3" t="str">
-        <f>E46&amp;" ("&amp;D46&amp;") "&amp;F46&amp;". "&amp;G46&amp;". "&amp;H46</f>
+        <f t="shared" si="1"/>
         <v>Delgado, Eduardo M. Blasco; Cascalló, Aurembiaix Llobera; Sánchez, L. Jorge Ruiz; Carrasco, Jorge Villarroel (2019) Measuring the attitudes from Spanish and Catalan people toward Spanish and Catalan identity with the Implicit Relational Assessment Procedure. International Journal of Psychology &amp; Psychological Therapy. NA</v>
       </c>
       <c r="D46" s="3">
@@ -4593,7 +4593,7 @@
         <v>133</v>
       </c>
       <c r="C47" s="3" t="str">
-        <f>E47&amp;" ("&amp;D47&amp;") "&amp;F47&amp;". "&amp;G47&amp;". "&amp;H47</f>
+        <f t="shared" si="1"/>
         <v>Errasti, José; Martinez, Hugo; Rodriguez, Carmen; Marquez, Jennifer; Maldonado, Alejandro; Menendez, Alvaro (2019) Social context in a collective IRAP application about gender stereotypes: Mixed versus single gender groups. The Psychological Record. 10.1007/s40732-018-0320-1</v>
       </c>
       <c r="D47" s="3">
@@ -4648,7 +4648,7 @@
         <v>141</v>
       </c>
       <c r="C48" s="3" t="str">
-        <f>E48&amp;" ("&amp;D48&amp;") "&amp;F48&amp;". "&amp;G48&amp;". "&amp;H48</f>
+        <f t="shared" si="1"/>
         <v>Hong, Bao; Zhang, Lu; Sun, Hongri (2019) Measurement of the vertical spatial metaphor of power concepts using the Implicit Relational Assessment Procedure. Frontiers in Psychology. 10.3389/fpsyg.2019.01422</v>
       </c>
       <c r="D48" s="3">
@@ -4703,7 +4703,7 @@
         <v>166</v>
       </c>
       <c r="C49" s="3" t="str">
-        <f>E49&amp;" ("&amp;D49&amp;") "&amp;F49&amp;". "&amp;G49&amp;". "&amp;H49</f>
+        <f t="shared" si="1"/>
         <v>Henklain, Marcelo H. O.; Haydu, Verônica Bender; Carmo, João S.; Muniz, Monalisa; Perez, William F. (2019) Expanding the evidence of content validity for the Teacher Behavior Checklist using the IRAP: TBC’s content validity using the IRAP. The Psychological Record. 10.1007/s40732-019-00334-9</v>
       </c>
       <c r="D49" s="3">
@@ -4758,7 +4758,7 @@
         <v>216</v>
       </c>
       <c r="C50" s="3" t="str">
-        <f>E50&amp;" ("&amp;D50&amp;") "&amp;F50&amp;". "&amp;G50&amp;". "&amp;H50</f>
+        <f t="shared" si="1"/>
         <v>Glock, Sabine; Shevchuk, Anna; Kleen, Hannah (2022) Why Is Murat's achievement so low? Causal attributions and implicit attitudes toward ethnic minority students predict preservice teachers' judgments about achievement. Frontiers in Psychology. 10.3389/fpsyg.2022.819793</v>
       </c>
       <c r="D50" s="3">
@@ -4813,7 +4813,7 @@
         <v>220</v>
       </c>
       <c r="C51" s="3" t="str">
-        <f>E51&amp;" ("&amp;D51&amp;") "&amp;F51&amp;". "&amp;G51&amp;". "&amp;H51</f>
+        <f t="shared" si="1"/>
         <v>Simione, Luca; Vagni, Monia; Maiorano, Tiziana; Giostra, Valeria; Pajardi, Daniela (2022) How implicit attitudes toward vaccination affect vaccine hesitancy and behaviour: Developing and validating the V-IRAP. International Journal of Environmental Research and Public Health. 10.3390/ijerph19074205</v>
       </c>
       <c r="D51" s="3">
@@ -4870,7 +4870,7 @@
         <v>170</v>
       </c>
       <c r="C52" s="3" t="str">
-        <f>E52&amp;" ("&amp;D52&amp;") "&amp;F52&amp;". "&amp;G52&amp;". "&amp;H52</f>
+        <f t="shared" si="1"/>
         <v>Paliliunas, Dana; Frizell, Chynna B. (2021) Evaluation of college students’ implicit biases toward believability of claims of sexual harassment using the Implicit Relational Assessment Procedure (IRAP). Behavior and Social Issues. 10.1007/s42822-021-00061-3</v>
       </c>
       <c r="D52" s="3">
@@ -4925,7 +4925,7 @@
         <v>187</v>
       </c>
       <c r="C53" s="3" t="str">
-        <f>E53&amp;" ("&amp;D53&amp;") "&amp;F53&amp;". "&amp;G53&amp;". "&amp;H53</f>
+        <f t="shared" si="1"/>
         <v>Cabrera, Isabel; Márquez-González, María; Kishita, Naoko; Vara-García, Carlos; Losada, Andrés (2021) Development and validation of an Implicit Relational Assessment Procedure (IRAP) to measure implicit dysfunctional beliefs about caregiving in dementia family caregivers. The Psychological Record. 10.1007/s40732-020-00445-8</v>
       </c>
       <c r="D53" s="3">

--- a/data/requests for data/data requests.xlsx
+++ b/data/requests for data/data requests.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ian/git/repository-of-published-irap-data/data/requests for data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2973341-B116-FD48-A774-4A2763EC02D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965A312D-79C0-1647-A1AF-4FC6E76E5CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5660" yWindow="680" windowWidth="29620" windowHeight="20640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contacted" sheetId="3" r:id="rId1"/>
     <sheet name="not contacted, have data" sheetId="4" r:id="rId2"/>
-    <sheet name="notable cases" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="329">
   <si>
     <t>72LX2MUL</t>
   </si>
@@ -1055,30 +1054,6 @@
   </si>
   <si>
     <t>declined, but waiting for ethics advice and may revise</t>
-  </si>
-  <si>
-    <t>Multiple authors were initially responsive to my email and stated that I should contact the first author, and then stopped replying once I pointed out that the first authors email address doesn't work any more and asked if they had more up to date contact details. This even included one author stopping replying when asked if they could supply email addresses they were very likely to be in possession of (i.e., the authors wife and his wife's business partner).</t>
-  </si>
-  <si>
-    <t>One author, who was first, corresponding, and/or senior author of multiple publications, and who in some of those publications included a "data available on request" statement, said in an email: "Re. data, I never held the data for the studies referred to, and so I must refer you to the first authors. Those who collected the data retained it, and will do so for the required duration in accord with ethical  requirements." I.e., they report that they never held the data that they published an article on. If the author was factually correct that they never held this data, the data sharing statement statement was impossible to comply with - you cannot share data as promised if you never held the data in the first place.</t>
-  </si>
-  <si>
-    <t>Multiple authors replied that they were on maternity leave or were retired. Both are understandable circumstances, however both situations highlight ways in which promissory notes re data sharing are not met due to forseeable circumstances.</t>
-  </si>
-  <si>
-    <t>A similar forseeable circumstance is people leaving acadmia and/or their institional email address being deleted when they move institions. It was not always possible to know which was the case, and could be both. Reasonable steps should be made to be able to ensure that we can in fact corrispond with a corrisponding author.</t>
-  </si>
-  <si>
-    <t>Unfortunate and untimely data losses were sometimes reported. "I did have the data for these studies until very recently but I mistakenly wiped them from the old laptop where they were stored"</t>
-  </si>
-  <si>
-    <t>There were also less understandable circumstances reported:</t>
-  </si>
-  <si>
-    <t>Some authors did not respond to requests, or responded that they did not have the data, even when their own institutional research data management policies required that they properly store data and share it upon request (e.g., Ghent University, Radboud University).</t>
-  </si>
-  <si>
-    <t>Some authors stated that the data could not be shared under the requested circumstances on the basis that the consent forms did not state that the data would be made public (i.e., denial on ethical grounds). In each case, I followed up with a request that it be shared privately without public sharing, and that I was happy to sign any NDA or data sharing agreement necessary. Only in a minority of cases was data then shared: in several cases, authors then stated that data from projects was in fact lost. This may represent the selective deployment of caution: too much caution placed on not sharing data, and not enough on appropriate storage of data. Both cases have ethical implications (i.e., consent and checks on research integrety), especially given that some of the articles whose data was reported lost explicitly stated that data was available upon request.</t>
   </si>
 </sst>
 </file>
@@ -1580,7 +1555,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1607,6 +1582,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1964,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647F9036-BD7F-8941-AAC0-FD3B8EC13872}">
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="119" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2611,113 +2590,113 @@
         <v>320</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+    <row r="12" spans="1:18" s="11" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="3" t="str">
+      <c r="C12" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Bast, Diana Ferroni; Lyons, Christina; Stewart, Ian; Connor, Thomas; Kelly, Michelle; Goyos, Celso (2020) The effect of educational messages on implicit and explicit attitudes towards individuals on the autism spectrum versus normally developing individuals. The Psychological Record. 10.1007/s40732-019-00363-4</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="7">
         <v>2020</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="10">
         <v>44995</v>
       </c>
-      <c r="L12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4" t="s">
+      <c r="L12" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="Q12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3" t="s">
+      <c r="Q12" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="R12" s="7" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+    <row r="13" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="3" t="str">
+      <c r="C13" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Ferroni-Bast, Diana; Fitzpatrick, Jane; Stewart, Ian; Goyos, Celso (2019) Using the Implicit Relational Assessment Procedure (IRAP) as a measure of reaction to perceived failure and the effects of a defusion intervention in this context. The Psychological Record. 10.1007/s40732-019-00349-2</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="7">
         <v>2019</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="10">
         <v>44995</v>
       </c>
-      <c r="L13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="R13" s="3" t="s">
+      <c r="L13" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="R13" s="7" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3868,7 +3847,7 @@
         <v>103</v>
       </c>
       <c r="C34" s="3" t="str">
-        <f t="shared" ref="C34:C65" si="1">E34&amp;" ("&amp;D34&amp;") "&amp;F34&amp;". "&amp;G34&amp;". "&amp;H34</f>
+        <f t="shared" ref="C34:C53" si="1">E34&amp;" ("&amp;D34&amp;") "&amp;F34&amp;". "&amp;G34&amp;". "&amp;H34</f>
         <v>Pinto, Joana Andrade Ramalho; de Almeida, Rodrigo Vianna; Bortoloti, Renato (2020) The stimulus’ orienting function may play an important role in IRAP performance: Supportive evidence from an eye-tracking study of brands. The Psychological Record. 10.1007/s40732-020-00378-2</v>
       </c>
       <c r="D34" s="3">
@@ -4363,58 +4342,58 @@
         <v>233</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
+    <row r="43" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C43" s="3" t="str">
+      <c r="C43" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Michnevich, Twyla; Schmidt, Alexander F.; Scheunemann, Jakob; Moritz, Steffen; Miegel, Franziska; Jelinek, Lena (2021) Aggressiveness in patients with obsessive-compulsive disorder as assessed by the Implicit Relational Assessment Procedure. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2021.06.008</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="7">
         <v>2021</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I43" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="J43" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K43" s="10">
         <v>44995</v>
       </c>
-      <c r="L43" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="R43" s="3" t="s">
+      <c r="L43" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N43" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="R43" s="7" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4530,168 +4509,168 @@
         <v>233</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
+    <row r="46" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C46" s="3" t="str">
+      <c r="C46" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Delgado, Eduardo M. Blasco; Cascalló, Aurembiaix Llobera; Sánchez, L. Jorge Ruiz; Carrasco, Jorge Villarroel (2019) Measuring the attitudes from Spanish and Catalan people toward Spanish and Catalan identity with the Implicit Relational Assessment Procedure. International Journal of Psychology &amp; Psychological Therapy. NA</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="7">
         <v>2019</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G46" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="I46" s="3" t="s">
+      <c r="H46" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="I46" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="J46" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K46" s="10">
         <v>44995</v>
       </c>
-      <c r="L46" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
+      <c r="L46" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="R46" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C47" s="3" t="str">
+      <c r="C47" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Errasti, José; Martinez, Hugo; Rodriguez, Carmen; Marquez, Jennifer; Maldonado, Alejandro; Menendez, Alvaro (2019) Social context in a collective IRAP application about gender stereotypes: Mixed versus single gender groups. The Psychological Record. 10.1007/s40732-018-0320-1</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="7">
         <v>2019</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G47" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="I47" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="J47" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K47" s="5">
+      <c r="K47" s="10">
         <v>44995</v>
       </c>
-      <c r="L47" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" ht="68" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
+      <c r="L47" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="R47" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="11" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C48" s="3" t="str">
+      <c r="C48" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Hong, Bao; Zhang, Lu; Sun, Hongri (2019) Measurement of the vertical spatial metaphor of power concepts using the Implicit Relational Assessment Procedure. Frontiers in Psychology. 10.3389/fpsyg.2019.01422</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="7">
         <v>2019</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G48" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="I48" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="J48" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K48" s="5">
+      <c r="K48" s="10">
         <v>44995</v>
       </c>
-      <c r="L48" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4" t="s">
+      <c r="L48" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="Q48" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R48" s="3" t="s">
+      <c r="Q48" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="R48" s="7" t="s">
         <v>320</v>
       </c>
     </row>
@@ -4750,58 +4729,58 @@
         <v>233</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="51" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
+    <row r="50" spans="1:18" s="11" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C50" s="3" t="str">
+      <c r="C50" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Glock, Sabine; Shevchuk, Anna; Kleen, Hannah (2022) Why Is Murat's achievement so low? Causal attributions and implicit attitudes toward ethnic minority students predict preservice teachers' judgments about achievement. Frontiers in Psychology. 10.3389/fpsyg.2022.819793</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="7">
         <v>2022</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G50" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="I50" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="J50" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="K50" s="5">
+      <c r="K50" s="10">
         <v>44995</v>
       </c>
-      <c r="L50" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M50" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N50" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4" t="s">
+      <c r="L50" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="Q50" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R50" s="3" t="s">
+      <c r="Q50" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="R50" s="7" t="s">
         <v>320</v>
       </c>
     </row>
@@ -4862,113 +4841,113 @@
         <v>320</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="51" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
+    <row r="52" spans="1:18" s="11" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C52" s="3" t="str">
+      <c r="C52" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Paliliunas, Dana; Frizell, Chynna B. (2021) Evaluation of college students’ implicit biases toward believability of claims of sexual harassment using the Implicit Relational Assessment Procedure (IRAP). Behavior and Social Issues. 10.1007/s42822-021-00061-3</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="7">
         <v>2021</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G52" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H52" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="I52" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="J52" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K52" s="5">
+      <c r="K52" s="10">
         <v>44995</v>
       </c>
-      <c r="L52" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4" t="s">
+      <c r="L52" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="Q52" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3" t="s">
+      <c r="Q52" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="R52" s="7" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="51" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
+    <row r="53" spans="1:18" s="11" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A53" s="7">
         <v>52</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C53" s="3" t="str">
+      <c r="C53" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Cabrera, Isabel; Márquez-González, María; Kishita, Naoko; Vara-García, Carlos; Losada, Andrés (2021) Development and validation of an Implicit Relational Assessment Procedure (IRAP) to measure implicit dysfunctional beliefs about caregiving in dementia family caregivers. The Psychological Record. 10.1007/s40732-020-00445-8</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="7">
         <v>2021</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G53" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="H53" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="I53" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="J53" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K53" s="5">
+      <c r="K53" s="10">
         <v>44995</v>
       </c>
-      <c r="L53" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M53" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N53" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4" t="s">
+      <c r="L53" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="Q53" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R53" s="3" t="s">
+      <c r="Q53" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="R53" s="7" t="s">
         <v>320</v>
       </c>
     </row>
@@ -4985,7 +4964,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5137,62 +5116,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D041A7A-D9E8-0743-B79F-031326C318C2}">
-  <dimension ref="A1:A8"/>
-  <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="114.6640625" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="119" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/requests for data/data requests.xlsx
+++ b/data/requests for data/data requests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ian/git/repository-of-published-irap-data/data/requests for data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965A312D-79C0-1647-A1AF-4FC6E76E5CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F9141F-2AB4-7F43-A2C7-B3133EB15C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="680" windowWidth="29620" windowHeight="20640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contacted" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="330">
   <si>
     <t>72LX2MUL</t>
   </si>
@@ -816,9 +816,6 @@
   </si>
   <si>
     <t>finn and ybh didn't reply, dbh said he doesn't have the data</t>
-  </si>
-  <si>
-    <t>only dermot replied, said hes doesn’t have the data</t>
   </si>
   <si>
     <t>all but yvh replied, hendricks and dbh said they don’t have data, egger will look into obtaining the data</t>
@@ -1054,6 +1051,12 @@
   </si>
   <si>
     <t>declined, but waiting for ethics advice and may revise</t>
+  </si>
+  <si>
+    <t>dermot said hes doesn’t have the data, perez said the data is probably lost</t>
+  </si>
+  <si>
+    <t>perez says data is probably lost</t>
   </si>
 </sst>
 </file>
@@ -1943,8 +1946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647F9036-BD7F-8941-AAC0-FD3B8EC13872}">
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="119" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1962,6 +1965,7 @@
     <col min="14" max="14" width="11.1640625" customWidth="1"/>
     <col min="15" max="15" width="50.1640625" style="2" customWidth="1"/>
     <col min="16" max="16" width="44" style="2" customWidth="1"/>
+    <col min="17" max="17" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -1990,34 +1994,34 @@
         <v>228</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>294</v>
-      </c>
       <c r="P1" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -2050,7 +2054,7 @@
         <v>254</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K2" s="5">
         <v>44995</v>
@@ -2059,22 +2063,22 @@
         <v>1</v>
       </c>
       <c r="M2" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q2" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -2104,10 +2108,10 @@
         <v>68</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K3" s="5">
         <v>45008</v>
@@ -2122,16 +2126,16 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q3" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -2161,10 +2165,10 @@
         <v>98</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K4" s="5">
         <v>45006</v>
@@ -2179,16 +2183,16 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Q4" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -2236,7 +2240,7 @@
         <v>1</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P5" s="4" t="b">
         <v>0</v>
@@ -2293,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P6" s="4" t="b">
         <v>0</v>
@@ -2350,16 +2354,16 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q7" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -2392,7 +2396,7 @@
         <v>253</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K8" s="5">
         <v>44995</v>
@@ -2401,22 +2405,22 @@
         <v>1</v>
       </c>
       <c r="M8" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Q8" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -2464,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P9" s="4" t="b">
         <v>0</v>
@@ -2506,7 +2510,7 @@
         <v>253</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K10" s="5">
         <v>45008</v>
@@ -2521,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P10" s="4" t="b">
         <v>0</v>
@@ -2578,16 +2582,16 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Q11" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="11" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -2636,13 +2640,13 @@
       </c>
       <c r="O12" s="8"/>
       <c r="P12" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q12" s="7" t="b">
         <v>0</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -2745,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P14" s="4" t="b">
         <v>0</v>
@@ -2787,7 +2791,7 @@
         <v>253</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K15" s="5">
         <v>45006</v>
@@ -3012,10 +3016,10 @@
         <v>208</v>
       </c>
       <c r="I19" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="K19" s="5">
         <v>45007</v>
@@ -3030,16 +3034,16 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>261</v>
+        <v>328</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q19" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="S19" s="1"/>
     </row>
@@ -3086,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P20" s="4" t="b">
         <v>0</v>
@@ -3144,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P21" s="4" t="b">
         <v>0</v>
@@ -3202,16 +3206,16 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q22" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="34" x14ac:dyDescent="0.2">
@@ -3259,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P23" s="4" t="b">
         <v>0</v>
@@ -3316,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P24" s="4" t="b">
         <v>0</v>
@@ -3373,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P25" s="4" t="b">
         <v>0</v>
@@ -3415,7 +3419,7 @@
         <v>253</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K26" s="5">
         <v>44999</v>
@@ -3430,16 +3434,16 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q26" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="34" x14ac:dyDescent="0.2">
@@ -3472,7 +3476,7 @@
         <v>253</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K27" s="5">
         <v>44999</v>
@@ -3487,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P27" s="4" t="b">
         <v>0</v>
@@ -3529,7 +3533,7 @@
         <v>253</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K28" s="5">
         <v>44999</v>
@@ -3544,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P28" s="4" t="b">
         <v>0</v>
@@ -3604,13 +3608,13 @@
         <v>250</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q29" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="34" x14ac:dyDescent="0.2">
@@ -3658,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P30" s="4" t="b">
         <v>0</v>
@@ -3715,16 +3719,16 @@
         <v>0</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q31" s="7" t="b">
         <v>0</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="51" x14ac:dyDescent="0.2">
@@ -3772,16 +3776,16 @@
         <v>0</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q32" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
@@ -3869,7 +3873,7 @@
         <v>253</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K34" s="5">
         <v>45006</v>
@@ -3885,13 +3889,13 @@
       </c>
       <c r="O34" s="4"/>
       <c r="P34" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q34" s="3" t="b">
         <v>1</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -3939,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q35" s="3" t="b">
         <v>1</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -3981,13 +3985,13 @@
         <v>253</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K36" s="5">
         <v>45006</v>
       </c>
       <c r="L36" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" s="3" t="b">
         <v>0</v>
@@ -3995,7 +3999,9 @@
       <c r="N36" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="O36" s="4"/>
+      <c r="O36" s="4" t="s">
+        <v>329</v>
+      </c>
       <c r="P36" s="4" t="b">
         <v>0</v>
       </c>
@@ -4036,7 +4042,7 @@
         <v>253</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K37" s="5">
         <v>45006</v>
@@ -4051,16 +4057,16 @@
         <v>1</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q37" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -4108,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P38" s="4" t="b">
         <v>0</v>
@@ -4150,7 +4156,7 @@
         <v>253</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K39" s="5">
         <v>44995</v>
@@ -4220,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P40" s="4" t="b">
         <v>0</v>
@@ -4262,7 +4268,7 @@
         <v>253</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K41" s="5">
         <v>44999</v>
@@ -4317,7 +4323,7 @@
         <v>253</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K42" s="5">
         <v>45005</v>
@@ -4482,7 +4488,7 @@
         <v>253</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K45" s="5">
         <v>45006</v>
@@ -4497,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P45" s="4" t="b">
         <v>0</v>
@@ -4665,16 +4671,16 @@
       </c>
       <c r="O48" s="8"/>
       <c r="P48" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q48" s="7" t="b">
         <v>0</v>
       </c>
       <c r="R48" s="7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -4701,16 +4707,16 @@
         <v>169</v>
       </c>
       <c r="I49" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="J49" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="K49" s="5">
         <v>45006</v>
       </c>
       <c r="L49" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" s="3" t="b">
         <v>0</v>
@@ -4718,7 +4724,9 @@
       <c r="N49" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="O49" s="4"/>
+      <c r="O49" s="4" t="s">
+        <v>329</v>
+      </c>
       <c r="P49" s="4" t="b">
         <v>0</v>
       </c>
@@ -4775,13 +4783,13 @@
       </c>
       <c r="O50" s="8"/>
       <c r="P50" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q50" s="7" t="b">
         <v>0</v>
       </c>
       <c r="R50" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -4829,16 +4837,16 @@
         <v>0</v>
       </c>
       <c r="O51" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q51" s="7" t="b">
         <v>0</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="1:18" s="11" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -4887,13 +4895,13 @@
       </c>
       <c r="O52" s="8"/>
       <c r="P52" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q52" s="7" t="b">
         <v>0</v>
       </c>
       <c r="R52" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="53" spans="1:18" s="11" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -4942,13 +4950,13 @@
       </c>
       <c r="O53" s="8"/>
       <c r="P53" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q53" s="7" t="b">
         <v>0</v>
       </c>
       <c r="R53" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -5014,7 +5022,7 @@
         <v>233</v>
       </c>
       <c r="O1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -5062,7 +5070,7 @@
         <v>233</v>
       </c>
       <c r="O2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -5110,7 +5118,7 @@
         <v>233</v>
       </c>
       <c r="O3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/data/requests for data/data requests.xlsx
+++ b/data/requests for data/data requests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ian/git/repository-of-published-irap-data/data/requests for data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F9141F-2AB4-7F43-A2C7-B3133EB15C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004D0D8C-BD51-4D4D-B778-B552109E826C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="344">
   <si>
     <t>72LX2MUL</t>
   </si>
@@ -740,9 +740,6 @@
     <t>murphy</t>
   </si>
   <si>
-    <t>bast</t>
-  </si>
-  <si>
     <t>barnes-holmes, d; barnes-holmes, y</t>
   </si>
   <si>
@@ -758,30 +755,15 @@
     <t>kazuya inoue</t>
   </si>
   <si>
-    <t>cabrera</t>
-  </si>
-  <si>
-    <t>Paliliunas</t>
-  </si>
-  <si>
     <t>Simione</t>
   </si>
   <si>
-    <t>Glock</t>
-  </si>
-  <si>
-    <t>Blasco Delgado</t>
-  </si>
-  <si>
     <t>Errasti</t>
   </si>
   <si>
     <t>Hongri Sun</t>
   </si>
   <si>
-    <t>Michnevich</t>
-  </si>
-  <si>
     <t>a senior author who I personally know</t>
   </si>
   <si>
@@ -809,18 +791,6 @@
     <t>order</t>
   </si>
   <si>
-    <t>finn, barnes-holmes, d; barnes-holmes, y</t>
-  </si>
-  <si>
-    <t>hendricks, egger, barnes-holmes, d; barnes-holmes, y</t>
-  </si>
-  <si>
-    <t>finn and ybh didn't reply, dbh said he doesn't have the data</t>
-  </si>
-  <si>
-    <t>all but yvh replied, hendricks and dbh said they don’t have data, egger will look into obtaining the data</t>
-  </si>
-  <si>
     <t>murphy reports having no data from any studies</t>
   </si>
   <si>
@@ -851,15 +821,6 @@
     <t>levin, Rafacz, smith</t>
   </si>
   <si>
-    <t>barnes-holmes, d; barnes-holmes, y, leech</t>
-  </si>
-  <si>
-    <t>leech out of office reply for maternity leave, dbh said he doesnthave the data, ybh no response</t>
-  </si>
-  <si>
-    <t>dbh said he doesn’t have the data, ybh no response, scanlon no response</t>
-  </si>
-  <si>
     <t>"Let me prepare some data to share." on 15-03-2023</t>
   </si>
   <si>
@@ -888,9 +849,6 @@
   </si>
   <si>
     <t>murphy; kelly; nolan</t>
-  </si>
-  <si>
-    <t>data obtained from OSF via a senior authors profile</t>
   </si>
   <si>
     <r>
@@ -1050,20 +1008,120 @@
     <t>The raw data supporting the conclusions of this article will be  made available by the authors, without undue reservation. [glock corrisponding]</t>
   </si>
   <si>
-    <t>declined, but waiting for ethics advice and may revise</t>
-  </si>
-  <si>
     <t>dermot said hes doesn’t have the data, perez said the data is probably lost</t>
   </si>
   <si>
     <t>perez says data is probably lost</t>
+  </si>
+  <si>
+    <t>barnes-holmes, d; barnes-holmes, y; mcenteggart</t>
+  </si>
+  <si>
+    <t>dbh "I did have the data for these studies until very recently but I mistakenly wiped them from the old laptop where they were stored, along with quite a bit of other stuff from the Maynooth era.". Mcenteggart and YBH said they don't have access to the data.</t>
+  </si>
+  <si>
+    <t>finn, barnes-holmes, d; barnes-holmes, y, mcenteggart</t>
+  </si>
+  <si>
+    <t>finn didn't reply, dbh, ybh and mcenteggart said they doesn't have the data</t>
+  </si>
+  <si>
+    <t>hendricks, egger, barnes-holmes, d; barnes-holmes, y, mcenteggart</t>
+  </si>
+  <si>
+    <t>barnes-holmes, d; barnes-holmes, y, mcenteggart</t>
+  </si>
+  <si>
+    <t>hendricks and dbh said they don’t have data, egger will look into obtaining the data from archives and pointed me to ciara, ciara and yvonne don’t have the data and pointed me to hentriks</t>
+  </si>
+  <si>
+    <t>note: no email for corrisponding author (kavanagh) could be obtained. Dbh couldn't supply one. YBH said she doesn't have the data</t>
+  </si>
+  <si>
+    <t>note: no email for corrisponding author (kavanagh) could be obtained. Dbh couldn't supply one. YBH and mcenteggart said they don't have the data.</t>
+  </si>
+  <si>
+    <t>note: no email for corrisponding author (kavanagh) could be obtained. Dbh couldn't supply one.YBH and mcenteggart said they don't have the data.</t>
+  </si>
+  <si>
+    <t>barnes-holmes, d; leech</t>
+  </si>
+  <si>
+    <t>barnes-holmes, d; leech, mcenteggart</t>
+  </si>
+  <si>
+    <t>barnes-holmes, d; barnes-holmes, y, harte, mcenteggart</t>
+  </si>
+  <si>
+    <t>dbh, ybh, harte, mcenteggart said they don't have the data, scanlon no response</t>
+  </si>
+  <si>
+    <t>dbh said he doesnthave the data, leech said she has the data files but is on maternity leave and wont be able to send them for 9 months</t>
+  </si>
+  <si>
+    <t>dbh said he doesnthave the data, mcenteggart said she doesn't have the data, leech said she has the data files but is on maternity leave and wont be able to send them for 9 months</t>
+  </si>
+  <si>
+    <t>perez says data is probably lost, heklain shared data</t>
+  </si>
+  <si>
+    <t>Michnevich, Jelinek, Miegel</t>
+  </si>
+  <si>
+    <t>Michnevich didn't reply</t>
+  </si>
+  <si>
+    <t>Blasco Delgado, Villarroel</t>
+  </si>
+  <si>
+    <t>blasco delgado didn't reply</t>
+  </si>
+  <si>
+    <t>bast, goyos</t>
+  </si>
+  <si>
+    <t>bast didn't reply. I confirmed Bast's email address is current through her recent co-authors</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">bast didn't reply. I confirmed Bast's email address is current through her recent co-authors. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data obtained from OSF via a senior authors profile</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">declined saying that they'd like to share but ethics prevent open data. I clarified that I'd be happy to receive the data privately and not share, and then they stopped responding. </t>
+  </si>
+  <si>
+    <t>corresponding author and second author</t>
+  </si>
+  <si>
+    <t>Glock, Shevchuk</t>
+  </si>
+  <si>
+    <t>Paliliunas, Frizell</t>
+  </si>
+  <si>
+    <t>cabrera, Losada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1208,6 +1266,10 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
@@ -1558,7 +1620,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1585,10 +1647,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1946,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647F9036-BD7F-8941-AAC0-FD3B8EC13872}">
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="119" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="I38" zoomScale="119" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1970,7 +2038,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>229</v>
@@ -1994,34 +2062,34 @@
         <v>228</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>302</v>
-      </c>
       <c r="R1" s="3" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -2051,10 +2119,10 @@
         <v>60</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="K2" s="5">
         <v>44995</v>
@@ -2069,16 +2137,16 @@
         <v>1</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="Q2" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -2108,10 +2176,10 @@
         <v>68</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="K3" s="5">
         <v>45008</v>
@@ -2126,16 +2194,16 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="Q3" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -2165,10 +2233,10 @@
         <v>98</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="K4" s="5">
         <v>45006</v>
@@ -2183,16 +2251,16 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="Q4" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -2222,7 +2290,7 @@
         <v>233</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>232</v>
@@ -2240,7 +2308,7 @@
         <v>1</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="P5" s="4" t="b">
         <v>0</v>
@@ -2279,7 +2347,7 @@
         <v>51</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>232</v>
@@ -2297,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="P6" s="4" t="b">
         <v>0</v>
@@ -2336,7 +2404,7 @@
         <v>233</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>232</v>
@@ -2354,16 +2422,16 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="Q7" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -2393,10 +2461,10 @@
         <v>181</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="K8" s="5">
         <v>44995</v>
@@ -2411,16 +2479,16 @@
         <v>1</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="Q8" s="3" t="b">
         <v>1</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -2450,7 +2518,7 @@
         <v>233</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>232</v>
@@ -2468,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="P9" s="4" t="b">
         <v>0</v>
@@ -2507,10 +2575,10 @@
         <v>28</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="K10" s="5">
         <v>45008</v>
@@ -2525,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="P10" s="4" t="b">
         <v>0</v>
@@ -2564,7 +2632,7 @@
         <v>94</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>234</v>
@@ -2573,7 +2641,7 @@
         <v>44995</v>
       </c>
       <c r="L11" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="3" t="b">
         <v>0</v>
@@ -2582,129 +2650,133 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="Q11" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="11" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="7" t="str">
+      <c r="C12" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Bast, Diana Ferroni; Lyons, Christina; Stewart, Ian; Connor, Thomas; Kelly, Michelle; Goyos, Celso (2020) The effect of educational messages on implicit and explicit attitudes towards individuals on the autism spectrum versus normally developing individuals. The Psychological Record. 10.1007/s40732-019-00363-4</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="10">
         <v>2020</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="K12" s="10">
-        <v>44995</v>
-      </c>
-      <c r="L12" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q12" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+      <c r="I12" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="K12" s="11">
+        <v>45013</v>
+      </c>
+      <c r="L12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="7" t="str">
+      <c r="C13" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Ferroni-Bast, Diana; Fitzpatrick, Jane; Stewart, Ian; Goyos, Celso (2019) Using the Implicit Relational Assessment Procedure (IRAP) as a measure of reaction to perceived failure and the effects of a defusion intervention in this context. The Psychological Record. 10.1007/s40732-019-00349-2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="10">
         <v>2019</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="K13" s="10">
-        <v>44995</v>
-      </c>
-      <c r="L13" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="I13" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="K13" s="11">
+        <v>45013</v>
+      </c>
+      <c r="L13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="P13" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2731,10 +2803,10 @@
         <v>86</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="K14" s="5">
         <v>44995</v>
@@ -2749,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="P14" s="4" t="b">
         <v>0</v>
@@ -2761,7 +2833,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2788,10 +2860,10 @@
         <v>90</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="K15" s="5">
         <v>45006</v>
@@ -2805,7 +2877,9 @@
       <c r="N15" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="O15" s="4"/>
+      <c r="O15" s="4" t="s">
+        <v>337</v>
+      </c>
       <c r="P15" s="4" t="b">
         <v>0</v>
       </c>
@@ -2816,7 +2890,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2840,13 +2914,13 @@
         <v>24</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>236</v>
+        <v>315</v>
       </c>
       <c r="K16" s="5">
         <v>44995</v>
@@ -2861,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>250</v>
+        <v>316</v>
       </c>
       <c r="P16" s="4" t="b">
         <v>0</v>
@@ -2900,10 +2974,10 @@
         <v>19</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>258</v>
+        <v>317</v>
       </c>
       <c r="K17" s="5">
         <v>44995</v>
@@ -2918,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>260</v>
+        <v>318</v>
       </c>
       <c r="P17" s="4" t="b">
         <v>0</v>
@@ -2958,10 +3032,10 @@
         <v>114</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>258</v>
+        <v>317</v>
       </c>
       <c r="K18" s="5">
         <v>44995</v>
@@ -2976,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>260</v>
+        <v>318</v>
       </c>
       <c r="P18" s="4" t="b">
         <v>0</v>
@@ -3016,10 +3090,10 @@
         <v>208</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="K19" s="5">
         <v>45007</v>
@@ -3034,20 +3108,20 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="Q19" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -3072,10 +3146,10 @@
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>259</v>
+        <v>319</v>
       </c>
       <c r="K20" s="5">
         <v>45005</v>
@@ -3090,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>261</v>
+        <v>321</v>
       </c>
       <c r="P20" s="4" t="b">
         <v>0</v>
@@ -3103,7 +3177,7 @@
       </c>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -3127,13 +3201,13 @@
         <v>24</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>259</v>
+        <v>319</v>
       </c>
       <c r="K21" s="5">
         <v>45005</v>
@@ -3148,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>261</v>
+        <v>321</v>
       </c>
       <c r="P21" s="4" t="b">
         <v>0</v>
@@ -3191,7 +3265,7 @@
         <v>249</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K22" s="5">
         <v>44995</v>
@@ -3206,19 +3280,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>277</v>
+        <v>322</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="Q22" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -3248,7 +3322,7 @@
         <v>249</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="K23" s="5">
         <v>44995</v>
@@ -3263,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>277</v>
+        <v>323</v>
       </c>
       <c r="P23" s="4" t="b">
         <v>0</v>
@@ -3275,7 +3349,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -3299,13 +3373,13 @@
         <v>24</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K24" s="5">
         <v>44995</v>
@@ -3320,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>277</v>
+        <v>324</v>
       </c>
       <c r="P24" s="4" t="b">
         <v>0</v>
@@ -3359,10 +3433,10 @@
         <v>82</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K25" s="5">
         <v>44995</v>
@@ -3377,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="P25" s="4" t="b">
         <v>0</v>
@@ -3416,10 +3490,10 @@
         <v>215</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>272</v>
+        <v>325</v>
       </c>
       <c r="K26" s="5">
         <v>44999</v>
@@ -3428,25 +3502,25 @@
         <v>1</v>
       </c>
       <c r="M26" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="3" t="b">
         <v>0</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="Q26" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -3473,10 +3547,10 @@
         <v>78</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>272</v>
+        <v>325</v>
       </c>
       <c r="K27" s="5">
         <v>44999</v>
@@ -3485,13 +3559,13 @@
         <v>1</v>
       </c>
       <c r="M27" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="3" t="b">
         <v>0</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
       <c r="P27" s="4" t="b">
         <v>0</v>
@@ -3503,7 +3577,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -3530,10 +3604,10 @@
         <v>41</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="K28" s="5">
         <v>44999</v>
@@ -3542,13 +3616,13 @@
         <v>1</v>
       </c>
       <c r="M28" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="3" t="b">
         <v>0</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>273</v>
+        <v>330</v>
       </c>
       <c r="P28" s="4" t="b">
         <v>0</v>
@@ -3590,7 +3664,7 @@
         <v>249</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>236</v>
+        <v>327</v>
       </c>
       <c r="K29" s="5">
         <v>44995</v>
@@ -3605,16 +3679,16 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="Q29" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="34" x14ac:dyDescent="0.2">
@@ -3644,10 +3718,10 @@
         <v>194</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K30" s="5">
         <v>44999</v>
@@ -3662,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="P30" s="4" t="b">
         <v>0</v>
@@ -3701,10 +3775,10 @@
         <v>56</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K31" s="5">
         <v>44995</v>
@@ -3719,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="Q31" s="7" t="b">
         <v>0</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="51" x14ac:dyDescent="0.2">
@@ -3758,10 +3832,10 @@
         <v>148</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K32" s="5">
         <v>44995</v>
@@ -3776,16 +3850,16 @@
         <v>0</v>
       </c>
       <c r="O32" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="P32" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="P32" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q32" s="3" t="b">
+      <c r="Q32" s="7" t="b">
         <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
@@ -3815,10 +3889,10 @@
         <v>140</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K33" s="5">
         <v>44995</v>
@@ -3870,10 +3944,10 @@
         <v>106</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="K34" s="5">
         <v>45006</v>
@@ -3889,13 +3963,13 @@
       </c>
       <c r="O34" s="4"/>
       <c r="P34" s="4" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="Q34" s="3" t="b">
         <v>1</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -3925,10 +3999,10 @@
         <v>124</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K35" s="5">
         <v>44995</v>
@@ -3943,16 +4017,16 @@
         <v>0</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="Q35" s="3" t="b">
         <v>1</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -3982,10 +4056,10 @@
         <v>152</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="K36" s="5">
         <v>45006</v>
@@ -4000,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="P36" s="4" t="b">
         <v>0</v>
@@ -4039,10 +4113,10 @@
         <v>177</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="K37" s="5">
         <v>45006</v>
@@ -4057,16 +4131,16 @@
         <v>1</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="Q37" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -4096,10 +4170,10 @@
         <v>186</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K38" s="5">
         <v>44995</v>
@@ -4114,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="P38" s="4" t="b">
         <v>0</v>
@@ -4153,10 +4227,10 @@
         <v>11</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="K39" s="5">
         <v>44995</v>
@@ -4208,10 +4282,10 @@
         <v>162</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K40" s="5">
         <v>44995</v>
@@ -4226,7 +4300,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="P40" s="4" t="b">
         <v>0</v>
@@ -4265,10 +4339,10 @@
         <v>46</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="K41" s="5">
         <v>44999</v>
@@ -4320,10 +4394,10 @@
         <v>198</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="K42" s="5">
         <v>45005</v>
@@ -4348,58 +4422,60 @@
         <v>233</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
+    <row r="43" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C43" s="7" t="str">
+      <c r="C43" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Michnevich, Twyla; Schmidt, Alexander F.; Scheunemann, Jakob; Moritz, Steffen; Miegel, Franziska; Jelinek, Lena (2021) Aggressiveness in patients with obsessive-compulsive disorder as assessed by the Implicit Relational Assessment Procedure. Journal of Contextual Behavioral Science. 10.1016/j.jcbs.2021.06.008</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="3">
         <v>2021</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G43" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="I43" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="K43" s="10">
-        <v>44995</v>
-      </c>
-      <c r="L43" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M43" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N43" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="R43" s="7" t="s">
+      <c r="I43" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="K43" s="5">
+        <v>45013</v>
+      </c>
+      <c r="L43" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="P43" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="R43" s="3" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4430,10 +4506,10 @@
         <v>110</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K44" s="5">
         <v>44995</v>
@@ -4458,226 +4534,228 @@
         <v>233</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
+    <row r="45" spans="1:18" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A45" s="10">
         <v>44</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="3" t="str">
+      <c r="C45" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Nasso, Selene; Vanderhasselt, Marie-Anne; De Raedt, Rudi (2020) Testing the neurocognitive framework for regulation expectation: The relationship between actual/ideal self-esteem and proactive/reactive autonomic stress regulation. Journal of Behavior Therapy and Experimental Psychiatry. 10.1016/j.jbtep.2020.101598</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="10">
         <v>2020</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="K45" s="5">
+      <c r="I45" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="K45" s="11">
         <v>45006</v>
       </c>
-      <c r="L45" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M45" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N45" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O45" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="P45" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="7">
+      <c r="L45" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M45" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O45" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="P45" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="R45" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C46" s="7" t="str">
+      <c r="C46" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Delgado, Eduardo M. Blasco; Cascalló, Aurembiaix Llobera; Sánchez, L. Jorge Ruiz; Carrasco, Jorge Villarroel (2019) Measuring the attitudes from Spanish and Catalan people toward Spanish and Catalan identity with the Implicit Relational Assessment Procedure. International Journal of Psychology &amp; Psychological Therapy. NA</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="3">
         <v>2019</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H46" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="K46" s="10">
-        <v>44995</v>
-      </c>
-      <c r="L46" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M46" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N46" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="R46" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="7">
+      <c r="H46" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="K46" s="5">
+        <v>45013</v>
+      </c>
+      <c r="L46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="P46" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="10">
         <v>46</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C47" s="7" t="str">
+      <c r="C47" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Errasti, José; Martinez, Hugo; Rodriguez, Carmen; Marquez, Jennifer; Maldonado, Alejandro; Menendez, Alvaro (2019) Social context in a collective IRAP application about gender stereotypes: Mixed versus single gender groups. The Psychological Record. 10.1007/s40732-018-0320-1</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="10">
         <v>2019</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G47" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="I47" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="J47" s="7" t="s">
+      <c r="I47" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="K47" s="10">
+      <c r="J47" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="K47" s="11">
         <v>44995</v>
       </c>
-      <c r="L47" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M47" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N47" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="R47" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" s="11" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A48" s="7">
+      <c r="L47" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="R47" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="13" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A48" s="10">
         <v>47</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C48" s="7" t="str">
+      <c r="C48" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Hong, Bao; Zhang, Lu; Sun, Hongri (2019) Measurement of the vertical spatial metaphor of power concepts using the Implicit Relational Assessment Procedure. Frontiers in Psychology. 10.3389/fpsyg.2019.01422</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="10">
         <v>2019</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="G48" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H48" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="I48" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="K48" s="10">
+      <c r="I48" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="K48" s="11">
         <v>44995</v>
       </c>
-      <c r="L48" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M48" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N48" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q48" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R48" s="7" t="s">
-        <v>319</v>
+      <c r="L48" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q48" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R48" s="10" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -4707,10 +4785,10 @@
         <v>169</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="K49" s="5">
         <v>45006</v>
@@ -4719,13 +4797,13 @@
         <v>1</v>
       </c>
       <c r="M49" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P49" s="4" t="b">
         <v>0</v>
@@ -4737,59 +4815,59 @@
         <v>233</v>
       </c>
     </row>
-    <row r="50" spans="1:18" s="11" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A50" s="7">
+    <row r="50" spans="1:18" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A50" s="10">
         <v>49</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C50" s="7" t="str">
+      <c r="C50" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Glock, Sabine; Shevchuk, Anna; Kleen, Hannah (2022) Why Is Murat's achievement so low? Causal attributions and implicit attitudes toward ethnic minority students predict preservice teachers' judgments about achievement. Frontiers in Psychology. 10.3389/fpsyg.2022.819793</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="10">
         <v>2022</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="G50" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="H50" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="I50" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="K50" s="10">
-        <v>44995</v>
-      </c>
-      <c r="L50" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M50" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N50" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q50" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R50" s="7" t="s">
-        <v>319</v>
+      <c r="I50" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="K50" s="11">
+        <v>45013</v>
+      </c>
+      <c r="L50" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q50" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R50" s="10" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -4819,10 +4897,10 @@
         <v>224</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K51" s="5">
         <v>44995</v>
@@ -4837,126 +4915,126 @@
         <v>0</v>
       </c>
       <c r="O51" s="8" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="Q51" s="7" t="b">
         <v>0</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" s="11" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A52" s="7">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A52" s="10">
         <v>51</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C52" s="7" t="str">
+      <c r="C52" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Paliliunas, Dana; Frizell, Chynna B. (2021) Evaluation of college students’ implicit biases toward believability of claims of sexual harassment using the Implicit Relational Assessment Procedure (IRAP). Behavior and Social Issues. 10.1007/s42822-021-00061-3</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="10">
         <v>2021</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="G52" s="7" t="s">
+      <c r="G52" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="H52" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="I52" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="K52" s="10">
-        <v>44995</v>
-      </c>
-      <c r="L52" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M52" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N52" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8" t="s">
+      <c r="I52" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="K52" s="11">
+        <v>45013</v>
+      </c>
+      <c r="L52" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q52" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R52" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="Q52" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R52" s="7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" s="11" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A53" s="7">
+    </row>
+    <row r="53" spans="1:18" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A53" s="10">
         <v>52</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C53" s="7" t="str">
+      <c r="C53" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Cabrera, Isabel; Márquez-González, María; Kishita, Naoko; Vara-García, Carlos; Losada, Andrés (2021) Development and validation of an Implicit Relational Assessment Procedure (IRAP) to measure implicit dysfunctional beliefs about caregiving in dementia family caregivers. The Psychological Record. 10.1007/s40732-020-00445-8</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="10">
         <v>2021</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="G53" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="H53" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="I53" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="K53" s="10">
+      <c r="I53" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="K53" s="11">
         <v>44995</v>
       </c>
-      <c r="L53" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M53" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N53" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q53" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R53" s="7" t="s">
-        <v>319</v>
+      <c r="L53" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q53" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R53" s="10" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -5022,7 +5100,7 @@
         <v>233</v>
       </c>
       <c r="O1" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -5070,7 +5148,7 @@
         <v>233</v>
       </c>
       <c r="O2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -5118,7 +5196,7 @@
         <v>233</v>
       </c>
       <c r="O3" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/data/requests for data/data requests.xlsx
+++ b/data/requests for data/data requests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ian/git/repository-of-published-irap-data/data/requests for data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004D0D8C-BD51-4D4D-B778-B552109E826C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDFFDB2-9412-9E44-988A-C0DBD6CBD2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7040" yWindow="2120" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contacted" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="345">
   <si>
     <t>72LX2MUL</t>
   </si>
@@ -831,9 +831,6 @@
   </si>
   <si>
     <t>murphy; kelly; foody, maloney</t>
-  </si>
-  <si>
-    <t>will reply after april 8th</t>
   </si>
   <si>
     <t>already have data, am coauthor or chad is</t>
@@ -895,9 +892,6 @@
     <t>already have data, am coauthor or chad is.</t>
   </si>
   <si>
-    <t>reported they will share but it could take time</t>
-  </si>
-  <si>
     <t>data sharing statement</t>
   </si>
   <si>
@@ -1068,16 +1062,7 @@
     <t>Michnevich, Jelinek, Miegel</t>
   </si>
   <si>
-    <t>Michnevich didn't reply</t>
-  </si>
-  <si>
     <t>Blasco Delgado, Villarroel</t>
-  </si>
-  <si>
-    <t>blasco delgado didn't reply</t>
-  </si>
-  <si>
-    <t>bast, goyos</t>
   </si>
   <si>
     <t>bast didn't reply. I confirmed Bast's email address is current through her recent co-authors</t>
@@ -1102,9 +1087,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">declined saying that they'd like to share but ethics prevent open data. I clarified that I'd be happy to receive the data privately and not share, and then they stopped responding. </t>
-  </si>
-  <si>
     <t>corresponding author and second author</t>
   </si>
   <si>
@@ -1115,6 +1097,27 @@
   </si>
   <si>
     <t>cabrera, Losada</t>
+  </si>
+  <si>
+    <t>declined saying that they'd like to share but ethics prevent it.</t>
+  </si>
+  <si>
+    <t>bast, goyos, stewart</t>
+  </si>
+  <si>
+    <t>Michnevich didn't reply, Jelinek did and said they can share but need to remove personal information.</t>
+  </si>
+  <si>
+    <t>neither replied</t>
+  </si>
+  <si>
+    <t>sent data and implemention of measures, but measures and data cannot be from this study (wrong task, wrong N). Followed up with requests for clarification.</t>
+  </si>
+  <si>
+    <t>reported they will share but it could take time, did not specify a period</t>
+  </si>
+  <si>
+    <t>stated they will reply in more detail after april 8th, but did not commit to sharing</t>
   </si>
 </sst>
 </file>
@@ -1620,7 +1623,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1647,16 +1650,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2015,7 +2011,7 @@
   <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I38" zoomScale="119" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2062,34 +2058,34 @@
         <v>228</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>279</v>
-      </c>
       <c r="P1" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -2137,16 +2133,16 @@
         <v>1</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Q2" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -2179,7 +2175,7 @@
         <v>255</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K3" s="5">
         <v>45008</v>
@@ -2197,13 +2193,13 @@
         <v>253</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="Q3" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -2236,7 +2232,7 @@
         <v>255</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K4" s="5">
         <v>45006</v>
@@ -2254,13 +2250,13 @@
         <v>253</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="Q4" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -2308,7 +2304,7 @@
         <v>1</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P5" s="4" t="b">
         <v>0</v>
@@ -2422,16 +2418,16 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="Q7" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -2482,13 +2478,13 @@
         <v>253</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Q8" s="3" t="b">
         <v>1</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -2578,7 +2574,7 @@
         <v>247</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K10" s="5">
         <v>45008</v>
@@ -2653,126 +2649,126 @@
         <v>252</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Q11" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="10" t="str">
+      <c r="C12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Bast, Diana Ferroni; Lyons, Christina; Stewart, Ian; Connor, Thomas; Kelly, Michelle; Goyos, Celso (2020) The effect of educational messages on implicit and explicit attitudes towards individuals on the autism spectrum versus normally developing individuals. The Psychological Record. 10.1007/s40732-019-00363-4</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="3">
         <v>2020</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="J12" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="K12" s="11">
+      <c r="J12" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="K12" s="5">
         <v>45013</v>
       </c>
-      <c r="L12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="N12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="P12" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R12" s="10" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
+      <c r="L12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="10" t="str">
+      <c r="C13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Ferroni-Bast, Diana; Fitzpatrick, Jane; Stewart, Ian; Goyos, Celso (2019) Using the Implicit Relational Assessment Procedure (IRAP) as a measure of reaction to perceived failure and the effects of a defusion intervention in this context. The Psychological Record. 10.1007/s40732-019-00349-2</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="3">
         <v>2019</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="J13" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="K13" s="11">
+      <c r="J13" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="K13" s="5">
         <v>45013</v>
       </c>
-      <c r="L13" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="N13" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="P13" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="R13" s="10" t="s">
+      <c r="L13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="P13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="R13" s="3" t="s">
         <v>233</v>
       </c>
     </row>
@@ -2811,7 +2807,7 @@
       <c r="K14" s="5">
         <v>44995</v>
       </c>
-      <c r="L14" s="3" t="b">
+      <c r="L14" s="10" t="b">
         <v>0</v>
       </c>
       <c r="M14" s="3" t="b">
@@ -2821,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P14" s="4" t="b">
         <v>0</v>
@@ -2878,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="P15" s="4" t="b">
         <v>0</v>
@@ -2920,7 +2916,7 @@
         <v>249</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K16" s="5">
         <v>44995</v>
@@ -2935,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P16" s="4" t="b">
         <v>0</v>
@@ -2977,7 +2973,7 @@
         <v>247</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K17" s="5">
         <v>44995</v>
@@ -2992,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P17" s="4" t="b">
         <v>0</v>
@@ -3035,7 +3031,7 @@
         <v>247</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K18" s="5">
         <v>44995</v>
@@ -3050,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P18" s="4" t="b">
         <v>0</v>
@@ -3090,10 +3086,10 @@
         <v>208</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K19" s="5">
         <v>45007</v>
@@ -3108,16 +3104,16 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="Q19" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="S19" s="1"/>
     </row>
@@ -3149,7 +3145,7 @@
         <v>247</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K20" s="5">
         <v>45005</v>
@@ -3164,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="P20" s="4" t="b">
         <v>0</v>
@@ -3207,7 +3203,7 @@
         <v>247</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K21" s="5">
         <v>45005</v>
@@ -3222,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="P21" s="4" t="b">
         <v>0</v>
@@ -3280,16 +3276,16 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="Q22" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="51" x14ac:dyDescent="0.2">
@@ -3322,7 +3318,7 @@
         <v>249</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K23" s="5">
         <v>44995</v>
@@ -3337,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="P23" s="4" t="b">
         <v>0</v>
@@ -3394,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="P24" s="4" t="b">
         <v>0</v>
@@ -3493,7 +3489,7 @@
         <v>247</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K26" s="5">
         <v>44999</v>
@@ -3508,16 +3504,16 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Q26" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="51" x14ac:dyDescent="0.2">
@@ -3550,7 +3546,7 @@
         <v>247</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K27" s="5">
         <v>44999</v>
@@ -3565,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="P27" s="4" t="b">
         <v>0</v>
@@ -3607,7 +3603,7 @@
         <v>247</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K28" s="5">
         <v>44999</v>
@@ -3622,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="P28" s="4" t="b">
         <v>0</v>
@@ -3664,7 +3660,7 @@
         <v>249</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K29" s="5">
         <v>44995</v>
@@ -3682,13 +3678,13 @@
         <v>244</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Q29" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="34" x14ac:dyDescent="0.2">
@@ -3736,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="P30" s="4" t="b">
         <v>0</v>
@@ -3793,16 +3789,16 @@
         <v>0</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="Q31" s="7" t="b">
         <v>0</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="51" x14ac:dyDescent="0.2">
@@ -3850,16 +3846,16 @@
         <v>0</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q32" s="7" t="b">
         <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
@@ -3963,13 +3959,13 @@
       </c>
       <c r="O34" s="4"/>
       <c r="P34" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Q34" s="3" t="b">
         <v>1</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -4017,16 +4013,16 @@
         <v>0</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="Q35" s="3" t="b">
         <v>1</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -4074,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P36" s="4" t="b">
         <v>0</v>
@@ -4131,19 +4127,19 @@
         <v>1</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="Q37" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -4188,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>266</v>
+        <v>344</v>
       </c>
       <c r="P38" s="4" t="b">
         <v>0</v>
@@ -4255,7 +4251,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -4300,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>266</v>
+        <v>344</v>
       </c>
       <c r="P40" s="4" t="b">
         <v>0</v>
@@ -4422,7 +4418,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -4452,22 +4448,22 @@
         <v>247</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K43" s="5">
         <v>45013</v>
       </c>
       <c r="L43" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O43" s="4" t="s">
-        <v>333</v>
+        <v>1</v>
+      </c>
+      <c r="N43" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>340</v>
       </c>
       <c r="P43" s="4" t="b">
         <v>0</v>
@@ -4534,60 +4530,60 @@
         <v>233</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A45" s="10">
+    <row r="45" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="10" t="str">
+      <c r="C45" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Nasso, Selene; Vanderhasselt, Marie-Anne; De Raedt, Rudi (2020) Testing the neurocognitive framework for regulation expectation: The relationship between actual/ideal self-esteem and proactive/reactive autonomic stress regulation. Journal of Behavior Therapy and Experimental Psychiatry. 10.1016/j.jbtep.2020.101598</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="3">
         <v>2020</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="G45" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H45" s="10" t="s">
+      <c r="H45" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="I45" s="10" t="s">
+      <c r="I45" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="J45" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="K45" s="11">
+      <c r="J45" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K45" s="5">
         <v>45006</v>
       </c>
-      <c r="L45" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M45" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="N45" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O45" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="P45" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="R45" s="10" t="s">
+      <c r="L45" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M45" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="P45" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="R45" s="3" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4621,7 +4617,7 @@
         <v>247</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K46" s="5">
         <v>45013</v>
@@ -4636,7 +4632,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="P46" s="4" t="b">
         <v>0</v>
@@ -4648,114 +4644,114 @@
         <v>233</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="10">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C47" s="10" t="str">
+      <c r="C47" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Errasti, José; Martinez, Hugo; Rodriguez, Carmen; Marquez, Jennifer; Maldonado, Alejandro; Menendez, Alvaro (2019) Social context in a collective IRAP application about gender stereotypes: Mixed versus single gender groups. The Psychological Record. 10.1007/s40732-018-0320-1</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="3">
         <v>2019</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G47" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H47" s="10" t="s">
+      <c r="H47" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="I47" s="10" t="s">
+      <c r="I47" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="J47" s="10" t="s">
+      <c r="J47" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="K47" s="11">
+      <c r="K47" s="5">
         <v>44995</v>
       </c>
-      <c r="L47" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M47" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="N47" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O47" s="12"/>
-      <c r="P47" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="R47" s="10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" s="13" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A48" s="10">
+      <c r="L47" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C48" s="10" t="str">
+      <c r="C48" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Hong, Bao; Zhang, Lu; Sun, Hongri (2019) Measurement of the vertical spatial metaphor of power concepts using the Implicit Relational Assessment Procedure. Frontiers in Psychology. 10.3389/fpsyg.2019.01422</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="3">
         <v>2019</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F48" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G48" s="10" t="s">
+      <c r="G48" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H48" s="10" t="s">
+      <c r="H48" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="I48" s="10" t="s">
+      <c r="I48" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="J48" s="10" t="s">
+      <c r="J48" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="K48" s="11">
+      <c r="K48" s="5">
         <v>44995</v>
       </c>
-      <c r="L48" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M48" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="N48" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O48" s="12"/>
-      <c r="P48" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q48" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R48" s="10" t="s">
-        <v>305</v>
+      <c r="L48" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q48" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -4803,7 +4799,7 @@
         <v>1</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="P49" s="4" t="b">
         <v>0</v>
@@ -4815,59 +4811,61 @@
         <v>233</v>
       </c>
     </row>
-    <row r="50" spans="1:18" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A50" s="10">
+    <row r="50" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C50" s="10" t="str">
+      <c r="C50" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Glock, Sabine; Shevchuk, Anna; Kleen, Hannah (2022) Why Is Murat's achievement so low? Causal attributions and implicit attitudes toward ethnic minority students predict preservice teachers' judgments about achievement. Frontiers in Psychology. 10.3389/fpsyg.2022.819793</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="3">
         <v>2022</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E50" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F50" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="G50" s="10" t="s">
+      <c r="G50" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H50" s="10" t="s">
+      <c r="H50" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="I50" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="J50" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="K50" s="11">
+      <c r="I50" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="K50" s="5">
         <v>45013</v>
       </c>
-      <c r="L50" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M50" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="N50" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q50" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R50" s="10" t="s">
-        <v>305</v>
+      <c r="L50" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M50" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N50" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O50" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q50" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R50" s="3" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -4918,123 +4916,123 @@
         <v>262</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Q51" s="7" t="b">
         <v>0</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A52" s="10">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C52" s="10" t="str">
+      <c r="C52" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Paliliunas, Dana; Frizell, Chynna B. (2021) Evaluation of college students’ implicit biases toward believability of claims of sexual harassment using the Implicit Relational Assessment Procedure (IRAP). Behavior and Social Issues. 10.1007/s42822-021-00061-3</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="3">
         <v>2021</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E52" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="F52" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G52" s="10" t="s">
+      <c r="G52" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H52" s="10" t="s">
+      <c r="H52" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="I52" s="10" t="s">
+      <c r="I52" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="J52" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="K52" s="11">
+      <c r="J52" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="K52" s="5">
         <v>45013</v>
       </c>
-      <c r="L52" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M52" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="N52" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q52" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R52" s="10" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A53" s="10">
+      <c r="L52" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q52" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C53" s="10" t="str">
+      <c r="C53" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Cabrera, Isabel; Márquez-González, María; Kishita, Naoko; Vara-García, Carlos; Losada, Andrés (2021) Development and validation of an Implicit Relational Assessment Procedure (IRAP) to measure implicit dysfunctional beliefs about caregiving in dementia family caregivers. The Psychological Record. 10.1007/s40732-020-00445-8</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="3">
         <v>2021</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E53" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="G53" s="10" t="s">
+      <c r="G53" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H53" s="10" t="s">
+      <c r="H53" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="I53" s="10" t="s">
+      <c r="I53" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="J53" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="K53" s="11">
+      <c r="J53" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="K53" s="5">
         <v>44995</v>
       </c>
-      <c r="L53" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M53" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="N53" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O53" s="12"/>
-      <c r="P53" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q53" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R53" s="10" t="s">
-        <v>305</v>
+      <c r="L53" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q53" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -5100,7 +5098,7 @@
         <v>233</v>
       </c>
       <c r="O1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -5148,7 +5146,7 @@
         <v>233</v>
       </c>
       <c r="O2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -5196,7 +5194,7 @@
         <v>233</v>
       </c>
       <c r="O3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/data/requests for data/data requests.xlsx
+++ b/data/requests for data/data requests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ian/git/repository-of-published-irap-data/data/requests for data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDFFDB2-9412-9E44-988A-C0DBD6CBD2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900604FC-463B-7A4B-9F9B-8B2D47AEC3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7040" yWindow="2120" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contacted" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="347">
   <si>
     <t>72LX2MUL</t>
   </si>
@@ -821,9 +821,6 @@
     <t>levin, Rafacz, smith</t>
   </si>
   <si>
-    <t>"Let me prepare some data to share." on 15-03-2023</t>
-  </si>
-  <si>
     <t>bast, Alasiri, Kolts</t>
   </si>
   <si>
@@ -846,26 +843,6 @@
   </si>
   <si>
     <t>murphy; kelly; nolan</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>SHARED DATA BUT CANNOT BE MADE PUBLICA PER THE AUTHORS' ETHICAL REQUIREMENTS.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ethical restrictions at kelly's institutions, murphy reports having no data from any studies</t>
-    </r>
   </si>
   <si>
     <t>contacted summary</t>
@@ -1017,9 +994,6 @@
     <t>finn, barnes-holmes, d; barnes-holmes, y, mcenteggart</t>
   </si>
   <si>
-    <t>finn didn't reply, dbh, ybh and mcenteggart said they doesn't have the data</t>
-  </si>
-  <si>
     <t>hendricks, egger, barnes-holmes, d; barnes-holmes, y, mcenteggart</t>
   </si>
   <si>
@@ -1099,25 +1073,74 @@
     <t>cabrera, Losada</t>
   </si>
   <si>
-    <t>declined saying that they'd like to share but ethics prevent it.</t>
-  </si>
-  <si>
     <t>bast, goyos, stewart</t>
   </si>
   <si>
-    <t>Michnevich didn't reply, Jelinek did and said they can share but need to remove personal information.</t>
-  </si>
-  <si>
     <t>neither replied</t>
   </si>
   <si>
-    <t>sent data and implemention of measures, but measures and data cannot be from this study (wrong task, wrong N). Followed up with requests for clarification.</t>
-  </si>
-  <si>
-    <t>reported they will share but it could take time, did not specify a period</t>
-  </si>
-  <si>
-    <t>stated they will reply in more detail after april 8th, but did not commit to sharing</t>
+    <t>reported they will share but it could take time, did not specify a period. Reminder email with deadline sent a month before deadline.</t>
+  </si>
+  <si>
+    <t>"Let me prepare some data to share." on 15-03-2023. Reminder email with deadline sent a month before deadline.</t>
+  </si>
+  <si>
+    <t>declined saying that the data exists and they'd like to share but ethics prevent it.</t>
+  </si>
+  <si>
+    <t>bast didn't reply. I confirmed Bast's email address is current through her recent co-authors. Stewart replied and offered to share data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHARED DATA BUT CANNOT BE MADE PUBLIC PER THE AUTHORS' ETHICAL REQUIREMENTS. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>SHARED DATA BUT CANNOT BE MADE PUBLIC PER THE AUTHORS' ETHICAL REQUIREMENTS.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ethical restrictions at kelly's institutions, murphy reports having no data from any studies</t>
+    </r>
+  </si>
+  <si>
+    <t>finn didn't reply, dbh, ybh and mcenteggart said they doesn't have the data. Finn asked a mutual colleague if I received the data from him (implying he sent it), and so I emailed him again and provided an alternative email address for him to reply to, but I haven't received any direct reply from him.</t>
+  </si>
+  <si>
+    <t>finn didn't reply, dbh, ybh and mcenteggart said they doesn't have the data. Finn asked a mutual colleague if I received the data from him (implying he sent it), and so I emailed him again and provided an alternative email address for him to reply to, but</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>OFFERED TO SHARE DATA BUT CANNOT BE MADE PUBLIC PER THE AUTHORS' ETHICAL REQUIREMENTS.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ethical restrictions at nolan and kelly's institutions, murphy reports having no data from any studies. Said it would take time to share the data. I sent a reminder email a month before the deadeline. </t>
+    </r>
+  </si>
+  <si>
+    <t>I was sent data and implemention of measures, but measures and data cannot be from this study (wrong task, wrong N). Followed up with requests for clarification, they confirmed that I was sent data from a different study. Was told they'd send the correct data by end of day, but then they never replied. I sent a reminder email with deadline sent a month before deadline.</t>
   </si>
 </sst>
 </file>
@@ -2010,8 +2033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647F9036-BD7F-8941-AAC0-FD3B8EC13872}">
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I38" zoomScale="119" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView tabSelected="1" topLeftCell="H36" zoomScale="119" workbookViewId="0">
+      <selection activeCell="O51" sqref="O51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2058,34 +2081,34 @@
         <v>228</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>280</v>
-      </c>
       <c r="Q1" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -2118,7 +2141,7 @@
         <v>248</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K2" s="5">
         <v>44995</v>
@@ -2133,19 +2156,19 @@
         <v>1</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="Q2" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2175,7 +2198,7 @@
         <v>255</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K3" s="5">
         <v>45008</v>
@@ -2184,22 +2207,22 @@
         <v>1</v>
       </c>
       <c r="M3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>253</v>
+        <v>1</v>
+      </c>
+      <c r="N3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>345</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q3" s="3" t="b">
+        <v>307</v>
+      </c>
+      <c r="Q3" s="7" t="b">
         <v>0</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -2232,7 +2255,7 @@
         <v>255</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K4" s="5">
         <v>45006</v>
@@ -2250,13 +2273,13 @@
         <v>253</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Q4" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -2304,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>271</v>
+        <v>342</v>
       </c>
       <c r="P5" s="4" t="b">
         <v>0</v>
@@ -2418,16 +2441,16 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q7" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -2460,7 +2483,7 @@
         <v>247</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K8" s="5">
         <v>44995</v>
@@ -2478,13 +2501,13 @@
         <v>253</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Q8" s="3" t="b">
         <v>1</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -2574,7 +2597,7 @@
         <v>247</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K10" s="5">
         <v>45008</v>
@@ -2649,13 +2672,13 @@
         <v>252</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Q11" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -2688,7 +2711,7 @@
         <v>246</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="K12" s="5">
         <v>45013</v>
@@ -2697,25 +2720,25 @@
         <v>1</v>
       </c>
       <c r="M12" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="3" t="b">
         <v>0</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q12" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2745,7 +2768,7 @@
         <v>246</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="K13" s="5">
         <v>45013</v>
@@ -2754,13 +2777,13 @@
         <v>1</v>
       </c>
       <c r="M13" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="3" t="b">
         <v>0</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="P13" s="4" t="b">
         <v>0</v>
@@ -2817,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="P14" s="4" t="b">
         <v>0</v>
@@ -2859,7 +2882,7 @@
         <v>247</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K15" s="5">
         <v>45006</v>
@@ -2874,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="P15" s="4" t="b">
         <v>0</v>
@@ -2916,7 +2939,7 @@
         <v>249</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K16" s="5">
         <v>44995</v>
@@ -2931,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P16" s="4" t="b">
         <v>0</v>
@@ -2943,7 +2966,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="102" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2973,7 +2996,7 @@
         <v>247</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K17" s="5">
         <v>44995</v>
@@ -2981,14 +3004,14 @@
       <c r="L17" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="M17" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>316</v>
+      <c r="M17" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>343</v>
       </c>
       <c r="P17" s="4" t="b">
         <v>0</v>
@@ -3001,7 +3024,7 @@
       </c>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -3031,7 +3054,7 @@
         <v>247</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K18" s="5">
         <v>44995</v>
@@ -3039,14 +3062,14 @@
       <c r="L18" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="M18" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>316</v>
+      <c r="M18" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>344</v>
       </c>
       <c r="P18" s="4" t="b">
         <v>0</v>
@@ -3086,10 +3109,10 @@
         <v>208</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K19" s="5">
         <v>45007</v>
@@ -3104,16 +3127,16 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Q19" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="S19" s="1"/>
     </row>
@@ -3145,7 +3168,7 @@
         <v>247</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K20" s="5">
         <v>45005</v>
@@ -3160,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="P20" s="4" t="b">
         <v>0</v>
@@ -3203,7 +3226,7 @@
         <v>247</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K21" s="5">
         <v>45005</v>
@@ -3218,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="P21" s="4" t="b">
         <v>0</v>
@@ -3276,16 +3299,16 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="Q22" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="51" x14ac:dyDescent="0.2">
@@ -3318,7 +3341,7 @@
         <v>249</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K23" s="5">
         <v>44995</v>
@@ -3333,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="P23" s="4" t="b">
         <v>0</v>
@@ -3390,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P24" s="4" t="b">
         <v>0</v>
@@ -3447,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P25" s="4" t="b">
         <v>0</v>
@@ -3489,7 +3512,7 @@
         <v>247</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K26" s="5">
         <v>44999</v>
@@ -3504,16 +3527,16 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="Q26" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="51" x14ac:dyDescent="0.2">
@@ -3546,7 +3569,7 @@
         <v>247</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K27" s="5">
         <v>44999</v>
@@ -3561,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P27" s="4" t="b">
         <v>0</v>
@@ -3603,7 +3626,7 @@
         <v>247</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K28" s="5">
         <v>44999</v>
@@ -3618,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P28" s="4" t="b">
         <v>0</v>
@@ -3660,7 +3683,7 @@
         <v>249</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K29" s="5">
         <v>44995</v>
@@ -3678,13 +3701,13 @@
         <v>244</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Q29" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="34" x14ac:dyDescent="0.2">
@@ -3732,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="P30" s="4" t="b">
         <v>0</v>
@@ -3789,16 +3812,16 @@
         <v>0</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="Q31" s="7" t="b">
         <v>0</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="51" x14ac:dyDescent="0.2">
@@ -3846,16 +3869,16 @@
         <v>0</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Q32" s="7" t="b">
         <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
@@ -3959,13 +3982,13 @@
       </c>
       <c r="O34" s="4"/>
       <c r="P34" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Q34" s="3" t="b">
         <v>1</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -4013,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="Q35" s="3" t="b">
         <v>1</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -4070,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="P36" s="4" t="b">
         <v>0</v>
@@ -4127,16 +4150,16 @@
         <v>1</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Q37" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -4177,17 +4200,17 @@
       <c r="L38" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="M38" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N38" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O38" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="P38" s="4" t="b">
-        <v>0</v>
+      <c r="M38" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N38" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O38" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="P38" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="Q38" s="3" t="s">
         <v>233</v>
@@ -4289,17 +4312,17 @@
       <c r="L40" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="M40" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N40" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O40" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="P40" s="4" t="b">
-        <v>0</v>
+      <c r="M40" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N40" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O40" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="P40" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="Q40" s="3" t="s">
         <v>233</v>
@@ -4418,7 +4441,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -4448,7 +4471,7 @@
         <v>247</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K43" s="5">
         <v>45013</v>
@@ -4459,12 +4482,10 @@
       <c r="M43" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="N43" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O43" s="8" t="s">
-        <v>340</v>
-      </c>
+      <c r="N43" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O43" s="4"/>
       <c r="P43" s="4" t="b">
         <v>0</v>
       </c>
@@ -4560,7 +4581,7 @@
         <v>247</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K45" s="5">
         <v>45006</v>
@@ -4575,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P45" s="4" t="b">
         <v>0</v>
@@ -4617,7 +4638,7 @@
         <v>247</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K46" s="5">
         <v>45013</v>
@@ -4632,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="P46" s="4" t="b">
         <v>0</v>
@@ -4745,13 +4766,13 @@
       </c>
       <c r="O48" s="4"/>
       <c r="P48" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Q48" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -4799,7 +4820,7 @@
         <v>1</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="P49" s="4" t="b">
         <v>0</v>
@@ -4811,7 +4832,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" ht="119" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -4838,10 +4859,10 @@
         <v>219</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K50" s="5">
         <v>45013</v>
@@ -4856,16 +4877,16 @@
         <v>0</v>
       </c>
       <c r="O50" s="8" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q50" s="3" t="b">
-        <v>1</v>
+        <v>308</v>
+      </c>
+      <c r="Q50" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -4913,16 +4934,16 @@
         <v>0</v>
       </c>
       <c r="O51" s="8" t="s">
-        <v>262</v>
+        <v>338</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Q51" s="7" t="b">
         <v>0</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -4955,7 +4976,7 @@
         <v>247</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K52" s="5">
         <v>45013</v>
@@ -4971,13 +4992,13 @@
       </c>
       <c r="O52" s="4"/>
       <c r="P52" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="Q52" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -5010,7 +5031,7 @@
         <v>247</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K53" s="5">
         <v>44995</v>
@@ -5026,13 +5047,13 @@
       </c>
       <c r="O53" s="4"/>
       <c r="P53" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Q53" s="3" t="b">
         <v>0</v>
       </c>
       <c r="R53" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -5098,7 +5119,7 @@
         <v>233</v>
       </c>
       <c r="O1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -5146,7 +5167,7 @@
         <v>233</v>
       </c>
       <c r="O2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -5194,7 +5215,7 @@
         <v>233</v>
       </c>
       <c r="O3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/data/requests for data/data requests.xlsx
+++ b/data/requests for data/data requests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ian/git/repository-of-published-irap-data/data/requests for data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900604FC-463B-7A4B-9F9B-8B2D47AEC3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F6E106-266E-8843-8435-34E8DC19A903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="349">
   <si>
     <t>72LX2MUL</t>
   </si>
@@ -1088,9 +1088,6 @@
     <t>declined saying that the data exists and they'd like to share but ethics prevent it.</t>
   </si>
   <si>
-    <t>bast didn't reply. I confirmed Bast's email address is current through her recent co-authors. Stewart replied and offered to share data.</t>
-  </si>
-  <si>
     <t xml:space="preserve">SHARED DATA BUT CANNOT BE MADE PUBLIC PER THE AUTHORS' ETHICAL REQUIREMENTS. </t>
   </si>
   <si>
@@ -1141,6 +1138,35 @@
   </si>
   <si>
     <t>I was sent data and implemention of measures, but measures and data cannot be from this study (wrong task, wrong N). Followed up with requests for clarification, they confirmed that I was sent data from a different study. Was told they'd send the correct data by end of day, but then they never replied. I sent a reminder email with deadline sent a month before deadline.</t>
+  </si>
+  <si>
+    <t>bast didn't reply. I confirmed Bast's email address is current through her recent co-authors. Stewart replied and shared data.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bast didn't reply. I confirmed Bast's email address is current through her recent co-authors. Stewart replied and shared data. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>NB data was shared but not by person specified in DAS.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ethical restrictions at kelly's institutions, murphy reports having no data from any studies </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>NB data was shared but not by person specified in DAS.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2033,8 +2059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647F9036-BD7F-8941-AAC0-FD3B8EC13872}">
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H36" zoomScale="119" workbookViewId="0">
-      <selection activeCell="O51" sqref="O51"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2213,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>307</v>
@@ -2327,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P5" s="4" t="b">
         <v>0</v>
@@ -2498,7 +2524,7 @@
         <v>1</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>253</v>
+        <v>348</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>304</v>
@@ -2681,7 +2707,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2723,16 +2749,16 @@
         <v>1</v>
       </c>
       <c r="N12" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>294</v>
       </c>
       <c r="Q12" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>301</v>
@@ -2780,10 +2806,10 @@
         <v>1</v>
       </c>
       <c r="N13" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="P13" s="4" t="b">
         <v>0</v>
@@ -3011,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P17" s="4" t="b">
         <v>0</v>
@@ -3069,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P18" s="4" t="b">
         <v>0</v>
@@ -4207,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P38" s="3" t="b">
         <v>1</v>
@@ -4319,10 +4345,10 @@
         <v>1</v>
       </c>
       <c r="O40" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P40" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="3" t="s">
         <v>233</v>
@@ -4877,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P50" s="4" t="s">
         <v>308</v>
